--- a/inst/extdata/template.xlsx
+++ b/inst/extdata/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFACF45E-420D-9A46-8763-C52688E7FC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ADC248-89D0-9549-8842-EB1F823634E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="1820" windowWidth="26020" windowHeight="16980" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="5840" yWindow="1820" windowWidth="26020" windowHeight="16980" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -667,15 +667,17 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,13 +693,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7E970-76F8-6942-B4A0-7B2C1D2884B8}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1607,7 +1607,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C13:G14" xr:uid="{4DE0DCAE-C019-834F-B9C1-56C11EC5B821}">
       <formula1>$A$31:$A$32</formula1>
     </dataValidation>
@@ -1615,7 +1615,7 @@
       <formula1>43831</formula1>
       <formula2>44196</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:G7 C9:G9 C17:G17 C20:G20 C23:G23" xr:uid="{FAEE2E21-9B92-AA4A-8A06-54EDAF563E2B}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:G23 C9:G9 C17:G17 C20:G20 C5:G5 C7:G7" xr:uid="{FAEE2E21-9B92-AA4A-8A06-54EDAF563E2B}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
@@ -1626,6 +1626,10 @@
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:G3 C8:G8 C10:G10 C11:G14" xr:uid="{9F0C0177-DE3E-1444-856B-A1A4910CD57E}">
       <formula1>0</formula1>
       <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:G6" xr:uid="{24255A77-FFA2-BC46-B7A4-61EA8B17C188}">
+      <formula1>0</formula1>
+      <formula2>30</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1710,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9816A416-5B6A-4545-98DF-6AED7BBC6987}">
   <dimension ref="A1:R310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
@@ -1813,10 +1817,10 @@
         <v>95</v>
       </c>
       <c r="P2" s="40"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="R2" s="44"/>
+      <c r="R2" s="37"/>
     </row>
     <row r="3" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
@@ -1830,30 +1834,30 @@
         <v>100</v>
       </c>
       <c r="F3" s="42"/>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="38" t="s">
+      <c r="L3" s="45"/>
+      <c r="M3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38" t="s">
+      <c r="N3" s="44"/>
+      <c r="O3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="45" t="s">
+      <c r="P3" s="44"/>
+      <c r="Q3" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="R3" s="45"/>
+      <c r="R3" s="38"/>
     </row>
     <row r="4" spans="1:18" s="17" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -1862,10 +1866,10 @@
       <c r="B4" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="39">
         <v>0.85</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="41">
         <v>0.8</v>
       </c>
@@ -1890,10 +1894,10 @@
         <v>0.9</v>
       </c>
       <c r="P4" s="41"/>
-      <c r="Q4" s="37">
+      <c r="Q4" s="39">
         <v>0.9</v>
       </c>
-      <c r="R4" s="37"/>
+      <c r="R4" s="39"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -1902,38 +1906,38 @@
       <c r="B5" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="39">
         <v>0.4</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39">
         <v>0.4</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39">
         <v>0</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37">
+      <c r="H5" s="39"/>
+      <c r="I5" s="39">
         <v>0</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37">
+      <c r="J5" s="39"/>
+      <c r="K5" s="39">
         <v>0</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39">
         <v>0</v>
       </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37">
+      <c r="N5" s="39"/>
+      <c r="O5" s="39">
         <v>0</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39">
         <v>0.4</v>
       </c>
-      <c r="R5" s="37"/>
+      <c r="R5" s="39"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
@@ -8517,16 +8521,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="C3:D3"/>
@@ -8537,18 +8543,16 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B520" xr:uid="{140C1EC3-30A5-2448-BEAA-24AD135906D1}">

--- a/inst/extdata/template.xlsx
+++ b/inst/extdata/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFE5403-67DD-334C-8F96-C888DC2864BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{394FE102-C4A1-674A-B003-3FC77C026C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="900" windowWidth="29440" windowHeight="19500" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="4160" yWindow="700" windowWidth="29440" windowHeight="19500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>Number of Days from Infection to Becoming Infectious (Latent Period)</t>
   </si>
@@ -303,9 +303,6 @@
   </si>
   <si>
     <t>len_inter_age</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -402,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -464,12 +461,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -542,6 +550,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -894,14 +905,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7E970-76F8-6942-B4A0-7B2C1D2884B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="30" customWidth="1"/>
     <col min="2" max="2" width="62.5" style="2" customWidth="1"/>
@@ -1029,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D9" s="4">
         <v>0.03</v>
@@ -1051,11 +1062,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D2" xr:uid="{39F8344C-73C3-994E-96EF-A9BFB1D45FA6}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D10" xr:uid="{9F0C0177-DE3E-1444-856B-A1A4910CD57E}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -1065,14 +1076,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372A5C3-523B-5F40-A7DB-9F78D72AADAB}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -1080,18 +1091,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="37"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" s="28" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -1290,6 +1301,46 @@
         <v>7</v>
       </c>
       <c r="F11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>44025</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1300,11 +1351,11 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A11" xr:uid="{55857FF0-8ABD-E94F-8530-47F7128019AC}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A13" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>43831</formula1>
       <formula2>44196</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{9B674EB0-0B81-E446-AFB3-06ADC0DD22FE}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
@@ -1314,14 +1365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCB5455-61A0-9A48-A110-20902745EBF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
@@ -1373,11 +1424,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{88106E44-DD25-724E-9428-A2C12A1073F6}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>100000000</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4" xr:uid="{E9B6D3E5-D408-1D41-9CF1-E5EA3191C411}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>43831</formula1>
       <formula2>44561</formula2>
     </dataValidation>
@@ -1387,17 +1438,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9816A416-5B6A-4545-98DF-6AED7BBC6987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I305"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="20" topLeftCell="G91" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="20" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="G110" sqref="G110"/>
+      <selection pane="bottomRight" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.5" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="3" bestFit="1" customWidth="1"/>
@@ -1410,40 +1461,40 @@
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="43" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -1516,10 +1567,10 @@
       <c r="D5" s="23">
         <v>14</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="35">
         <v>21</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="35">
         <v>0</v>
       </c>
       <c r="G5" s="23"/>
@@ -1539,10 +1590,10 @@
       <c r="D6" s="23">
         <v>15</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="35">
         <v>15</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="35">
         <v>1</v>
       </c>
       <c r="G6" s="23"/>
@@ -1562,10 +1613,10 @@
       <c r="D7" s="23">
         <v>18</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="35">
         <v>12</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="35">
         <v>2</v>
       </c>
       <c r="G7" s="23"/>
@@ -1585,10 +1636,10 @@
       <c r="D8" s="23">
         <v>22</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="35">
         <v>13</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="35">
         <v>1</v>
       </c>
       <c r="G8" s="23"/>
@@ -1608,10 +1659,10 @@
       <c r="D9" s="23">
         <v>24</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="35">
         <v>10</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="35">
         <v>2</v>
       </c>
       <c r="G9" s="23"/>
@@ -1631,10 +1682,10 @@
       <c r="D10" s="23">
         <v>26</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="35">
         <v>10</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="35">
         <v>3</v>
       </c>
       <c r="G10" s="23"/>
@@ -1654,10 +1705,10 @@
       <c r="D11" s="23">
         <v>24</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="35">
         <v>16</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="35">
         <v>5</v>
       </c>
       <c r="G11" s="23"/>
@@ -1677,10 +1728,10 @@
       <c r="D12" s="23">
         <v>9</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="35">
         <v>7</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="35">
         <v>5</v>
       </c>
       <c r="G12" s="23"/>
@@ -1700,10 +1751,10 @@
       <c r="D13" s="23">
         <v>21</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="35">
         <v>7</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="35">
         <v>5</v>
       </c>
       <c r="G13" s="23"/>
@@ -1723,10 +1774,10 @@
       <c r="D14" s="23">
         <v>35</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="35">
         <v>15</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="35">
         <v>6</v>
       </c>
       <c r="G14" s="23"/>
@@ -1746,10 +1797,10 @@
       <c r="D15" s="23">
         <v>36</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="35">
         <v>8</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="35">
         <v>6</v>
       </c>
       <c r="G15" s="23"/>
@@ -1769,10 +1820,10 @@
       <c r="D16" s="23">
         <v>36</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="35">
         <v>5</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="35">
         <v>6</v>
       </c>
       <c r="G16" s="23"/>
@@ -1792,10 +1843,10 @@
       <c r="D17" s="23">
         <v>38</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="35">
         <v>14</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="35">
         <v>6</v>
       </c>
       <c r="G17" s="23"/>
@@ -1815,10 +1866,10 @@
       <c r="D18" s="23">
         <v>34</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="35">
         <v>11</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="35">
         <v>6</v>
       </c>
       <c r="G18" s="23"/>
@@ -1838,10 +1889,10 @@
       <c r="D19" s="23">
         <v>36</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="35">
         <v>10</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="35">
         <v>6</v>
       </c>
       <c r="G19" s="23"/>
@@ -1861,10 +1912,10 @@
       <c r="D20" s="23">
         <v>37</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="35">
         <v>8</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="35">
         <v>6</v>
       </c>
       <c r="G20" s="23"/>
@@ -1884,10 +1935,10 @@
       <c r="D21" s="23">
         <v>33</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="35">
         <v>14</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="35">
         <v>7</v>
       </c>
       <c r="G21" s="23"/>
@@ -1907,10 +1958,10 @@
       <c r="D22" s="23">
         <v>32</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="35">
         <v>12</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="35">
         <v>8</v>
       </c>
       <c r="G22" s="23"/>
@@ -1930,10 +1981,10 @@
       <c r="D23" s="23">
         <v>29</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="35">
         <v>13</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="35">
         <v>12</v>
       </c>
       <c r="G23" s="23"/>
@@ -1953,10 +2004,10 @@
       <c r="D24" s="23">
         <v>31</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="35">
         <v>7</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="35">
         <v>12</v>
       </c>
       <c r="G24" s="23"/>
@@ -1976,10 +2027,10 @@
       <c r="D25" s="23">
         <v>31</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="35">
         <v>9</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="35">
         <v>12</v>
       </c>
       <c r="G25" s="23"/>
@@ -1999,10 +2050,10 @@
       <c r="D26" s="23">
         <v>28</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="35">
         <v>5</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="35">
         <v>15</v>
       </c>
       <c r="G26" s="23"/>
@@ -2022,10 +2073,10 @@
       <c r="D27" s="23">
         <v>25</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="35">
         <v>7</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="35">
         <v>15</v>
       </c>
       <c r="G27" s="23"/>
@@ -2045,10 +2096,10 @@
       <c r="D28" s="23">
         <v>28</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="35">
         <v>9</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="35">
         <v>17</v>
       </c>
       <c r="G28" s="23"/>
@@ -2068,10 +2119,10 @@
       <c r="D29" s="23">
         <v>28</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="35">
         <v>9</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="35">
         <v>17</v>
       </c>
       <c r="G29" s="23"/>
@@ -2091,10 +2142,10 @@
       <c r="D30" s="23">
         <v>27</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="35">
         <v>8</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="35">
         <v>20</v>
       </c>
       <c r="G30" s="23"/>
@@ -2114,10 +2165,10 @@
       <c r="D31" s="23">
         <v>27</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="35">
         <v>9</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="35">
         <v>20</v>
       </c>
       <c r="G31" s="23"/>
@@ -2137,10 +2188,10 @@
       <c r="D32" s="23">
         <v>27</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="35">
         <v>7</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="35">
         <v>20</v>
       </c>
       <c r="G32" s="23"/>
@@ -2160,10 +2211,10 @@
       <c r="D33" s="23">
         <v>25</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="35">
         <v>5</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="35">
         <v>20</v>
       </c>
       <c r="G33" s="23"/>
@@ -2183,10 +2234,10 @@
       <c r="D34" s="23">
         <v>27</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="35">
         <v>4</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="35">
         <v>20</v>
       </c>
       <c r="G34" s="23"/>
@@ -2206,10 +2257,10 @@
       <c r="D35" s="23">
         <v>33</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="35">
         <v>6</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="35">
         <v>21</v>
       </c>
       <c r="G35" s="23"/>
@@ -2229,10 +2280,10 @@
       <c r="D36" s="23">
         <v>30</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="35">
         <v>5</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="35">
         <v>21</v>
       </c>
       <c r="G36" s="23"/>
@@ -2252,10 +2303,10 @@
       <c r="D37" s="23">
         <v>30</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="35">
         <v>3</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="35">
         <v>22</v>
       </c>
       <c r="G37" s="23"/>
@@ -2275,10 +2326,10 @@
       <c r="D38" s="23">
         <v>31</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="35">
         <v>4</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="35">
         <v>22</v>
       </c>
       <c r="G38" s="23"/>
@@ -2298,10 +2349,10 @@
       <c r="D39" s="23">
         <v>29</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="35">
         <v>2</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="35">
         <v>23</v>
       </c>
       <c r="G39" s="23"/>
@@ -2321,10 +2372,10 @@
       <c r="D40" s="23">
         <v>28</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="35">
         <v>9</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="35">
         <v>23</v>
       </c>
       <c r="G40" s="23"/>
@@ -2344,10 +2395,10 @@
       <c r="D41" s="23">
         <v>27</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="35">
         <v>8</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="35">
         <v>23</v>
       </c>
       <c r="G41" s="23"/>
@@ -2367,10 +2418,10 @@
       <c r="D42" s="23">
         <v>32</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="35">
         <v>1</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="35">
         <v>23</v>
       </c>
       <c r="G42" s="23"/>
@@ -2390,10 +2441,10 @@
       <c r="D43" s="23">
         <v>32</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="35">
         <v>1</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="35">
         <v>26</v>
       </c>
       <c r="G43" s="23"/>
@@ -2413,10 +2464,10 @@
       <c r="D44" s="23">
         <v>29</v>
       </c>
-      <c r="E44" s="34">
+      <c r="E44" s="35">
         <v>6</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="35">
         <v>29</v>
       </c>
       <c r="G44" s="23"/>
@@ -2436,10 +2487,10 @@
       <c r="D45" s="23">
         <v>30</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="35">
         <v>3</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="35">
         <v>29</v>
       </c>
       <c r="G45" s="23"/>
@@ -2459,10 +2510,10 @@
       <c r="D46" s="23">
         <v>26</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="35">
         <v>2</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="35">
         <v>30</v>
       </c>
       <c r="G46" s="23"/>
@@ -2482,10 +2533,10 @@
       <c r="D47" s="23">
         <v>27</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="35">
         <v>0</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="35">
         <v>31</v>
       </c>
       <c r="G47" s="23"/>
@@ -2505,10 +2556,10 @@
       <c r="D48" s="23">
         <v>26</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="35">
         <v>9</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="35">
         <v>31</v>
       </c>
       <c r="G48" s="23"/>
@@ -2528,10 +2579,10 @@
       <c r="D49" s="23">
         <v>30</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="35">
         <v>1</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="35">
         <v>31</v>
       </c>
       <c r="G49" s="23"/>
@@ -2551,10 +2602,10 @@
       <c r="D50" s="23">
         <v>28</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="35">
         <v>3</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="35">
         <v>32</v>
       </c>
       <c r="G50" s="23"/>
@@ -2574,10 +2625,10 @@
       <c r="D51" s="23">
         <v>27</v>
       </c>
-      <c r="E51" s="34">
+      <c r="E51" s="35">
         <v>6</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="35">
         <v>33</v>
       </c>
       <c r="G51" s="23"/>
@@ -2597,10 +2648,10 @@
       <c r="D52" s="23">
         <v>24</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="35">
         <v>7</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="35">
         <v>34</v>
       </c>
       <c r="G52" s="23"/>
@@ -2620,10 +2671,10 @@
       <c r="D53" s="23">
         <v>23</v>
       </c>
-      <c r="E53" s="34">
+      <c r="E53" s="35">
         <v>10</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="35">
         <v>34</v>
       </c>
       <c r="G53" s="23"/>
@@ -2643,10 +2694,10 @@
       <c r="D54" s="23">
         <v>23</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="35">
         <v>7</v>
       </c>
-      <c r="F54" s="34">
+      <c r="F54" s="35">
         <v>35</v>
       </c>
       <c r="G54" s="23"/>
@@ -2666,10 +2717,10 @@
       <c r="D55" s="23">
         <v>25</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="35">
         <v>6</v>
       </c>
-      <c r="F55" s="34">
+      <c r="F55" s="35">
         <v>35</v>
       </c>
       <c r="G55" s="23"/>
@@ -2689,10 +2740,10 @@
       <c r="D56" s="23">
         <v>22</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E56" s="35">
         <v>7</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="35">
         <v>35</v>
       </c>
       <c r="G56" s="23"/>
@@ -2712,10 +2763,10 @@
       <c r="D57" s="23">
         <v>20</v>
       </c>
-      <c r="E57" s="34">
+      <c r="E57" s="35">
         <v>9</v>
       </c>
-      <c r="F57" s="34">
+      <c r="F57" s="35">
         <v>35</v>
       </c>
       <c r="G57" s="23"/>
@@ -2735,10 +2786,10 @@
       <c r="D58" s="23">
         <v>21</v>
       </c>
-      <c r="E58" s="34">
+      <c r="E58" s="35">
         <v>4</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="35">
         <v>36</v>
       </c>
       <c r="G58" s="23"/>
@@ -2758,10 +2809,10 @@
       <c r="D59" s="23">
         <v>19</v>
       </c>
-      <c r="E59" s="34">
+      <c r="E59" s="35">
         <v>5</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="35">
         <v>36</v>
       </c>
       <c r="G59" s="23"/>
@@ -2781,10 +2832,10 @@
       <c r="D60" s="23">
         <v>19</v>
       </c>
-      <c r="E60" s="34">
+      <c r="E60" s="35">
         <v>9</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="35">
         <v>36</v>
       </c>
       <c r="G60" s="23"/>
@@ -2804,10 +2855,10 @@
       <c r="D61" s="23">
         <v>20</v>
       </c>
-      <c r="E61" s="34">
+      <c r="E61" s="35">
         <v>2</v>
       </c>
-      <c r="F61" s="34">
+      <c r="F61" s="35">
         <v>36</v>
       </c>
       <c r="G61" s="23"/>
@@ -2827,10 +2878,10 @@
       <c r="D62" s="23">
         <v>22</v>
       </c>
-      <c r="E62" s="34">
+      <c r="E62" s="35">
         <v>6</v>
       </c>
-      <c r="F62" s="34">
+      <c r="F62" s="35">
         <v>36</v>
       </c>
       <c r="G62" s="23"/>
@@ -2850,10 +2901,10 @@
       <c r="D63" s="23">
         <v>18</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="35">
         <v>13</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="35">
         <v>37</v>
       </c>
       <c r="G63" s="23"/>
@@ -2873,10 +2924,10 @@
       <c r="D64" s="23">
         <v>20</v>
       </c>
-      <c r="E64" s="34">
+      <c r="E64" s="35">
         <v>11</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="35">
         <v>37</v>
       </c>
       <c r="G64" s="23"/>
@@ -2896,10 +2947,10 @@
       <c r="D65" s="23">
         <v>19</v>
       </c>
-      <c r="E65" s="34">
+      <c r="E65" s="35">
         <v>7</v>
       </c>
-      <c r="F65" s="34">
+      <c r="F65" s="35">
         <v>40</v>
       </c>
       <c r="G65" s="23"/>
@@ -2919,10 +2970,10 @@
       <c r="D66" s="23">
         <v>21</v>
       </c>
-      <c r="E66" s="34">
+      <c r="E66" s="35">
         <v>10</v>
       </c>
-      <c r="F66" s="34">
+      <c r="F66" s="35">
         <v>40</v>
       </c>
       <c r="G66" s="23"/>
@@ -2942,10 +2993,10 @@
       <c r="D67" s="23">
         <v>21</v>
       </c>
-      <c r="E67" s="34">
+      <c r="E67" s="35">
         <v>6</v>
       </c>
-      <c r="F67" s="34">
+      <c r="F67" s="35">
         <v>40</v>
       </c>
       <c r="G67" s="23"/>
@@ -2965,10 +3016,10 @@
       <c r="D68" s="23">
         <v>21</v>
       </c>
-      <c r="E68" s="34">
+      <c r="E68" s="35">
         <v>14</v>
       </c>
-      <c r="F68" s="34">
+      <c r="F68" s="35">
         <v>40</v>
       </c>
       <c r="G68" s="23"/>
@@ -2988,10 +3039,10 @@
       <c r="D69" s="23">
         <v>20</v>
       </c>
-      <c r="E69" s="34">
+      <c r="E69" s="35">
         <v>18</v>
       </c>
-      <c r="F69" s="34">
+      <c r="F69" s="35">
         <v>40</v>
       </c>
       <c r="G69" s="23"/>
@@ -3011,10 +3062,10 @@
       <c r="D70" s="23">
         <v>21</v>
       </c>
-      <c r="E70" s="34">
+      <c r="E70" s="35">
         <v>8</v>
       </c>
-      <c r="F70" s="34">
+      <c r="F70" s="35">
         <v>40</v>
       </c>
       <c r="G70" s="23"/>
@@ -3034,10 +3085,10 @@
       <c r="D71" s="23">
         <v>20</v>
       </c>
-      <c r="E71" s="34">
+      <c r="E71" s="35">
         <v>7</v>
       </c>
-      <c r="F71" s="34">
+      <c r="F71" s="35">
         <v>40</v>
       </c>
       <c r="G71" s="23"/>
@@ -3057,10 +3108,10 @@
       <c r="D72" s="23">
         <v>20</v>
       </c>
-      <c r="E72" s="34">
+      <c r="E72" s="35">
         <v>4</v>
       </c>
-      <c r="F72" s="34">
+      <c r="F72" s="35">
         <v>41</v>
       </c>
       <c r="G72" s="23"/>
@@ -3080,10 +3131,10 @@
       <c r="D73" s="23">
         <v>22</v>
       </c>
-      <c r="E73" s="34">
+      <c r="E73" s="35">
         <v>5</v>
       </c>
-      <c r="F73" s="34">
+      <c r="F73" s="35">
         <v>41</v>
       </c>
       <c r="G73" s="23"/>
@@ -3103,10 +3154,10 @@
       <c r="D74" s="23">
         <v>19</v>
       </c>
-      <c r="E74" s="34">
+      <c r="E74" s="35">
         <v>4</v>
       </c>
-      <c r="F74" s="34">
+      <c r="F74" s="35">
         <v>42</v>
       </c>
       <c r="G74" s="23"/>
@@ -3126,10 +3177,10 @@
       <c r="D75" s="23">
         <v>19</v>
       </c>
-      <c r="E75" s="34">
+      <c r="E75" s="35">
         <v>6</v>
       </c>
-      <c r="F75" s="34">
+      <c r="F75" s="35">
         <v>43</v>
       </c>
       <c r="G75" s="23"/>
@@ -3149,10 +3200,10 @@
       <c r="D76" s="23">
         <v>19</v>
       </c>
-      <c r="E76" s="34">
+      <c r="E76" s="35">
         <v>5</v>
       </c>
-      <c r="F76" s="34">
+      <c r="F76" s="35">
         <v>43</v>
       </c>
       <c r="G76" s="23"/>
@@ -3172,10 +3223,10 @@
       <c r="D77" s="23">
         <v>16</v>
       </c>
-      <c r="E77" s="34">
+      <c r="E77" s="35">
         <v>5</v>
       </c>
-      <c r="F77" s="34">
+      <c r="F77" s="35">
         <v>43</v>
       </c>
       <c r="G77" s="23"/>
@@ -3195,10 +3246,10 @@
       <c r="D78" s="23">
         <v>15</v>
       </c>
-      <c r="E78" s="34">
+      <c r="E78" s="35">
         <v>7</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F78" s="35">
         <v>43</v>
       </c>
       <c r="G78" s="23"/>
@@ -3218,10 +3269,10 @@
       <c r="D79" s="23">
         <v>15</v>
       </c>
-      <c r="E79" s="34">
+      <c r="E79" s="35">
         <v>4</v>
       </c>
-      <c r="F79" s="34">
+      <c r="F79" s="35">
         <v>43</v>
       </c>
       <c r="G79" s="23"/>
@@ -3241,10 +3292,10 @@
       <c r="D80" s="23">
         <v>14</v>
       </c>
-      <c r="E80" s="34">
+      <c r="E80" s="35">
         <v>1</v>
       </c>
-      <c r="F80" s="34">
+      <c r="F80" s="35">
         <v>43</v>
       </c>
       <c r="G80" s="23"/>
@@ -3264,10 +3315,10 @@
       <c r="D81" s="23">
         <v>14</v>
       </c>
-      <c r="E81" s="34">
+      <c r="E81" s="35">
         <v>0</v>
       </c>
-      <c r="F81" s="34">
+      <c r="F81" s="35">
         <v>43</v>
       </c>
       <c r="G81" s="23"/>
@@ -3287,10 +3338,10 @@
       <c r="D82" s="23">
         <v>14</v>
       </c>
-      <c r="E82" s="34">
+      <c r="E82" s="35">
         <v>1</v>
       </c>
-      <c r="F82" s="34">
+      <c r="F82" s="35">
         <v>43</v>
       </c>
       <c r="G82" s="23"/>
@@ -3310,10 +3361,10 @@
       <c r="D83" s="23">
         <v>13</v>
       </c>
-      <c r="E83" s="34">
+      <c r="E83" s="35">
         <v>0</v>
       </c>
-      <c r="F83" s="34">
+      <c r="F83" s="35">
         <v>44</v>
       </c>
       <c r="G83" s="23"/>
@@ -3333,10 +3384,10 @@
       <c r="D84" s="23">
         <v>14</v>
       </c>
-      <c r="E84" s="34">
+      <c r="E84" s="35">
         <v>0</v>
       </c>
-      <c r="F84" s="34">
+      <c r="F84" s="35">
         <v>44</v>
       </c>
       <c r="G84" s="23"/>
@@ -3356,10 +3407,10 @@
       <c r="D85" s="23">
         <v>15</v>
       </c>
-      <c r="E85" s="34">
+      <c r="E85" s="35">
         <v>1</v>
       </c>
-      <c r="F85" s="34">
+      <c r="F85" s="35">
         <v>44</v>
       </c>
       <c r="G85" s="23"/>
@@ -3379,10 +3430,10 @@
       <c r="D86" s="23">
         <v>13</v>
       </c>
-      <c r="E86" s="34">
+      <c r="E86" s="35">
         <v>0</v>
       </c>
-      <c r="F86" s="34">
+      <c r="F86" s="35">
         <v>44</v>
       </c>
       <c r="G86" s="23"/>
@@ -3402,10 +3453,10 @@
       <c r="D87" s="23">
         <v>11</v>
       </c>
-      <c r="E87" s="34">
+      <c r="E87" s="35">
         <v>3</v>
       </c>
-      <c r="F87" s="34">
+      <c r="F87" s="35">
         <v>44</v>
       </c>
       <c r="G87" s="23"/>
@@ -3604,10 +3655,10 @@
         <v>29</v>
       </c>
       <c r="C96" s="19">
+        <v>8</v>
+      </c>
+      <c r="D96" s="23">
         <v>7</v>
-      </c>
-      <c r="D96" s="23">
-        <v>8</v>
       </c>
       <c r="E96" s="23">
         <v>2</v>
@@ -3627,10 +3678,10 @@
         <v>31</v>
       </c>
       <c r="C97" s="19">
+        <v>9</v>
+      </c>
+      <c r="D97" s="23">
         <v>7</v>
-      </c>
-      <c r="D97" s="23">
-        <v>9</v>
       </c>
       <c r="E97" s="23">
         <v>3</v>
@@ -3650,10 +3701,10 @@
         <v>28</v>
       </c>
       <c r="C98" s="19">
+        <v>10</v>
+      </c>
+      <c r="D98" s="23">
         <v>9</v>
-      </c>
-      <c r="D98" s="23">
-        <v>10</v>
       </c>
       <c r="E98" s="23">
         <v>3</v>
@@ -3673,10 +3724,10 @@
         <v>37</v>
       </c>
       <c r="C99" s="19">
+        <v>11</v>
+      </c>
+      <c r="D99" s="23">
         <v>13</v>
-      </c>
-      <c r="D99" s="23">
-        <v>11</v>
       </c>
       <c r="E99" s="23">
         <v>5</v>
@@ -3696,10 +3747,10 @@
         <v>38</v>
       </c>
       <c r="C100" s="19">
+        <v>13</v>
+      </c>
+      <c r="D100" s="23">
         <v>9</v>
-      </c>
-      <c r="D100" s="23">
-        <v>13</v>
       </c>
       <c r="E100" s="23">
         <v>3</v>
@@ -3719,10 +3770,10 @@
         <v>43</v>
       </c>
       <c r="C101" s="19">
+        <v>13</v>
+      </c>
+      <c r="D101" s="23">
         <v>11</v>
-      </c>
-      <c r="D101" s="23">
-        <v>13</v>
       </c>
       <c r="E101" s="23">
         <v>4</v>
@@ -3742,10 +3793,10 @@
         <v>46</v>
       </c>
       <c r="C102" s="19">
+        <v>13</v>
+      </c>
+      <c r="D102" s="23">
         <v>16</v>
-      </c>
-      <c r="D102" s="23">
-        <v>13</v>
       </c>
       <c r="E102" s="23">
         <v>4</v>
@@ -3765,10 +3816,10 @@
         <v>49</v>
       </c>
       <c r="C103" s="19">
+        <v>17</v>
+      </c>
+      <c r="D103" s="23">
         <v>11</v>
-      </c>
-      <c r="D103" s="23">
-        <v>17</v>
       </c>
       <c r="E103" s="23">
         <v>5</v>
@@ -3788,10 +3839,10 @@
         <v>50</v>
       </c>
       <c r="C104" s="19">
+        <v>19</v>
+      </c>
+      <c r="D104" s="23">
         <v>15</v>
-      </c>
-      <c r="D104" s="23">
-        <v>19</v>
       </c>
       <c r="E104" s="23">
         <v>2</v>
@@ -3856,16 +3907,16 @@
       <c r="B107" s="19">
         <v>51</v>
       </c>
-      <c r="C107" s="35">
+      <c r="C107" s="36">
         <v>15</v>
       </c>
       <c r="D107" s="23">
         <v>18</v>
       </c>
-      <c r="E107" s="36">
+      <c r="E107" s="37">
         <v>2</v>
       </c>
-      <c r="F107" s="36">
+      <c r="F107" s="37">
         <v>50</v>
       </c>
       <c r="G107" s="23"/>
@@ -3935,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F110" s="23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G110" s="23"/>
       <c r="H110" s="19"/>
@@ -3958,7 +4009,7 @@
         <v>3</v>
       </c>
       <c r="F111" s="23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G111" s="23"/>
       <c r="H111" s="19"/>
@@ -3981,7 +4032,7 @@
         <v>2</v>
       </c>
       <c r="F112" s="23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G112" s="23"/>
       <c r="H112" s="19"/>
@@ -4004,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G113" s="23"/>
       <c r="H113" s="19"/>
@@ -4027,7 +4078,7 @@
         <v>2</v>
       </c>
       <c r="F114" s="23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="19"/>
@@ -4038,207 +4089,411 @@
         <v>44023</v>
       </c>
       <c r="B115" s="19">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C115" s="19">
         <v>13</v>
       </c>
       <c r="D115" s="23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E115" s="23">
         <v>1</v>
       </c>
       <c r="F115" s="23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G115" s="23"/>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="20"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
+      <c r="A116" s="20">
+        <v>44024</v>
+      </c>
+      <c r="B116" s="19">
+        <v>74</v>
+      </c>
+      <c r="C116" s="19">
+        <v>19</v>
+      </c>
+      <c r="D116" s="23">
+        <v>23</v>
+      </c>
+      <c r="E116" s="23">
+        <v>1</v>
+      </c>
+      <c r="F116" s="23">
+        <v>52</v>
+      </c>
       <c r="G116" s="23"/>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="20"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
+      <c r="A117" s="20">
+        <v>44025</v>
+      </c>
+      <c r="B117" s="19">
+        <v>76</v>
+      </c>
+      <c r="C117" s="19">
+        <v>13</v>
+      </c>
+      <c r="D117" s="23">
+        <v>19</v>
+      </c>
+      <c r="E117" s="23">
+        <v>0</v>
+      </c>
+      <c r="F117" s="23">
+        <v>53</v>
+      </c>
       <c r="G117" s="23"/>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="20"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
+      <c r="A118" s="20">
+        <v>44026</v>
+      </c>
+      <c r="B118" s="19">
+        <v>86</v>
+      </c>
+      <c r="C118" s="19">
+        <v>13</v>
+      </c>
+      <c r="D118" s="23">
+        <v>23</v>
+      </c>
+      <c r="E118" s="23">
+        <v>0</v>
+      </c>
+      <c r="F118" s="23">
+        <v>54</v>
+      </c>
       <c r="G118" s="23"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="20"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
+      <c r="A119" s="20">
+        <v>44027</v>
+      </c>
+      <c r="B119" s="19">
+        <v>80</v>
+      </c>
+      <c r="C119" s="19">
+        <v>16</v>
+      </c>
+      <c r="D119" s="23">
+        <v>21</v>
+      </c>
+      <c r="E119" s="23">
+        <v>0</v>
+      </c>
+      <c r="F119" s="23">
+        <v>55</v>
+      </c>
       <c r="G119" s="23"/>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="20"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
+      <c r="A120" s="20">
+        <v>44028</v>
+      </c>
+      <c r="B120" s="19">
+        <v>83</v>
+      </c>
+      <c r="C120" s="19">
+        <v>18</v>
+      </c>
+      <c r="D120" s="23">
+        <v>20</v>
+      </c>
+      <c r="E120" s="23">
+        <v>1</v>
+      </c>
+      <c r="F120" s="23">
+        <v>55</v>
+      </c>
       <c r="G120" s="23"/>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="20"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
+      <c r="A121" s="20">
+        <v>44029</v>
+      </c>
+      <c r="B121" s="19">
+        <v>83</v>
+      </c>
+      <c r="C121" s="19">
+        <v>20</v>
+      </c>
+      <c r="D121" s="23">
+        <v>27</v>
+      </c>
+      <c r="E121" s="23">
+        <v>2</v>
+      </c>
+      <c r="F121" s="23">
+        <v>55</v>
+      </c>
       <c r="G121" s="23"/>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="20"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
+      <c r="A122" s="20">
+        <v>44030</v>
+      </c>
+      <c r="B122" s="19">
+        <v>90</v>
+      </c>
+      <c r="C122" s="19">
+        <v>10</v>
+      </c>
+      <c r="D122" s="23">
+        <v>29</v>
+      </c>
+      <c r="E122" s="23">
+        <v>1</v>
+      </c>
+      <c r="F122" s="23">
+        <v>56</v>
+      </c>
       <c r="G122" s="23"/>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="20"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
+      <c r="A123" s="20">
+        <v>44031</v>
+      </c>
+      <c r="B123" s="19">
+        <v>90</v>
+      </c>
+      <c r="C123" s="19">
+        <v>16</v>
+      </c>
+      <c r="D123" s="23">
+        <v>24</v>
+      </c>
+      <c r="E123" s="23">
+        <v>2</v>
+      </c>
+      <c r="F123" s="23">
+        <v>56</v>
+      </c>
       <c r="G123" s="23"/>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="20"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
+      <c r="A124" s="20">
+        <v>44032</v>
+      </c>
+      <c r="B124" s="19">
+        <v>91</v>
+      </c>
+      <c r="C124" s="19">
+        <v>18</v>
+      </c>
+      <c r="D124" s="23">
+        <v>24</v>
+      </c>
+      <c r="E124" s="23">
+        <v>1</v>
+      </c>
+      <c r="F124" s="23">
+        <v>56</v>
+      </c>
       <c r="G124" s="23"/>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="20"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
+      <c r="A125" s="20">
+        <v>44033</v>
+      </c>
+      <c r="B125" s="19">
+        <v>93</v>
+      </c>
+      <c r="C125" s="19">
+        <v>23</v>
+      </c>
+      <c r="D125" s="23">
+        <v>26</v>
+      </c>
+      <c r="E125" s="23">
+        <v>3</v>
+      </c>
+      <c r="F125" s="23">
+        <v>56</v>
+      </c>
       <c r="G125" s="23"/>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="20"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
+      <c r="A126" s="20">
+        <v>44034</v>
+      </c>
+      <c r="B126" s="19">
+        <v>98</v>
+      </c>
+      <c r="C126" s="19">
+        <v>27</v>
+      </c>
+      <c r="D126" s="23">
+        <v>28</v>
+      </c>
+      <c r="E126" s="23">
+        <v>1</v>
+      </c>
+      <c r="F126" s="23">
+        <v>56</v>
+      </c>
       <c r="G126" s="23"/>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="20"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
+      <c r="A127" s="20">
+        <v>44035</v>
+      </c>
+      <c r="B127" s="19">
+        <v>100</v>
+      </c>
+      <c r="C127" s="19">
+        <v>14</v>
+      </c>
+      <c r="D127" s="23">
+        <v>26</v>
+      </c>
+      <c r="E127" s="23">
+        <v>3</v>
+      </c>
+      <c r="F127" s="23">
+        <v>56</v>
+      </c>
       <c r="G127" s="23"/>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="20"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
+      <c r="A128" s="20">
+        <v>44036</v>
+      </c>
+      <c r="B128" s="19">
+        <v>102</v>
+      </c>
+      <c r="C128" s="19">
+        <v>20</v>
+      </c>
+      <c r="D128" s="23">
+        <v>27</v>
+      </c>
+      <c r="E128" s="23">
+        <v>6</v>
+      </c>
+      <c r="F128" s="23">
+        <v>56</v>
+      </c>
       <c r="G128" s="23"/>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="20"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
+      <c r="A129" s="20">
+        <v>44037</v>
+      </c>
+      <c r="B129" s="19">
+        <v>101</v>
+      </c>
+      <c r="C129" s="19">
+        <v>18</v>
+      </c>
+      <c r="D129" s="23">
+        <v>28</v>
+      </c>
+      <c r="E129" s="23">
+        <v>5</v>
+      </c>
+      <c r="F129" s="23">
+        <v>56</v>
+      </c>
       <c r="G129" s="23"/>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="20"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
+      <c r="A130" s="20">
+        <v>44038</v>
+      </c>
+      <c r="B130" s="19">
+        <v>105</v>
+      </c>
+      <c r="C130" s="19">
+        <v>19</v>
+      </c>
+      <c r="D130" s="23">
+        <v>34</v>
+      </c>
+      <c r="E130" s="23">
+        <v>1</v>
+      </c>
+      <c r="F130" s="23">
+        <v>57</v>
+      </c>
       <c r="G130" s="23"/>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="20"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
+      <c r="A131" s="20">
+        <v>44039</v>
+      </c>
+      <c r="B131" s="19">
+        <v>108</v>
+      </c>
+      <c r="C131" s="19">
+        <v>18</v>
+      </c>
+      <c r="D131" s="23">
+        <v>35</v>
+      </c>
+      <c r="E131" s="23">
+        <v>2</v>
+      </c>
+      <c r="F131" s="23">
+        <v>57</v>
+      </c>
       <c r="G131" s="23"/>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="20"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
+      <c r="A132" s="20">
+        <v>44040</v>
+      </c>
+      <c r="B132" s="19">
+        <v>111</v>
+      </c>
+      <c r="C132" s="19">
+        <v>15</v>
+      </c>
+      <c r="D132" s="23">
+        <v>37</v>
+      </c>
+      <c r="E132" s="23">
+        <v>2</v>
+      </c>
+      <c r="F132" s="23">
+        <v>57</v>
+      </c>
       <c r="G132" s="23"/>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -6105,11 +6360,11 @@
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A64 A71:A515" xr:uid="{140C1EC3-30A5-2448-BEAA-24AD135906D1}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A71:A515 A5:A64" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>43831</formula1>
       <formula2>44561</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I299 H63:H299 H5:H60 B5:B64 B71:B323 C5:C322" xr:uid="{41FC32AD-2E84-E042-9905-63CAE446C667}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I299 H63:H299 H5:H60 B71:B323 C5:C322 B5:B64" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
       <formula2>10000000</formula2>
     </dataValidation>
@@ -6119,14 +6374,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE078372-B08E-3945-8236-75FE2E0407AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -6148,10 +6403,10 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
@@ -6232,7 +6487,7 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D9" xr:uid="{16C39E30-A382-9841-B9C1-7BE92A80BACE}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D9" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
@@ -6242,14 +6497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
@@ -6351,7 +6606,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="C8">
         <v>1000</v>
@@ -6364,9 +6619,7 @@
       <c r="A9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="27" t="s">
         <v>55</v>
       </c>
@@ -6379,7 +6632,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="3">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C10">
         <v>250</v>
@@ -6404,7 +6657,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="3">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="C12">
         <v>0.8</v>
@@ -6417,7 +6670,7 @@
       <c r="A13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="34">
         <v>0.3</v>
       </c>
       <c r="C13" s="1">
@@ -6431,9 +6684,6 @@
       <c r="B14" s="3">
         <v>0.8</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -6442,9 +6692,6 @@
       <c r="B15" s="3">
         <v>0.2</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -6453,44 +6700,32 @@
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="3">
         <v>0.2</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="3">
         <v>0.2</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
@@ -6498,7 +6733,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>90</v>
       </c>
@@ -6508,15 +6743,15 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{8AA04D2D-EF0D-8145-8E7C-689CB89575F4}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>1</formula1>
       <formula2>10000000</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{68A0B7A5-3DC8-EB48-B02F-9DB169C81F40}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>43831</formula1>
       <formula2>44561</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B4 B6:B7" xr:uid="{45601BFC-E9DB-8A44-9B12-B2E34605D44B}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B4 B6:B7" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/inst/extdata/template.xlsx
+++ b/inst/extdata/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD6DC00-9ACE-4244-A286-B58BF337A39E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FA0EBB-D616-5A48-B4B2-5B9BAE1591AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="740" windowWidth="29440" windowHeight="17100" activeTab="1" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="4160" yWindow="740" windowWidth="29440" windowHeight="17100" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
   <si>
     <t>Number of Days from Infection to Becoming Infectious (Latent Period)</t>
   </si>
@@ -303,6 +303,24 @@
   </si>
   <si>
     <t>skip2</t>
+  </si>
+  <si>
+    <t>cases.conf</t>
+  </si>
+  <si>
+    <t>cases.pui</t>
+  </si>
+  <si>
+    <t>New Cases</t>
+  </si>
+  <si>
+    <t>new positive tests</t>
+  </si>
+  <si>
+    <t>frac_tested</t>
+  </si>
+  <si>
+    <t>Percent of infected who test positive</t>
   </si>
 </sst>
 </file>
@@ -900,15 +918,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7E970-76F8-6942-B4A0-7B2C1D2884B8}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" style="28" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="28" customWidth="1"/>
     <col min="2" max="2" width="62.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
@@ -1054,13 +1072,27 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D2" xr:uid="{39F8344C-73C3-994E-96EF-A9BFB1D45FA6}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:D10 C8:D8" xr:uid="{9F0C0177-DE3E-1444-856B-A1A4910CD57E}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D11" xr:uid="{9F0C0177-DE3E-1444-856B-A1A4910CD57E}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -1073,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372A5C3-523B-5F40-A7DB-9F78D72AADAB}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1289,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9816A416-5B6A-4545-98DF-6AED7BBC6987}">
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1303,10 +1335,11 @@
     <col min="4" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="36"/>
       <c r="B1" s="42" t="s">
         <v>83</v>
@@ -1324,8 +1357,12 @@
         <v>32</v>
       </c>
       <c r="I1" s="39"/>
-    </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="39"/>
+    </row>
+    <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37"/>
       <c r="B2" s="41" t="s">
         <v>29</v>
@@ -1343,8 +1380,12 @@
         <v>33</v>
       </c>
       <c r="I2" s="40"/>
-    </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="40"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -1372,8 +1413,14 @@
       <c r="I3" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>28</v>
       </c>
@@ -1401,8 +1448,14 @@
       <c r="I4" s="30" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>43913</v>
       </c>
@@ -1422,8 +1475,10 @@
       <c r="G5" s="35"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>43914</v>
       </c>
@@ -1443,8 +1498,10 @@
       <c r="G6" s="35"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>43915</v>
       </c>
@@ -1464,8 +1521,10 @@
       <c r="G7" s="35"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>43916</v>
       </c>
@@ -1485,8 +1544,10 @@
       <c r="G8" s="35"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>43917</v>
       </c>
@@ -1506,8 +1567,10 @@
       <c r="G9" s="35"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>43918</v>
       </c>
@@ -1527,8 +1590,10 @@
       <c r="G10" s="35"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>43919</v>
       </c>
@@ -1548,8 +1613,10 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="35"/>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>43920</v>
       </c>
@@ -1565,8 +1632,10 @@
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="35"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>43921</v>
       </c>
@@ -1586,8 +1655,10 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="35"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>43922</v>
       </c>
@@ -1609,8 +1680,10 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="35"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>43923</v>
       </c>
@@ -1632,8 +1705,10 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="34"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="35"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>43924</v>
       </c>
@@ -1655,8 +1730,10 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="35"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>43925</v>
       </c>
@@ -1678,8 +1755,10 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="34"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="35"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>43926</v>
       </c>
@@ -1701,8 +1780,10 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="35"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>43927</v>
       </c>
@@ -1724,8 +1805,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="35"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>43928</v>
       </c>
@@ -1747,8 +1830,10 @@
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="35"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>43929</v>
       </c>
@@ -1770,8 +1855,10 @@
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="35"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>43930</v>
       </c>
@@ -1793,8 +1880,10 @@
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="35"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>43931</v>
       </c>
@@ -1816,8 +1905,10 @@
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="34"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="35"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>43932</v>
       </c>
@@ -1839,8 +1930,10 @@
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="34"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="35"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>43933</v>
       </c>
@@ -1862,8 +1955,10 @@
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="34"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="35"/>
+      <c r="K25" s="34"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>43934</v>
       </c>
@@ -1885,8 +1980,10 @@
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
       <c r="I26" s="34"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="35"/>
+      <c r="K26" s="34"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <v>43935</v>
       </c>
@@ -1908,8 +2005,10 @@
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="34"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="35"/>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <v>43936</v>
       </c>
@@ -1931,8 +2030,10 @@
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="34"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="35"/>
+      <c r="K28" s="34"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <v>43937</v>
       </c>
@@ -1954,8 +2055,10 @@
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="34"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="35"/>
+      <c r="K29" s="34"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>43938</v>
       </c>
@@ -1977,8 +2080,10 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="34"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="35"/>
+      <c r="K30" s="34"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>43939</v>
       </c>
@@ -2000,8 +2105,10 @@
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="34"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="35"/>
+      <c r="K31" s="34"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <v>43940</v>
       </c>
@@ -2023,8 +2130,10 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="34"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="35"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <v>43941</v>
       </c>
@@ -2046,8 +2155,10 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="34"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="35"/>
+      <c r="K33" s="34"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <v>43942</v>
       </c>
@@ -2069,8 +2180,10 @@
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="35"/>
+      <c r="K34" s="34"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <v>43943</v>
       </c>
@@ -2092,8 +2205,10 @@
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="35"/>
+      <c r="K35" s="34"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <v>43944</v>
       </c>
@@ -2115,8 +2230,10 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="34"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="35"/>
+      <c r="K36" s="34"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <v>43945</v>
       </c>
@@ -2138,8 +2255,10 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="34"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="35"/>
+      <c r="K37" s="34"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <v>43946</v>
       </c>
@@ -2161,8 +2280,10 @@
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="34"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="35"/>
+      <c r="K38" s="34"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <v>43947</v>
       </c>
@@ -2184,8 +2305,10 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="34"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="35"/>
+      <c r="K39" s="34"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <v>43948</v>
       </c>
@@ -2207,8 +2330,10 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="34"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="35"/>
+      <c r="K40" s="34"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <v>43949</v>
       </c>
@@ -2230,8 +2355,10 @@
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="34"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="35"/>
+      <c r="K41" s="34"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <v>43950</v>
       </c>
@@ -2253,8 +2380,10 @@
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
       <c r="I42" s="34"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="35"/>
+      <c r="K42" s="34"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <v>43951</v>
       </c>
@@ -2276,8 +2405,10 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
       <c r="I43" s="34"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="35"/>
+      <c r="K43" s="34"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <v>43952</v>
       </c>
@@ -2299,8 +2430,10 @@
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
       <c r="I44" s="34"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="35"/>
+      <c r="K44" s="34"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <v>43953</v>
       </c>
@@ -2322,8 +2455,10 @@
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="34"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="35"/>
+      <c r="K45" s="34"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <v>43954</v>
       </c>
@@ -2345,8 +2480,10 @@
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="34"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="35"/>
+      <c r="K46" s="34"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <v>43955</v>
       </c>
@@ -2368,8 +2505,10 @@
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
       <c r="I47" s="34"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="35"/>
+      <c r="K47" s="34"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <v>43956</v>
       </c>
@@ -2391,8 +2530,10 @@
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="34"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="35"/>
+      <c r="K48" s="34"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <v>43957</v>
       </c>
@@ -2414,8 +2555,10 @@
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="34"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="35"/>
+      <c r="K49" s="34"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <v>43958</v>
       </c>
@@ -2437,8 +2580,10 @@
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="34"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="35"/>
+      <c r="K50" s="34"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <v>43959</v>
       </c>
@@ -2460,8 +2605,10 @@
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="34"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="35"/>
+      <c r="K51" s="34"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <v>43960</v>
       </c>
@@ -2483,8 +2630,10 @@
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="34"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="35"/>
+      <c r="K52" s="34"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <v>43961</v>
       </c>
@@ -2506,8 +2655,10 @@
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="34"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="35"/>
+      <c r="K53" s="34"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <v>43962</v>
       </c>
@@ -2529,8 +2680,10 @@
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="34"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="35"/>
+      <c r="K54" s="34"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <v>43963</v>
       </c>
@@ -2552,8 +2705,10 @@
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="34"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="35"/>
+      <c r="K55" s="34"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <v>43964</v>
       </c>
@@ -2575,8 +2730,10 @@
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
       <c r="I56" s="34"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="35"/>
+      <c r="K56" s="34"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <v>43965</v>
       </c>
@@ -2598,8 +2755,10 @@
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="34"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="35"/>
+      <c r="K57" s="34"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <v>43966</v>
       </c>
@@ -2621,8 +2780,10 @@
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="34"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="35"/>
+      <c r="K58" s="34"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <v>43967</v>
       </c>
@@ -2644,8 +2805,10 @@
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="34"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="35"/>
+      <c r="K59" s="34"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <v>43968</v>
       </c>
@@ -2667,8 +2830,10 @@
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
       <c r="I60" s="34"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="35"/>
+      <c r="K60" s="34"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <v>43969</v>
       </c>
@@ -2690,8 +2855,10 @@
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
       <c r="I61" s="34"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="35"/>
+      <c r="K61" s="34"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <v>43970</v>
       </c>
@@ -2713,8 +2880,10 @@
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
       <c r="I62" s="34"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="35"/>
+      <c r="K62" s="34"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <v>43971</v>
       </c>
@@ -2736,8 +2905,10 @@
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
       <c r="I63" s="34"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="35"/>
+      <c r="K63" s="34"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <v>43972</v>
       </c>
@@ -2759,8 +2930,10 @@
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
       <c r="I64" s="34"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="35"/>
+      <c r="K64" s="34"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="22">
         <v>43973</v>
       </c>
@@ -2782,8 +2955,10 @@
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
       <c r="I65" s="34"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="35"/>
+      <c r="K65" s="34"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="22">
         <v>43974</v>
       </c>
@@ -2805,8 +2980,10 @@
       <c r="G66" s="35"/>
       <c r="H66" s="34"/>
       <c r="I66" s="34"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="22">
         <v>43975</v>
       </c>
@@ -2828,8 +3005,10 @@
       <c r="G67" s="35"/>
       <c r="H67" s="34"/>
       <c r="I67" s="34"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="22">
         <v>43976</v>
       </c>
@@ -2851,8 +3030,10 @@
       <c r="G68" s="35"/>
       <c r="H68" s="34"/>
       <c r="I68" s="34"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="22">
         <v>43977</v>
       </c>
@@ -2874,8 +3055,10 @@
       <c r="G69" s="35"/>
       <c r="H69" s="34"/>
       <c r="I69" s="34"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="22">
         <v>43978</v>
       </c>
@@ -2897,8 +3080,10 @@
       <c r="G70" s="35"/>
       <c r="H70" s="34"/>
       <c r="I70" s="34"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <v>43979</v>
       </c>
@@ -2920,8 +3105,10 @@
       <c r="G71" s="35"/>
       <c r="H71" s="34"/>
       <c r="I71" s="34"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <v>43980</v>
       </c>
@@ -2943,8 +3130,10 @@
       <c r="G72" s="35"/>
       <c r="H72" s="34"/>
       <c r="I72" s="34"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <v>43981</v>
       </c>
@@ -2966,8 +3155,10 @@
       <c r="G73" s="35"/>
       <c r="H73" s="34"/>
       <c r="I73" s="34"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <v>43982</v>
       </c>
@@ -2989,8 +3180,10 @@
       <c r="G74" s="35"/>
       <c r="H74" s="34"/>
       <c r="I74" s="34"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <v>43983</v>
       </c>
@@ -3012,8 +3205,10 @@
       <c r="G75" s="35"/>
       <c r="H75" s="34"/>
       <c r="I75" s="34"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <v>43984</v>
       </c>
@@ -3035,8 +3230,10 @@
       <c r="G76" s="35"/>
       <c r="H76" s="34"/>
       <c r="I76" s="34"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <v>43985</v>
       </c>
@@ -3058,8 +3255,10 @@
       <c r="G77" s="35"/>
       <c r="H77" s="34"/>
       <c r="I77" s="34"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <v>43986</v>
       </c>
@@ -3081,8 +3280,10 @@
       <c r="G78" s="35"/>
       <c r="H78" s="34"/>
       <c r="I78" s="34"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <v>43987</v>
       </c>
@@ -3104,8 +3305,10 @@
       <c r="G79" s="35"/>
       <c r="H79" s="34"/>
       <c r="I79" s="34"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <v>43988</v>
       </c>
@@ -3127,8 +3330,10 @@
       <c r="G80" s="35"/>
       <c r="H80" s="34"/>
       <c r="I80" s="34"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <v>43989</v>
       </c>
@@ -3150,8 +3355,10 @@
       <c r="G81" s="35"/>
       <c r="H81" s="34"/>
       <c r="I81" s="34"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <v>43990</v>
       </c>
@@ -3173,8 +3380,10 @@
       <c r="G82" s="35"/>
       <c r="H82" s="34"/>
       <c r="I82" s="34"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="18"/>
       <c r="B83" s="34"/>
       <c r="C83" s="34"/>
@@ -3184,8 +3393,10 @@
       <c r="G83" s="35"/>
       <c r="H83" s="34"/>
       <c r="I83" s="34"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="18"/>
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
@@ -3195,8 +3406,10 @@
       <c r="G84" s="35"/>
       <c r="H84" s="34"/>
       <c r="I84" s="34"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="18"/>
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
@@ -3206,8 +3419,10 @@
       <c r="G85" s="35"/>
       <c r="H85" s="34"/>
       <c r="I85" s="34"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -3217,8 +3432,10 @@
       <c r="G86" s="35"/>
       <c r="H86" s="34"/>
       <c r="I86" s="34"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="18"/>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -3228,8 +3445,10 @@
       <c r="G87" s="35"/>
       <c r="H87" s="34"/>
       <c r="I87" s="34"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="18"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -3239,8 +3458,10 @@
       <c r="G88" s="35"/>
       <c r="H88" s="34"/>
       <c r="I88" s="34"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="18"/>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
@@ -3250,8 +3471,10 @@
       <c r="G89" s="35"/>
       <c r="H89" s="34"/>
       <c r="I89" s="34"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="18"/>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
@@ -3261,8 +3484,10 @@
       <c r="G90" s="35"/>
       <c r="H90" s="34"/>
       <c r="I90" s="34"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="18"/>
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
@@ -3272,8 +3497,10 @@
       <c r="G91" s="35"/>
       <c r="H91" s="34"/>
       <c r="I91" s="34"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="18"/>
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
@@ -3283,8 +3510,10 @@
       <c r="G92" s="35"/>
       <c r="H92" s="34"/>
       <c r="I92" s="34"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="18"/>
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
@@ -3294,8 +3523,10 @@
       <c r="G93" s="35"/>
       <c r="H93" s="34"/>
       <c r="I93" s="34"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="18"/>
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
@@ -3305,8 +3536,10 @@
       <c r="G94" s="35"/>
       <c r="H94" s="34"/>
       <c r="I94" s="34"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="18"/>
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
@@ -3316,8 +3549,10 @@
       <c r="G95" s="35"/>
       <c r="H95" s="34"/>
       <c r="I95" s="34"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="18"/>
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
@@ -3327,8 +3562,10 @@
       <c r="G96" s="35"/>
       <c r="H96" s="34"/>
       <c r="I96" s="34"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="18"/>
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
@@ -3338,8 +3575,10 @@
       <c r="G97" s="35"/>
       <c r="H97" s="34"/>
       <c r="I97" s="34"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="18"/>
       <c r="B98" s="34"/>
       <c r="C98" s="34"/>
@@ -3349,8 +3588,10 @@
       <c r="G98" s="35"/>
       <c r="H98" s="34"/>
       <c r="I98" s="34"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="18"/>
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
@@ -3360,8 +3601,10 @@
       <c r="G99" s="35"/>
       <c r="H99" s="34"/>
       <c r="I99" s="34"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" s="34"/>
+      <c r="K99" s="34"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="18"/>
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
@@ -3371,8 +3614,10 @@
       <c r="G100" s="35"/>
       <c r="H100" s="34"/>
       <c r="I100" s="34"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" s="34"/>
+      <c r="K100" s="34"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="18"/>
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
@@ -3382,8 +3627,10 @@
       <c r="G101" s="35"/>
       <c r="H101" s="34"/>
       <c r="I101" s="34"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" s="34"/>
+      <c r="K101" s="34"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="18"/>
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
@@ -3393,8 +3640,10 @@
       <c r="G102" s="35"/>
       <c r="H102" s="34"/>
       <c r="I102" s="34"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102" s="34"/>
+      <c r="K102" s="34"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="18"/>
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
@@ -3404,8 +3653,10 @@
       <c r="G103" s="35"/>
       <c r="H103" s="34"/>
       <c r="I103" s="34"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103" s="34"/>
+      <c r="K103" s="34"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="18"/>
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
@@ -3415,8 +3666,10 @@
       <c r="G104" s="35"/>
       <c r="H104" s="34"/>
       <c r="I104" s="34"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104" s="34"/>
+      <c r="K104" s="34"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="18"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
@@ -3426,8 +3679,10 @@
       <c r="G105" s="35"/>
       <c r="H105" s="34"/>
       <c r="I105" s="34"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105" s="34"/>
+      <c r="K105" s="34"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="18"/>
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>
@@ -3437,8 +3692,10 @@
       <c r="G106" s="35"/>
       <c r="H106" s="34"/>
       <c r="I106" s="34"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" s="34"/>
+      <c r="K106" s="34"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="18"/>
       <c r="B107" s="34"/>
       <c r="C107" s="34"/>
@@ -3448,8 +3705,10 @@
       <c r="G107" s="35"/>
       <c r="H107" s="34"/>
       <c r="I107" s="34"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" s="34"/>
+      <c r="K107" s="34"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="18"/>
       <c r="B108" s="34"/>
       <c r="C108" s="34"/>
@@ -3459,8 +3718,10 @@
       <c r="G108" s="35"/>
       <c r="H108" s="34"/>
       <c r="I108" s="34"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="34"/>
+      <c r="K108" s="34"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="18"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
@@ -3470,8 +3731,10 @@
       <c r="G109" s="35"/>
       <c r="H109" s="34"/>
       <c r="I109" s="34"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" s="34"/>
+      <c r="K109" s="34"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="18"/>
       <c r="B110" s="34"/>
       <c r="C110" s="34"/>
@@ -3481,8 +3744,10 @@
       <c r="G110" s="35"/>
       <c r="H110" s="34"/>
       <c r="I110" s="34"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" s="34"/>
+      <c r="K110" s="34"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="18"/>
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
@@ -3492,8 +3757,10 @@
       <c r="G111" s="35"/>
       <c r="H111" s="34"/>
       <c r="I111" s="34"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111" s="34"/>
+      <c r="K111" s="34"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="18"/>
       <c r="B112" s="34"/>
       <c r="C112" s="34"/>
@@ -3503,8 +3770,10 @@
       <c r="G112" s="35"/>
       <c r="H112" s="34"/>
       <c r="I112" s="34"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112" s="34"/>
+      <c r="K112" s="34"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="18"/>
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
@@ -3514,8 +3783,10 @@
       <c r="G113" s="35"/>
       <c r="H113" s="34"/>
       <c r="I113" s="34"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113" s="34"/>
+      <c r="K113" s="34"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="18"/>
       <c r="B114" s="34"/>
       <c r="C114" s="34"/>
@@ -3525,8 +3796,10 @@
       <c r="G114" s="35"/>
       <c r="H114" s="34"/>
       <c r="I114" s="34"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J114" s="34"/>
+      <c r="K114" s="34"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="18"/>
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
@@ -3536,8 +3809,10 @@
       <c r="G115" s="35"/>
       <c r="H115" s="34"/>
       <c r="I115" s="34"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115" s="34"/>
+      <c r="K115" s="34"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="18"/>
       <c r="B116" s="34"/>
       <c r="C116" s="34"/>
@@ -3547,8 +3822,10 @@
       <c r="G116" s="35"/>
       <c r="H116" s="34"/>
       <c r="I116" s="34"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J116" s="34"/>
+      <c r="K116" s="34"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="18"/>
       <c r="B117" s="34"/>
       <c r="C117" s="34"/>
@@ -3558,8 +3835,10 @@
       <c r="G117" s="35"/>
       <c r="H117" s="34"/>
       <c r="I117" s="34"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117" s="34"/>
+      <c r="K117" s="34"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="18"/>
       <c r="B118" s="34"/>
       <c r="C118" s="34"/>
@@ -3569,8 +3848,10 @@
       <c r="G118" s="35"/>
       <c r="H118" s="34"/>
       <c r="I118" s="34"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118" s="34"/>
+      <c r="K118" s="34"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="18"/>
       <c r="B119" s="34"/>
       <c r="C119" s="34"/>
@@ -3580,8 +3861,10 @@
       <c r="G119" s="35"/>
       <c r="H119" s="34"/>
       <c r="I119" s="34"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119" s="34"/>
+      <c r="K119" s="34"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="18"/>
       <c r="B120" s="34"/>
       <c r="C120" s="34"/>
@@ -3591,8 +3874,10 @@
       <c r="G120" s="35"/>
       <c r="H120" s="34"/>
       <c r="I120" s="34"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120" s="34"/>
+      <c r="K120" s="34"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="18"/>
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
@@ -3602,8 +3887,10 @@
       <c r="G121" s="35"/>
       <c r="H121" s="34"/>
       <c r="I121" s="34"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121" s="34"/>
+      <c r="K121" s="34"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="18"/>
       <c r="B122" s="34"/>
       <c r="C122" s="34"/>
@@ -3613,8 +3900,10 @@
       <c r="G122" s="35"/>
       <c r="H122" s="34"/>
       <c r="I122" s="34"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122" s="34"/>
+      <c r="K122" s="34"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="18"/>
       <c r="B123" s="34"/>
       <c r="C123" s="34"/>
@@ -3624,8 +3913,10 @@
       <c r="G123" s="35"/>
       <c r="H123" s="34"/>
       <c r="I123" s="34"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" s="34"/>
+      <c r="K123" s="34"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="18"/>
       <c r="B124" s="34"/>
       <c r="C124" s="34"/>
@@ -3635,8 +3926,10 @@
       <c r="G124" s="35"/>
       <c r="H124" s="34"/>
       <c r="I124" s="34"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J124" s="34"/>
+      <c r="K124" s="34"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="18"/>
       <c r="B125" s="34"/>
       <c r="C125" s="34"/>
@@ -3646,8 +3939,10 @@
       <c r="G125" s="35"/>
       <c r="H125" s="34"/>
       <c r="I125" s="34"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125" s="34"/>
+      <c r="K125" s="34"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="18"/>
       <c r="B126" s="34"/>
       <c r="C126" s="34"/>
@@ -3657,8 +3952,10 @@
       <c r="G126" s="35"/>
       <c r="H126" s="34"/>
       <c r="I126" s="34"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126" s="34"/>
+      <c r="K126" s="34"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="18"/>
       <c r="B127" s="34"/>
       <c r="C127" s="34"/>
@@ -3668,8 +3965,10 @@
       <c r="G127" s="35"/>
       <c r="H127" s="34"/>
       <c r="I127" s="34"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J127" s="34"/>
+      <c r="K127" s="34"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="18"/>
       <c r="B128" s="34"/>
       <c r="C128" s="34"/>
@@ -3679,8 +3978,10 @@
       <c r="G128" s="35"/>
       <c r="H128" s="34"/>
       <c r="I128" s="34"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128" s="34"/>
+      <c r="K128" s="34"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="18"/>
       <c r="B129" s="34"/>
       <c r="C129" s="34"/>
@@ -3690,8 +3991,10 @@
       <c r="G129" s="35"/>
       <c r="H129" s="34"/>
       <c r="I129" s="34"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129" s="34"/>
+      <c r="K129" s="34"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="18"/>
       <c r="B130" s="34"/>
       <c r="C130" s="34"/>
@@ -3701,8 +4004,10 @@
       <c r="G130" s="35"/>
       <c r="H130" s="34"/>
       <c r="I130" s="34"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130" s="34"/>
+      <c r="K130" s="34"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="18"/>
       <c r="B131" s="34"/>
       <c r="C131" s="34"/>
@@ -3712,8 +4017,10 @@
       <c r="G131" s="35"/>
       <c r="H131" s="34"/>
       <c r="I131" s="34"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131" s="34"/>
+      <c r="K131" s="34"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="18"/>
       <c r="B132" s="34"/>
       <c r="C132" s="34"/>
@@ -3723,8 +4030,10 @@
       <c r="G132" s="35"/>
       <c r="H132" s="34"/>
       <c r="I132" s="34"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J132" s="34"/>
+      <c r="K132" s="34"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="18"/>
       <c r="B133" s="34"/>
       <c r="C133" s="34"/>
@@ -3734,8 +4043,10 @@
       <c r="G133" s="35"/>
       <c r="H133" s="34"/>
       <c r="I133" s="34"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133" s="34"/>
+      <c r="K133" s="34"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="18"/>
       <c r="B134" s="34"/>
       <c r="C134" s="34"/>
@@ -3745,8 +4056,10 @@
       <c r="G134" s="35"/>
       <c r="H134" s="34"/>
       <c r="I134" s="34"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134" s="34"/>
+      <c r="K134" s="34"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="18"/>
       <c r="B135" s="34"/>
       <c r="C135" s="34"/>
@@ -3756,8 +4069,10 @@
       <c r="G135" s="35"/>
       <c r="H135" s="34"/>
       <c r="I135" s="34"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135" s="34"/>
+      <c r="K135" s="34"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="18"/>
       <c r="B136" s="34"/>
       <c r="C136" s="34"/>
@@ -3767,8 +4082,10 @@
       <c r="G136" s="35"/>
       <c r="H136" s="34"/>
       <c r="I136" s="34"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136" s="34"/>
+      <c r="K136" s="34"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="18"/>
       <c r="B137" s="34"/>
       <c r="C137" s="34"/>
@@ -3778,8 +4095,10 @@
       <c r="G137" s="35"/>
       <c r="H137" s="34"/>
       <c r="I137" s="34"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137" s="34"/>
+      <c r="K137" s="34"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="18"/>
       <c r="B138" s="34"/>
       <c r="C138" s="34"/>
@@ -3789,8 +4108,10 @@
       <c r="G138" s="35"/>
       <c r="H138" s="34"/>
       <c r="I138" s="34"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J138" s="34"/>
+      <c r="K138" s="34"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="18"/>
       <c r="B139" s="34"/>
       <c r="C139" s="34"/>
@@ -3800,8 +4121,10 @@
       <c r="G139" s="35"/>
       <c r="H139" s="34"/>
       <c r="I139" s="34"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139" s="34"/>
+      <c r="K139" s="34"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="18"/>
       <c r="B140" s="34"/>
       <c r="C140" s="34"/>
@@ -3811,8 +4134,10 @@
       <c r="G140" s="35"/>
       <c r="H140" s="34"/>
       <c r="I140" s="34"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140" s="34"/>
+      <c r="K140" s="34"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="18"/>
       <c r="B141" s="34"/>
       <c r="C141" s="34"/>
@@ -3822,8 +4147,10 @@
       <c r="G141" s="35"/>
       <c r="H141" s="34"/>
       <c r="I141" s="34"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141" s="34"/>
+      <c r="K141" s="34"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="18"/>
       <c r="B142" s="34"/>
       <c r="C142" s="34"/>
@@ -3833,8 +4160,10 @@
       <c r="G142" s="35"/>
       <c r="H142" s="34"/>
       <c r="I142" s="34"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142" s="34"/>
+      <c r="K142" s="34"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="18"/>
       <c r="B143" s="34"/>
       <c r="C143" s="34"/>
@@ -3844,8 +4173,10 @@
       <c r="G143" s="35"/>
       <c r="H143" s="34"/>
       <c r="I143" s="34"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143" s="34"/>
+      <c r="K143" s="34"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="18"/>
       <c r="B144" s="34"/>
       <c r="C144" s="34"/>
@@ -3855,8 +4186,10 @@
       <c r="G144" s="35"/>
       <c r="H144" s="34"/>
       <c r="I144" s="34"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144" s="34"/>
+      <c r="K144" s="34"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="18"/>
       <c r="B145" s="34"/>
       <c r="C145" s="34"/>
@@ -3866,8 +4199,10 @@
       <c r="G145" s="35"/>
       <c r="H145" s="34"/>
       <c r="I145" s="34"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" s="34"/>
+      <c r="K145" s="34"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="18"/>
       <c r="B146" s="34"/>
       <c r="C146" s="34"/>
@@ -3877,8 +4212,10 @@
       <c r="G146" s="35"/>
       <c r="H146" s="34"/>
       <c r="I146" s="34"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146" s="34"/>
+      <c r="K146" s="34"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="18"/>
       <c r="B147" s="34"/>
       <c r="C147" s="34"/>
@@ -3888,8 +4225,10 @@
       <c r="G147" s="35"/>
       <c r="H147" s="34"/>
       <c r="I147" s="34"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147" s="34"/>
+      <c r="K147" s="34"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="18"/>
       <c r="B148" s="34"/>
       <c r="C148" s="34"/>
@@ -3899,8 +4238,10 @@
       <c r="G148" s="35"/>
       <c r="H148" s="34"/>
       <c r="I148" s="34"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" s="34"/>
+      <c r="K148" s="34"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="18"/>
       <c r="B149" s="34"/>
       <c r="C149" s="34"/>
@@ -3910,8 +4251,10 @@
       <c r="G149" s="35"/>
       <c r="H149" s="34"/>
       <c r="I149" s="34"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" s="34"/>
+      <c r="K149" s="34"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="18"/>
       <c r="B150" s="34"/>
       <c r="C150" s="34"/>
@@ -3921,8 +4264,10 @@
       <c r="G150" s="35"/>
       <c r="H150" s="34"/>
       <c r="I150" s="34"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150" s="34"/>
+      <c r="K150" s="34"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="18"/>
       <c r="B151" s="34"/>
       <c r="C151" s="34"/>
@@ -3932,8 +4277,10 @@
       <c r="G151" s="35"/>
       <c r="H151" s="34"/>
       <c r="I151" s="34"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" s="34"/>
+      <c r="K151" s="34"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="18"/>
       <c r="B152" s="34"/>
       <c r="C152" s="34"/>
@@ -3943,8 +4290,10 @@
       <c r="G152" s="35"/>
       <c r="H152" s="34"/>
       <c r="I152" s="34"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152" s="34"/>
+      <c r="K152" s="34"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="18"/>
       <c r="B153" s="34"/>
       <c r="C153" s="34"/>
@@ -3954,8 +4303,10 @@
       <c r="G153" s="35"/>
       <c r="H153" s="34"/>
       <c r="I153" s="34"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153" s="34"/>
+      <c r="K153" s="34"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="18"/>
       <c r="B154" s="34"/>
       <c r="C154" s="34"/>
@@ -3965,8 +4316,10 @@
       <c r="G154" s="35"/>
       <c r="H154" s="34"/>
       <c r="I154" s="34"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154" s="34"/>
+      <c r="K154" s="34"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="18"/>
       <c r="B155" s="34"/>
       <c r="C155" s="34"/>
@@ -3976,8 +4329,10 @@
       <c r="G155" s="35"/>
       <c r="H155" s="34"/>
       <c r="I155" s="34"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155" s="34"/>
+      <c r="K155" s="34"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="18"/>
       <c r="B156" s="34"/>
       <c r="C156" s="34"/>
@@ -3987,8 +4342,10 @@
       <c r="G156" s="35"/>
       <c r="H156" s="34"/>
       <c r="I156" s="34"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156" s="34"/>
+      <c r="K156" s="34"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="18"/>
       <c r="B157" s="34"/>
       <c r="C157" s="34"/>
@@ -3998,8 +4355,10 @@
       <c r="G157" s="35"/>
       <c r="H157" s="34"/>
       <c r="I157" s="34"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J157" s="34"/>
+      <c r="K157" s="34"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="18"/>
       <c r="B158" s="34"/>
       <c r="C158" s="34"/>
@@ -4009,8 +4368,10 @@
       <c r="G158" s="35"/>
       <c r="H158" s="34"/>
       <c r="I158" s="34"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158" s="34"/>
+      <c r="K158" s="34"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="18"/>
       <c r="B159" s="34"/>
       <c r="C159" s="34"/>
@@ -4020,8 +4381,10 @@
       <c r="G159" s="35"/>
       <c r="H159" s="34"/>
       <c r="I159" s="34"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J159" s="34"/>
+      <c r="K159" s="34"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="18"/>
       <c r="B160" s="34"/>
       <c r="C160" s="34"/>
@@ -4031,8 +4394,10 @@
       <c r="G160" s="35"/>
       <c r="H160" s="34"/>
       <c r="I160" s="34"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160" s="34"/>
+      <c r="K160" s="34"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="18"/>
       <c r="B161" s="34"/>
       <c r="C161" s="34"/>
@@ -4042,8 +4407,10 @@
       <c r="G161" s="35"/>
       <c r="H161" s="34"/>
       <c r="I161" s="34"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161" s="34"/>
+      <c r="K161" s="34"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="18"/>
       <c r="B162" s="34"/>
       <c r="C162" s="34"/>
@@ -4053,8 +4420,10 @@
       <c r="G162" s="35"/>
       <c r="H162" s="34"/>
       <c r="I162" s="34"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162" s="34"/>
+      <c r="K162" s="34"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="18"/>
       <c r="B163" s="34"/>
       <c r="C163" s="34"/>
@@ -4064,8 +4433,10 @@
       <c r="G163" s="35"/>
       <c r="H163" s="34"/>
       <c r="I163" s="34"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J163" s="34"/>
+      <c r="K163" s="34"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="18"/>
       <c r="B164" s="34"/>
       <c r="C164" s="34"/>
@@ -4075,8 +4446,10 @@
       <c r="G164" s="35"/>
       <c r="H164" s="34"/>
       <c r="I164" s="34"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J164" s="34"/>
+      <c r="K164" s="34"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="18"/>
       <c r="B165" s="34"/>
       <c r="C165" s="34"/>
@@ -4086,8 +4459,10 @@
       <c r="G165" s="35"/>
       <c r="H165" s="34"/>
       <c r="I165" s="34"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J165" s="34"/>
+      <c r="K165" s="34"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="18"/>
       <c r="B166" s="34"/>
       <c r="C166" s="34"/>
@@ -4097,8 +4472,10 @@
       <c r="G166" s="35"/>
       <c r="H166" s="34"/>
       <c r="I166" s="34"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J166" s="34"/>
+      <c r="K166" s="34"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="18"/>
       <c r="B167" s="34"/>
       <c r="C167" s="34"/>
@@ -4108,8 +4485,10 @@
       <c r="G167" s="35"/>
       <c r="H167" s="34"/>
       <c r="I167" s="34"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167" s="34"/>
+      <c r="K167" s="34"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="18"/>
       <c r="B168" s="34"/>
       <c r="C168" s="34"/>
@@ -4119,8 +4498,10 @@
       <c r="G168" s="35"/>
       <c r="H168" s="34"/>
       <c r="I168" s="34"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168" s="34"/>
+      <c r="K168" s="34"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="18"/>
       <c r="B169" s="34"/>
       <c r="C169" s="34"/>
@@ -4130,8 +4511,10 @@
       <c r="G169" s="35"/>
       <c r="H169" s="34"/>
       <c r="I169" s="34"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J169" s="34"/>
+      <c r="K169" s="34"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="18"/>
       <c r="B170" s="34"/>
       <c r="C170" s="34"/>
@@ -4141,8 +4524,10 @@
       <c r="G170" s="35"/>
       <c r="H170" s="34"/>
       <c r="I170" s="34"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170" s="34"/>
+      <c r="K170" s="34"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="18"/>
       <c r="B171" s="34"/>
       <c r="C171" s="34"/>
@@ -4152,8 +4537,10 @@
       <c r="G171" s="35"/>
       <c r="H171" s="34"/>
       <c r="I171" s="34"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171" s="34"/>
+      <c r="K171" s="34"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="18"/>
       <c r="B172" s="34"/>
       <c r="C172" s="34"/>
@@ -4163,8 +4550,10 @@
       <c r="G172" s="35"/>
       <c r="H172" s="34"/>
       <c r="I172" s="34"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172" s="34"/>
+      <c r="K172" s="34"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="18"/>
       <c r="B173" s="34"/>
       <c r="C173" s="34"/>
@@ -4174,8 +4563,10 @@
       <c r="G173" s="35"/>
       <c r="H173" s="34"/>
       <c r="I173" s="34"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173" s="34"/>
+      <c r="K173" s="34"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="18"/>
       <c r="B174" s="34"/>
       <c r="C174" s="34"/>
@@ -4185,8 +4576,10 @@
       <c r="G174" s="35"/>
       <c r="H174" s="34"/>
       <c r="I174" s="34"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J174" s="34"/>
+      <c r="K174" s="34"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="18"/>
       <c r="B175" s="34"/>
       <c r="C175" s="34"/>
@@ -4196,8 +4589,10 @@
       <c r="G175" s="35"/>
       <c r="H175" s="34"/>
       <c r="I175" s="34"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175" s="34"/>
+      <c r="K175" s="34"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="18"/>
       <c r="B176" s="34"/>
       <c r="C176" s="34"/>
@@ -4207,8 +4602,10 @@
       <c r="G176" s="35"/>
       <c r="H176" s="34"/>
       <c r="I176" s="34"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176" s="34"/>
+      <c r="K176" s="34"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="18"/>
       <c r="B177" s="34"/>
       <c r="C177" s="34"/>
@@ -4218,8 +4615,10 @@
       <c r="G177" s="35"/>
       <c r="H177" s="34"/>
       <c r="I177" s="34"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177" s="34"/>
+      <c r="K177" s="34"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="18"/>
       <c r="B178" s="34"/>
       <c r="C178" s="34"/>
@@ -4229,8 +4628,10 @@
       <c r="G178" s="35"/>
       <c r="H178" s="34"/>
       <c r="I178" s="34"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J178" s="34"/>
+      <c r="K178" s="34"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="18"/>
       <c r="B179" s="34"/>
       <c r="C179" s="34"/>
@@ -4240,8 +4641,10 @@
       <c r="G179" s="35"/>
       <c r="H179" s="34"/>
       <c r="I179" s="34"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179" s="34"/>
+      <c r="K179" s="34"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="18"/>
       <c r="B180" s="34"/>
       <c r="C180" s="34"/>
@@ -4251,8 +4654,10 @@
       <c r="G180" s="35"/>
       <c r="H180" s="34"/>
       <c r="I180" s="34"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J180" s="34"/>
+      <c r="K180" s="34"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="18"/>
       <c r="B181" s="34"/>
       <c r="C181" s="34"/>
@@ -4262,8 +4667,10 @@
       <c r="G181" s="35"/>
       <c r="H181" s="34"/>
       <c r="I181" s="34"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J181" s="34"/>
+      <c r="K181" s="34"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="18"/>
       <c r="B182" s="34"/>
       <c r="C182" s="34"/>
@@ -4273,8 +4680,10 @@
       <c r="G182" s="35"/>
       <c r="H182" s="34"/>
       <c r="I182" s="34"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J182" s="34"/>
+      <c r="K182" s="34"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="18"/>
       <c r="B183" s="34"/>
       <c r="C183" s="34"/>
@@ -4284,8 +4693,10 @@
       <c r="G183" s="35"/>
       <c r="H183" s="34"/>
       <c r="I183" s="34"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183" s="34"/>
+      <c r="K183" s="34"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="18"/>
       <c r="B184" s="34"/>
       <c r="C184" s="34"/>
@@ -4295,8 +4706,10 @@
       <c r="G184" s="35"/>
       <c r="H184" s="34"/>
       <c r="I184" s="34"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J184" s="34"/>
+      <c r="K184" s="34"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="18"/>
       <c r="B185" s="34"/>
       <c r="C185" s="34"/>
@@ -4306,8 +4719,10 @@
       <c r="G185" s="35"/>
       <c r="H185" s="34"/>
       <c r="I185" s="34"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J185" s="34"/>
+      <c r="K185" s="34"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="18"/>
       <c r="B186" s="34"/>
       <c r="C186" s="34"/>
@@ -4317,8 +4732,10 @@
       <c r="G186" s="35"/>
       <c r="H186" s="34"/>
       <c r="I186" s="34"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J186" s="34"/>
+      <c r="K186" s="34"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="18"/>
       <c r="B187" s="34"/>
       <c r="C187" s="34"/>
@@ -4328,8 +4745,10 @@
       <c r="G187" s="35"/>
       <c r="H187" s="34"/>
       <c r="I187" s="34"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J187" s="34"/>
+      <c r="K187" s="34"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="18"/>
       <c r="B188" s="34"/>
       <c r="C188" s="34"/>
@@ -4339,8 +4758,10 @@
       <c r="G188" s="35"/>
       <c r="H188" s="34"/>
       <c r="I188" s="34"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188" s="34"/>
+      <c r="K188" s="34"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="18"/>
       <c r="B189" s="34"/>
       <c r="C189" s="34"/>
@@ -4350,8 +4771,10 @@
       <c r="G189" s="35"/>
       <c r="H189" s="34"/>
       <c r="I189" s="34"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J189" s="34"/>
+      <c r="K189" s="34"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="18"/>
       <c r="B190" s="34"/>
       <c r="C190" s="34"/>
@@ -4361,8 +4784,10 @@
       <c r="G190" s="35"/>
       <c r="H190" s="34"/>
       <c r="I190" s="34"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J190" s="34"/>
+      <c r="K190" s="34"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="18"/>
       <c r="B191" s="34"/>
       <c r="C191" s="34"/>
@@ -4372,8 +4797,10 @@
       <c r="G191" s="35"/>
       <c r="H191" s="34"/>
       <c r="I191" s="34"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J191" s="34"/>
+      <c r="K191" s="34"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="18"/>
       <c r="B192" s="34"/>
       <c r="C192" s="34"/>
@@ -4383,8 +4810,10 @@
       <c r="G192" s="35"/>
       <c r="H192" s="34"/>
       <c r="I192" s="34"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J192" s="34"/>
+      <c r="K192" s="34"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="18"/>
       <c r="B193" s="34"/>
       <c r="C193" s="34"/>
@@ -4394,8 +4823,10 @@
       <c r="G193" s="35"/>
       <c r="H193" s="34"/>
       <c r="I193" s="34"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193" s="34"/>
+      <c r="K193" s="34"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="18"/>
       <c r="B194" s="34"/>
       <c r="C194" s="34"/>
@@ -4405,8 +4836,10 @@
       <c r="G194" s="35"/>
       <c r="H194" s="34"/>
       <c r="I194" s="34"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194" s="34"/>
+      <c r="K194" s="34"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="18"/>
       <c r="B195" s="34"/>
       <c r="C195" s="34"/>
@@ -4416,8 +4849,10 @@
       <c r="G195" s="35"/>
       <c r="H195" s="34"/>
       <c r="I195" s="34"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J195" s="34"/>
+      <c r="K195" s="34"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="18"/>
       <c r="B196" s="34"/>
       <c r="C196" s="34"/>
@@ -4427,8 +4862,10 @@
       <c r="G196" s="35"/>
       <c r="H196" s="34"/>
       <c r="I196" s="34"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J196" s="34"/>
+      <c r="K196" s="34"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="18"/>
       <c r="B197" s="34"/>
       <c r="C197" s="34"/>
@@ -4438,8 +4875,10 @@
       <c r="G197" s="35"/>
       <c r="H197" s="34"/>
       <c r="I197" s="34"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J197" s="34"/>
+      <c r="K197" s="34"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="18"/>
       <c r="B198" s="34"/>
       <c r="C198" s="34"/>
@@ -4449,8 +4888,10 @@
       <c r="G198" s="35"/>
       <c r="H198" s="34"/>
       <c r="I198" s="34"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J198" s="34"/>
+      <c r="K198" s="34"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="18"/>
       <c r="B199" s="34"/>
       <c r="C199" s="34"/>
@@ -4460,8 +4901,10 @@
       <c r="G199" s="35"/>
       <c r="H199" s="34"/>
       <c r="I199" s="34"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J199" s="34"/>
+      <c r="K199" s="34"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="18"/>
       <c r="B200" s="34"/>
       <c r="C200" s="34"/>
@@ -4471,8 +4914,10 @@
       <c r="G200" s="35"/>
       <c r="H200" s="34"/>
       <c r="I200" s="34"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200" s="34"/>
+      <c r="K200" s="34"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="18"/>
       <c r="B201" s="34"/>
       <c r="C201" s="34"/>
@@ -4482,8 +4927,10 @@
       <c r="G201" s="35"/>
       <c r="H201" s="34"/>
       <c r="I201" s="34"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J201" s="34"/>
+      <c r="K201" s="34"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="18"/>
       <c r="B202" s="34"/>
       <c r="C202" s="34"/>
@@ -4493,8 +4940,10 @@
       <c r="G202" s="35"/>
       <c r="H202" s="34"/>
       <c r="I202" s="34"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J202" s="34"/>
+      <c r="K202" s="34"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="18"/>
       <c r="B203" s="34"/>
       <c r="C203" s="34"/>
@@ -4504,8 +4953,10 @@
       <c r="G203" s="35"/>
       <c r="H203" s="34"/>
       <c r="I203" s="34"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J203" s="34"/>
+      <c r="K203" s="34"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="18"/>
       <c r="B204" s="34"/>
       <c r="C204" s="34"/>
@@ -4515,8 +4966,10 @@
       <c r="G204" s="35"/>
       <c r="H204" s="34"/>
       <c r="I204" s="34"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J204" s="34"/>
+      <c r="K204" s="34"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="18"/>
       <c r="B205" s="34"/>
       <c r="C205" s="34"/>
@@ -4526,8 +4979,10 @@
       <c r="G205" s="35"/>
       <c r="H205" s="34"/>
       <c r="I205" s="34"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J205" s="34"/>
+      <c r="K205" s="34"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="18"/>
       <c r="B206" s="34"/>
       <c r="C206" s="34"/>
@@ -4537,8 +4992,10 @@
       <c r="G206" s="35"/>
       <c r="H206" s="34"/>
       <c r="I206" s="34"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J206" s="34"/>
+      <c r="K206" s="34"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="18"/>
       <c r="B207" s="34"/>
       <c r="C207" s="34"/>
@@ -4548,8 +5005,10 @@
       <c r="G207" s="35"/>
       <c r="H207" s="34"/>
       <c r="I207" s="34"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J207" s="34"/>
+      <c r="K207" s="34"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="18"/>
       <c r="B208" s="34"/>
       <c r="C208" s="34"/>
@@ -4559,8 +5018,10 @@
       <c r="G208" s="35"/>
       <c r="H208" s="34"/>
       <c r="I208" s="34"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J208" s="34"/>
+      <c r="K208" s="34"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="18"/>
       <c r="B209" s="34"/>
       <c r="C209" s="34"/>
@@ -4570,8 +5031,10 @@
       <c r="G209" s="35"/>
       <c r="H209" s="34"/>
       <c r="I209" s="34"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J209" s="34"/>
+      <c r="K209" s="34"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="18"/>
       <c r="B210" s="34"/>
       <c r="C210" s="34"/>
@@ -4581,8 +5044,10 @@
       <c r="G210" s="35"/>
       <c r="H210" s="34"/>
       <c r="I210" s="34"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J210" s="34"/>
+      <c r="K210" s="34"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="18"/>
       <c r="B211" s="34"/>
       <c r="C211" s="34"/>
@@ -4592,8 +5057,10 @@
       <c r="G211" s="35"/>
       <c r="H211" s="34"/>
       <c r="I211" s="34"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J211" s="34"/>
+      <c r="K211" s="34"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="18"/>
       <c r="B212" s="34"/>
       <c r="C212" s="34"/>
@@ -4603,8 +5070,10 @@
       <c r="G212" s="35"/>
       <c r="H212" s="34"/>
       <c r="I212" s="34"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J212" s="34"/>
+      <c r="K212" s="34"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="18"/>
       <c r="B213" s="34"/>
       <c r="C213" s="34"/>
@@ -4614,8 +5083,10 @@
       <c r="G213" s="35"/>
       <c r="H213" s="34"/>
       <c r="I213" s="34"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J213" s="34"/>
+      <c r="K213" s="34"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="18"/>
       <c r="B214" s="34"/>
       <c r="C214" s="34"/>
@@ -4625,8 +5096,10 @@
       <c r="G214" s="35"/>
       <c r="H214" s="34"/>
       <c r="I214" s="34"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J214" s="34"/>
+      <c r="K214" s="34"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="18"/>
       <c r="B215" s="34"/>
       <c r="C215" s="34"/>
@@ -4636,8 +5109,10 @@
       <c r="G215" s="35"/>
       <c r="H215" s="34"/>
       <c r="I215" s="34"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J215" s="34"/>
+      <c r="K215" s="34"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="18"/>
       <c r="B216" s="34"/>
       <c r="C216" s="34"/>
@@ -4647,8 +5122,10 @@
       <c r="G216" s="35"/>
       <c r="H216" s="34"/>
       <c r="I216" s="34"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J216" s="34"/>
+      <c r="K216" s="34"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="18"/>
       <c r="B217" s="34"/>
       <c r="C217" s="34"/>
@@ -4658,8 +5135,10 @@
       <c r="G217" s="35"/>
       <c r="H217" s="34"/>
       <c r="I217" s="34"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J217" s="34"/>
+      <c r="K217" s="34"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="18"/>
       <c r="B218" s="34"/>
       <c r="C218" s="34"/>
@@ -4669,8 +5148,10 @@
       <c r="G218" s="35"/>
       <c r="H218" s="34"/>
       <c r="I218" s="34"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J218" s="34"/>
+      <c r="K218" s="34"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="18"/>
       <c r="B219" s="34"/>
       <c r="C219" s="34"/>
@@ -4680,8 +5161,10 @@
       <c r="G219" s="35"/>
       <c r="H219" s="34"/>
       <c r="I219" s="34"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J219" s="34"/>
+      <c r="K219" s="34"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="18"/>
       <c r="B220" s="34"/>
       <c r="C220" s="34"/>
@@ -4691,8 +5174,10 @@
       <c r="G220" s="35"/>
       <c r="H220" s="34"/>
       <c r="I220" s="34"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J220" s="34"/>
+      <c r="K220" s="34"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="18"/>
       <c r="B221" s="34"/>
       <c r="C221" s="34"/>
@@ -4702,8 +5187,10 @@
       <c r="G221" s="35"/>
       <c r="H221" s="34"/>
       <c r="I221" s="34"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J221" s="34"/>
+      <c r="K221" s="34"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="18"/>
       <c r="B222" s="34"/>
       <c r="C222" s="34"/>
@@ -4713,8 +5200,10 @@
       <c r="G222" s="35"/>
       <c r="H222" s="34"/>
       <c r="I222" s="34"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J222" s="34"/>
+      <c r="K222" s="34"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="18"/>
       <c r="B223" s="34"/>
       <c r="C223" s="34"/>
@@ -4724,8 +5213,10 @@
       <c r="G223" s="35"/>
       <c r="H223" s="34"/>
       <c r="I223" s="34"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J223" s="34"/>
+      <c r="K223" s="34"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="18"/>
       <c r="B224" s="34"/>
       <c r="C224" s="34"/>
@@ -4735,8 +5226,10 @@
       <c r="G224" s="35"/>
       <c r="H224" s="34"/>
       <c r="I224" s="34"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J224" s="34"/>
+      <c r="K224" s="34"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="18"/>
       <c r="B225" s="34"/>
       <c r="C225" s="34"/>
@@ -4746,8 +5239,10 @@
       <c r="G225" s="35"/>
       <c r="H225" s="34"/>
       <c r="I225" s="34"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J225" s="34"/>
+      <c r="K225" s="34"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="18"/>
       <c r="B226" s="34"/>
       <c r="C226" s="34"/>
@@ -4757,8 +5252,10 @@
       <c r="G226" s="35"/>
       <c r="H226" s="34"/>
       <c r="I226" s="34"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J226" s="34"/>
+      <c r="K226" s="34"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="18"/>
       <c r="B227" s="34"/>
       <c r="C227" s="34"/>
@@ -4768,8 +5265,10 @@
       <c r="G227" s="35"/>
       <c r="H227" s="34"/>
       <c r="I227" s="34"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J227" s="34"/>
+      <c r="K227" s="34"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="18"/>
       <c r="B228" s="34"/>
       <c r="C228" s="34"/>
@@ -4779,8 +5278,10 @@
       <c r="G228" s="35"/>
       <c r="H228" s="34"/>
       <c r="I228" s="34"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J228" s="34"/>
+      <c r="K228" s="34"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="18"/>
       <c r="B229" s="34"/>
       <c r="C229" s="34"/>
@@ -4790,8 +5291,10 @@
       <c r="G229" s="35"/>
       <c r="H229" s="34"/>
       <c r="I229" s="34"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J229" s="34"/>
+      <c r="K229" s="34"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="18"/>
       <c r="B230" s="34"/>
       <c r="C230" s="34"/>
@@ -4801,8 +5304,10 @@
       <c r="G230" s="35"/>
       <c r="H230" s="34"/>
       <c r="I230" s="34"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J230" s="34"/>
+      <c r="K230" s="34"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="18"/>
       <c r="B231" s="34"/>
       <c r="C231" s="34"/>
@@ -4812,8 +5317,10 @@
       <c r="G231" s="35"/>
       <c r="H231" s="34"/>
       <c r="I231" s="34"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J231" s="34"/>
+      <c r="K231" s="34"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="18"/>
       <c r="B232" s="34"/>
       <c r="C232" s="34"/>
@@ -4823,8 +5330,10 @@
       <c r="G232" s="35"/>
       <c r="H232" s="34"/>
       <c r="I232" s="34"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J232" s="34"/>
+      <c r="K232" s="34"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="18"/>
       <c r="B233" s="34"/>
       <c r="C233" s="34"/>
@@ -4834,8 +5343,10 @@
       <c r="G233" s="35"/>
       <c r="H233" s="34"/>
       <c r="I233" s="34"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J233" s="34"/>
+      <c r="K233" s="34"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="18"/>
       <c r="B234" s="34"/>
       <c r="C234" s="34"/>
@@ -4845,8 +5356,10 @@
       <c r="G234" s="35"/>
       <c r="H234" s="34"/>
       <c r="I234" s="34"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J234" s="34"/>
+      <c r="K234" s="34"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="18"/>
       <c r="B235" s="34"/>
       <c r="C235" s="34"/>
@@ -4856,8 +5369,10 @@
       <c r="G235" s="35"/>
       <c r="H235" s="34"/>
       <c r="I235" s="34"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J235" s="34"/>
+      <c r="K235" s="34"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="18"/>
       <c r="B236" s="34"/>
       <c r="C236" s="34"/>
@@ -4867,8 +5382,10 @@
       <c r="G236" s="35"/>
       <c r="H236" s="34"/>
       <c r="I236" s="34"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J236" s="34"/>
+      <c r="K236" s="34"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="18"/>
       <c r="B237" s="34"/>
       <c r="C237" s="34"/>
@@ -4878,8 +5395,10 @@
       <c r="G237" s="35"/>
       <c r="H237" s="34"/>
       <c r="I237" s="34"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J237" s="34"/>
+      <c r="K237" s="34"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="18"/>
       <c r="B238" s="34"/>
       <c r="C238" s="34"/>
@@ -4889,8 +5408,10 @@
       <c r="G238" s="35"/>
       <c r="H238" s="34"/>
       <c r="I238" s="34"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J238" s="34"/>
+      <c r="K238" s="34"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="18"/>
       <c r="B239" s="34"/>
       <c r="C239" s="34"/>
@@ -4900,8 +5421,10 @@
       <c r="G239" s="35"/>
       <c r="H239" s="34"/>
       <c r="I239" s="34"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J239" s="34"/>
+      <c r="K239" s="34"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="18"/>
       <c r="B240" s="34"/>
       <c r="C240" s="34"/>
@@ -4911,8 +5434,10 @@
       <c r="G240" s="35"/>
       <c r="H240" s="34"/>
       <c r="I240" s="34"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J240" s="34"/>
+      <c r="K240" s="34"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="18"/>
       <c r="B241" s="34"/>
       <c r="C241" s="34"/>
@@ -4922,8 +5447,10 @@
       <c r="G241" s="35"/>
       <c r="H241" s="34"/>
       <c r="I241" s="34"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J241" s="34"/>
+      <c r="K241" s="34"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="18"/>
       <c r="B242" s="34"/>
       <c r="C242" s="34"/>
@@ -4933,8 +5460,10 @@
       <c r="G242" s="35"/>
       <c r="H242" s="34"/>
       <c r="I242" s="34"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J242" s="34"/>
+      <c r="K242" s="34"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="18"/>
       <c r="B243" s="34"/>
       <c r="C243" s="34"/>
@@ -4944,8 +5473,10 @@
       <c r="G243" s="35"/>
       <c r="H243" s="34"/>
       <c r="I243" s="34"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J243" s="34"/>
+      <c r="K243" s="34"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="18"/>
       <c r="B244" s="34"/>
       <c r="C244" s="34"/>
@@ -4955,8 +5486,10 @@
       <c r="G244" s="35"/>
       <c r="H244" s="34"/>
       <c r="I244" s="34"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J244" s="34"/>
+      <c r="K244" s="34"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="18"/>
       <c r="B245" s="34"/>
       <c r="C245" s="34"/>
@@ -4966,8 +5499,10 @@
       <c r="G245" s="35"/>
       <c r="H245" s="34"/>
       <c r="I245" s="34"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J245" s="34"/>
+      <c r="K245" s="34"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="18"/>
       <c r="B246" s="34"/>
       <c r="C246" s="34"/>
@@ -4977,8 +5512,10 @@
       <c r="G246" s="35"/>
       <c r="H246" s="34"/>
       <c r="I246" s="34"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J246" s="34"/>
+      <c r="K246" s="34"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="18"/>
       <c r="B247" s="34"/>
       <c r="C247" s="34"/>
@@ -4988,8 +5525,10 @@
       <c r="G247" s="35"/>
       <c r="H247" s="34"/>
       <c r="I247" s="34"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J247" s="34"/>
+      <c r="K247" s="34"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="18"/>
       <c r="B248" s="34"/>
       <c r="C248" s="34"/>
@@ -4999,8 +5538,10 @@
       <c r="G248" s="35"/>
       <c r="H248" s="34"/>
       <c r="I248" s="34"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J248" s="34"/>
+      <c r="K248" s="34"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="18"/>
       <c r="B249" s="34"/>
       <c r="C249" s="34"/>
@@ -5010,8 +5551,10 @@
       <c r="G249" s="35"/>
       <c r="H249" s="34"/>
       <c r="I249" s="34"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J249" s="34"/>
+      <c r="K249" s="34"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="18"/>
       <c r="B250" s="34"/>
       <c r="C250" s="34"/>
@@ -5021,8 +5564,10 @@
       <c r="G250" s="35"/>
       <c r="H250" s="34"/>
       <c r="I250" s="34"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J250" s="34"/>
+      <c r="K250" s="34"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="18"/>
       <c r="B251" s="34"/>
       <c r="C251" s="34"/>
@@ -5032,8 +5577,10 @@
       <c r="G251" s="35"/>
       <c r="H251" s="34"/>
       <c r="I251" s="34"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J251" s="34"/>
+      <c r="K251" s="34"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="18"/>
       <c r="B252" s="34"/>
       <c r="C252" s="34"/>
@@ -5043,8 +5590,10 @@
       <c r="G252" s="35"/>
       <c r="H252" s="34"/>
       <c r="I252" s="34"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J252" s="34"/>
+      <c r="K252" s="34"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="18"/>
       <c r="B253" s="34"/>
       <c r="C253" s="34"/>
@@ -5054,8 +5603,10 @@
       <c r="G253" s="35"/>
       <c r="H253" s="34"/>
       <c r="I253" s="34"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J253" s="34"/>
+      <c r="K253" s="34"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="18"/>
       <c r="B254" s="34"/>
       <c r="C254" s="34"/>
@@ -5065,8 +5616,10 @@
       <c r="G254" s="35"/>
       <c r="H254" s="34"/>
       <c r="I254" s="34"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J254" s="34"/>
+      <c r="K254" s="34"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="18"/>
       <c r="B255" s="34"/>
       <c r="C255" s="34"/>
@@ -5076,8 +5629,10 @@
       <c r="G255" s="35"/>
       <c r="H255" s="34"/>
       <c r="I255" s="34"/>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J255" s="34"/>
+      <c r="K255" s="34"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="18"/>
       <c r="B256" s="34"/>
       <c r="C256" s="34"/>
@@ -5087,8 +5642,10 @@
       <c r="G256" s="35"/>
       <c r="H256" s="34"/>
       <c r="I256" s="34"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J256" s="34"/>
+      <c r="K256" s="34"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="18"/>
       <c r="B257" s="34"/>
       <c r="C257" s="34"/>
@@ -5098,8 +5655,10 @@
       <c r="G257" s="35"/>
       <c r="H257" s="34"/>
       <c r="I257" s="34"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J257" s="34"/>
+      <c r="K257" s="34"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="18"/>
       <c r="B258" s="34"/>
       <c r="C258" s="34"/>
@@ -5109,8 +5668,10 @@
       <c r="G258" s="35"/>
       <c r="H258" s="34"/>
       <c r="I258" s="34"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J258" s="34"/>
+      <c r="K258" s="34"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="18"/>
       <c r="B259" s="34"/>
       <c r="C259" s="34"/>
@@ -5120,8 +5681,10 @@
       <c r="G259" s="35"/>
       <c r="H259" s="34"/>
       <c r="I259" s="34"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J259" s="34"/>
+      <c r="K259" s="34"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="18"/>
       <c r="B260" s="34"/>
       <c r="C260" s="34"/>
@@ -5131,8 +5694,10 @@
       <c r="G260" s="35"/>
       <c r="H260" s="34"/>
       <c r="I260" s="34"/>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J260" s="34"/>
+      <c r="K260" s="34"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="18"/>
       <c r="B261" s="34"/>
       <c r="C261" s="34"/>
@@ -5142,8 +5707,10 @@
       <c r="G261" s="35"/>
       <c r="H261" s="34"/>
       <c r="I261" s="34"/>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J261" s="34"/>
+      <c r="K261" s="34"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="18"/>
       <c r="B262" s="34"/>
       <c r="C262" s="34"/>
@@ -5153,8 +5720,10 @@
       <c r="G262" s="35"/>
       <c r="H262" s="34"/>
       <c r="I262" s="34"/>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J262" s="34"/>
+      <c r="K262" s="34"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="18"/>
       <c r="B263" s="34"/>
       <c r="C263" s="34"/>
@@ -5164,8 +5733,10 @@
       <c r="G263" s="35"/>
       <c r="H263" s="34"/>
       <c r="I263" s="34"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J263" s="34"/>
+      <c r="K263" s="34"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="18"/>
       <c r="B264" s="34"/>
       <c r="C264" s="34"/>
@@ -5175,8 +5746,10 @@
       <c r="G264" s="35"/>
       <c r="H264" s="34"/>
       <c r="I264" s="34"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J264" s="34"/>
+      <c r="K264" s="34"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="18"/>
       <c r="B265" s="34"/>
       <c r="C265" s="34"/>
@@ -5186,8 +5759,10 @@
       <c r="G265" s="35"/>
       <c r="H265" s="34"/>
       <c r="I265" s="34"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J265" s="34"/>
+      <c r="K265" s="34"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="18"/>
       <c r="B266" s="34"/>
       <c r="C266" s="34"/>
@@ -5197,8 +5772,10 @@
       <c r="G266" s="35"/>
       <c r="H266" s="34"/>
       <c r="I266" s="34"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J266" s="34"/>
+      <c r="K266" s="34"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="18"/>
       <c r="B267" s="34"/>
       <c r="C267" s="34"/>
@@ -5208,8 +5785,10 @@
       <c r="G267" s="35"/>
       <c r="H267" s="34"/>
       <c r="I267" s="34"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J267" s="34"/>
+      <c r="K267" s="34"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="18"/>
       <c r="B268" s="34"/>
       <c r="C268" s="34"/>
@@ -5219,8 +5798,10 @@
       <c r="G268" s="35"/>
       <c r="H268" s="34"/>
       <c r="I268" s="34"/>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J268" s="34"/>
+      <c r="K268" s="34"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="18"/>
       <c r="B269" s="34"/>
       <c r="C269" s="34"/>
@@ -5230,8 +5811,10 @@
       <c r="G269" s="35"/>
       <c r="H269" s="34"/>
       <c r="I269" s="34"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J269" s="34"/>
+      <c r="K269" s="34"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="18"/>
       <c r="B270" s="34"/>
       <c r="C270" s="34"/>
@@ -5241,8 +5824,10 @@
       <c r="G270" s="35"/>
       <c r="H270" s="34"/>
       <c r="I270" s="34"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J270" s="34"/>
+      <c r="K270" s="34"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="18"/>
       <c r="B271" s="34"/>
       <c r="C271" s="34"/>
@@ -5252,8 +5837,10 @@
       <c r="G271" s="35"/>
       <c r="H271" s="34"/>
       <c r="I271" s="34"/>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J271" s="34"/>
+      <c r="K271" s="34"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="18"/>
       <c r="B272" s="34"/>
       <c r="C272" s="34"/>
@@ -5263,8 +5850,10 @@
       <c r="G272" s="35"/>
       <c r="H272" s="34"/>
       <c r="I272" s="34"/>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J272" s="34"/>
+      <c r="K272" s="34"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="18"/>
       <c r="B273" s="34"/>
       <c r="C273" s="34"/>
@@ -5274,8 +5863,10 @@
       <c r="G273" s="35"/>
       <c r="H273" s="34"/>
       <c r="I273" s="34"/>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J273" s="34"/>
+      <c r="K273" s="34"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="18"/>
       <c r="B274" s="34"/>
       <c r="C274" s="34"/>
@@ -5285,8 +5876,10 @@
       <c r="G274" s="35"/>
       <c r="H274" s="34"/>
       <c r="I274" s="34"/>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J274" s="34"/>
+      <c r="K274" s="34"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="18"/>
       <c r="B275" s="34"/>
       <c r="C275" s="34"/>
@@ -5296,8 +5889,10 @@
       <c r="G275" s="35"/>
       <c r="H275" s="34"/>
       <c r="I275" s="34"/>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J275" s="34"/>
+      <c r="K275" s="34"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="18"/>
       <c r="B276" s="34"/>
       <c r="C276" s="34"/>
@@ -5307,8 +5902,10 @@
       <c r="G276" s="35"/>
       <c r="H276" s="34"/>
       <c r="I276" s="34"/>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J276" s="34"/>
+      <c r="K276" s="34"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="18"/>
       <c r="B277" s="34"/>
       <c r="C277" s="34"/>
@@ -5318,8 +5915,10 @@
       <c r="G277" s="35"/>
       <c r="H277" s="34"/>
       <c r="I277" s="34"/>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J277" s="34"/>
+      <c r="K277" s="34"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="18"/>
       <c r="B278" s="34"/>
       <c r="C278" s="34"/>
@@ -5329,8 +5928,10 @@
       <c r="G278" s="35"/>
       <c r="H278" s="34"/>
       <c r="I278" s="34"/>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J278" s="34"/>
+      <c r="K278" s="34"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="18"/>
       <c r="B279" s="34"/>
       <c r="C279" s="34"/>
@@ -5340,8 +5941,10 @@
       <c r="G279" s="35"/>
       <c r="H279" s="34"/>
       <c r="I279" s="34"/>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J279" s="34"/>
+      <c r="K279" s="34"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="18"/>
       <c r="B280" s="34"/>
       <c r="C280" s="34"/>
@@ -5351,8 +5954,10 @@
       <c r="G280" s="35"/>
       <c r="H280" s="34"/>
       <c r="I280" s="34"/>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J280" s="34"/>
+      <c r="K280" s="34"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="18"/>
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
@@ -5362,8 +5967,10 @@
       <c r="G281" s="21"/>
       <c r="H281" s="20"/>
       <c r="I281" s="20"/>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J281" s="20"/>
+      <c r="K281" s="20"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="18"/>
       <c r="B282" s="17"/>
       <c r="C282" s="17"/>
@@ -5372,7 +5979,7 @@
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="18"/>
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
@@ -5381,7 +5988,7 @@
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="18"/>
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
@@ -5390,7 +5997,7 @@
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="18"/>
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
@@ -5399,7 +6006,7 @@
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="18"/>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
@@ -5408,7 +6015,7 @@
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="18"/>
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
@@ -5417,7 +6024,7 @@
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="18"/>
       <c r="B288" s="17"/>
       <c r="C288" s="17"/>
@@ -5576,7 +6183,9 @@
       <c r="C305" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
@@ -5591,7 +6200,7 @@
       <formula1>43831</formula1>
       <formula2>44561</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I299 H63:H299 H5:H60 B5:B64 B71:B323 C5:C323" xr:uid="{41FC32AD-2E84-E042-9905-63CAE446C667}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I299 H63:H299 H5:H60 B5:B64 B71:B323 C5:C323 K5:K299 J63:J299 J5:J60" xr:uid="{41FC32AD-2E84-E042-9905-63CAE446C667}">
       <formula1>0</formula1>
       <formula2>10000000</formula2>
     </dataValidation>

--- a/inst/extdata/template.xlsx
+++ b/inst/extdata/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8908B123-5423-D643-ADA6-5AE3874EED26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6558EC-4345-7447-A5BE-180A1B9A25E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>Confirmed</t>
   </si>
   <si>
-    <t>Cumulative Hospitalizations</t>
-  </si>
-  <si>
     <t>PUI</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
     <t>hide.nonpublic.data</t>
   </si>
   <si>
-    <t>if 1, remove oberved seroprev from output (nonpublic data)</t>
-  </si>
-  <si>
     <t>If PUIs are not used on the Data sheet, Mean for that category will be ignored</t>
   </si>
   <si>
@@ -517,6 +511,12 @@
   </si>
   <si>
     <t>duration_natural_years</t>
+  </si>
+  <si>
+    <t>New Hospital Admissions</t>
+  </si>
+  <si>
+    <t>if 1, remove oberved seroprev from output (nonpublic data in California)</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -772,9 +772,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,25 +832,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -864,7 +852,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1182,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1202,15 +1211,15 @@
         <v>18</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1224,7 +1233,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1238,7 +1247,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1252,7 +1261,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1266,10 +1275,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
@@ -1280,10 +1289,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3">
         <v>7</v>
@@ -1294,10 +1303,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
         <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -1308,7 +1317,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1322,7 +1331,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1336,10 +1345,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
         <v>0.25</v>
@@ -1350,10 +1359,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
         <v>105</v>
-      </c>
-      <c r="B12" t="s">
-        <v>106</v>
       </c>
       <c r="C12" s="4">
         <v>0.2</v>
@@ -1364,10 +1373,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
         <v>107</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
       </c>
       <c r="C13" s="31">
         <v>5.0000000000000001E-3</v>
@@ -1395,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1414,7 +1423,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1437,7 +1446,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -1454,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1493,12 +1502,12 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -1506,7 +1515,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="3">
         <v>50000</v>
@@ -1514,39 +1523,39 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="B11" s="51"/>
-    </row>
-    <row r="12" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="48"/>
+    </row>
+    <row r="12" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-    </row>
-    <row r="13" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+    </row>
+    <row r="13" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-    </row>
-    <row r="14" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+    </row>
+    <row r="14" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="52"/>
-    </row>
-    <row r="15" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="50"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="47"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -1572,7 +1581,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1583,57 +1592,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="71"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1680,17 +1689,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -1739,56 +1748,56 @@
   <dimension ref="A1:M359"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="L365" sqref="L365"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="45.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="43" customWidth="1"/>
     <col min="4" max="7" width="12.83203125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="46" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="43" customWidth="1"/>
     <col min="10" max="10" width="18" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="18"/>
-    <col min="12" max="12" width="10.83203125" style="47"/>
-    <col min="13" max="13" width="10.83203125" style="18"/>
-    <col min="14" max="16384" width="10.83203125" style="48"/>
+    <col min="12" max="12" width="10.83203125" style="44"/>
+    <col min="13" max="13" width="10.83203125" style="18" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="75" t="s">
+      <c r="G1" s="71"/>
+      <c r="H1" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="72" t="s">
+      <c r="K1" s="71"/>
+      <c r="L1" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="72"/>
-    </row>
-    <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
+      <c r="M1" s="71"/>
+    </row>
+    <row r="2" spans="1:13" s="79" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="75"/>
       <c r="B2" s="76" t="s">
         <v>27</v>
       </c>
@@ -1797,113 +1806,113 @@
         <v>27</v>
       </c>
       <c r="E2" s="76"/>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="78"/>
+      <c r="H2" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="76" t="s">
+      <c r="I2" s="76"/>
+      <c r="J2" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="73" t="s">
+      <c r="K2" s="78"/>
+      <c r="L2" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="35" t="s">
+      <c r="M2" s="81"/>
+    </row>
+    <row r="3" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="42" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="43" t="s">
+      <c r="I4" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="J4" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="K4" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="L4" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="M4" s="40" t="s">
         <v>124</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>43919</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="43">
         <v>489</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="43">
         <v>1132</v>
       </c>
       <c r="H5" s="18"/>
@@ -1912,10 +1921,10 @@
       <c r="A6" s="9">
         <v>43920</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="43">
         <v>601</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="43">
         <v>1277</v>
       </c>
       <c r="H6" s="18"/>
@@ -1924,10 +1933,10 @@
       <c r="A7" s="9">
         <v>43921</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="43">
         <v>713</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="43">
         <v>1239</v>
       </c>
       <c r="H7" s="18"/>
@@ -1936,10 +1945,10 @@
       <c r="A8" s="9">
         <v>43922</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="43">
         <v>739</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="43">
         <v>1332</v>
       </c>
       <c r="H8" s="18"/>
@@ -1948,10 +1957,10 @@
       <c r="A9" s="9">
         <v>43923</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="43">
         <v>818</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="43">
         <v>1270</v>
       </c>
       <c r="H9" s="18"/>
@@ -1960,10 +1969,10 @@
       <c r="A10" s="9">
         <v>43924</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="43">
         <v>962</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="43">
         <v>1239</v>
       </c>
       <c r="H10" s="18"/>
@@ -1972,10 +1981,10 @@
       <c r="A11" s="9">
         <v>43925</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="43">
         <v>1007</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="43">
         <v>1190</v>
       </c>
       <c r="H11" s="18"/>
@@ -1984,10 +1993,10 @@
       <c r="A12" s="9">
         <v>43926</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="43">
         <v>1094</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="43">
         <v>1082</v>
       </c>
       <c r="H12" s="18"/>
@@ -1996,10 +2005,10 @@
       <c r="A13" s="9">
         <v>43927</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="43">
         <v>1166</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="43">
         <v>1070</v>
       </c>
       <c r="H13" s="18"/>
@@ -2008,10 +2017,10 @@
       <c r="A14" s="9">
         <v>43928</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="43">
         <v>1251</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="43">
         <v>1350</v>
       </c>
       <c r="H14" s="18"/>
@@ -2020,10 +2029,10 @@
       <c r="A15" s="9">
         <v>43929</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="43">
         <v>1331</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="43">
         <v>1077</v>
       </c>
       <c r="H15" s="18"/>
@@ -2032,10 +2041,10 @@
       <c r="A16" s="9">
         <v>43930</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="43">
         <v>1368</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="43">
         <v>758</v>
       </c>
       <c r="H16" s="18"/>
@@ -2044,10 +2053,10 @@
       <c r="A17" s="9">
         <v>43931</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="43">
         <v>1299</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="43">
         <v>754</v>
       </c>
       <c r="H17" s="18"/>
@@ -2056,10 +2065,10 @@
       <c r="A18" s="9">
         <v>43932</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="43">
         <v>1362</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="43">
         <v>905</v>
       </c>
       <c r="H18" s="18"/>
@@ -2068,10 +2077,10 @@
       <c r="A19" s="9">
         <v>43933</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="43">
         <v>1433</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="43">
         <v>715</v>
       </c>
       <c r="H19" s="18"/>
@@ -2080,10 +2089,10 @@
       <c r="A20" s="9">
         <v>43934</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="43">
         <v>1501</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="43">
         <v>793</v>
       </c>
       <c r="H20" s="18"/>
@@ -2092,10 +2101,10 @@
       <c r="A21" s="9">
         <v>43935</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="43">
         <v>1587</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="43">
         <v>613</v>
       </c>
       <c r="H21" s="18"/>
@@ -2104,10 +2113,10 @@
       <c r="A22" s="9">
         <v>43936</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="43">
         <v>1624</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="43">
         <v>632</v>
       </c>
       <c r="H22" s="18"/>
@@ -2116,10 +2125,10 @@
       <c r="A23" s="9">
         <v>43937</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="43">
         <v>1679</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="43">
         <v>620</v>
       </c>
       <c r="H23" s="18"/>
@@ -2128,10 +2137,10 @@
       <c r="A24" s="9">
         <v>43938</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="43">
         <v>1720</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="43">
         <v>634</v>
       </c>
       <c r="H24" s="18"/>
@@ -2140,10 +2149,10 @@
       <c r="A25" s="9">
         <v>43939</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="43">
         <v>1709</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="43">
         <v>578</v>
       </c>
       <c r="H25" s="18"/>
@@ -2152,10 +2161,10 @@
       <c r="A26" s="9">
         <v>43940</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="43">
         <v>1739</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="43">
         <v>549</v>
       </c>
       <c r="H26" s="18"/>
@@ -2164,10 +2173,10 @@
       <c r="A27" s="9">
         <v>43941</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="43">
         <v>1791</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="43">
         <v>602</v>
       </c>
       <c r="H27" s="18"/>
@@ -2176,10 +2185,10 @@
       <c r="A28" s="9">
         <v>43942</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="43">
         <v>1854</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="43">
         <v>617</v>
       </c>
       <c r="H28" s="18"/>
@@ -2188,10 +2197,10 @@
       <c r="A29" s="9">
         <v>43943</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="43">
         <v>1858</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="43">
         <v>590</v>
       </c>
       <c r="H29" s="18"/>
@@ -2200,10 +2209,10 @@
       <c r="A30" s="9">
         <v>43944</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="43">
         <v>1863</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="43">
         <v>595</v>
       </c>
       <c r="H30" s="18"/>
@@ -2212,10 +2221,10 @@
       <c r="A31" s="9">
         <v>43945</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="43">
         <v>1860</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="43">
         <v>546</v>
       </c>
       <c r="H31" s="18"/>
@@ -2224,10 +2233,10 @@
       <c r="A32" s="9">
         <v>43946</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="43">
         <v>1845</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="43">
         <v>572</v>
       </c>
       <c r="H32" s="18"/>
@@ -2236,10 +2245,10 @@
       <c r="A33" s="9">
         <v>43947</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="43">
         <v>1887</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="43">
         <v>575</v>
       </c>
       <c r="H33" s="18"/>
@@ -2248,10 +2257,10 @@
       <c r="A34" s="9">
         <v>43948</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="43">
         <v>1940</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="43">
         <v>609</v>
       </c>
       <c r="H34" s="18"/>
@@ -2260,10 +2269,10 @@
       <c r="A35" s="9">
         <v>43949</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="43">
         <v>1962</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="43">
         <v>581</v>
       </c>
       <c r="H35" s="18"/>
@@ -2272,10 +2281,10 @@
       <c r="A36" s="9">
         <v>43950</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="43">
         <v>1959</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="43">
         <v>591</v>
       </c>
       <c r="H36" s="18"/>
@@ -2287,7 +2296,7 @@
       <c r="B37" s="18">
         <v>1894</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="43">
         <v>470</v>
       </c>
       <c r="H37" s="18"/>
@@ -2299,7 +2308,7 @@
       <c r="B38" s="18">
         <v>1884</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="43">
         <v>511</v>
       </c>
     </row>
@@ -2310,7 +2319,7 @@
       <c r="B39" s="18">
         <v>1819</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="43">
         <v>561</v>
       </c>
     </row>
@@ -2321,7 +2330,7 @@
       <c r="B40" s="18">
         <v>1779</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="43">
         <v>520</v>
       </c>
     </row>
@@ -2332,7 +2341,7 @@
       <c r="B41" s="18">
         <v>1828</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="43">
         <v>543</v>
       </c>
     </row>
@@ -2343,7 +2352,7 @@
       <c r="B42" s="18">
         <v>1826</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="43">
         <v>544</v>
       </c>
     </row>
@@ -2351,10 +2360,10 @@
       <c r="A43" s="9">
         <v>43957</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B43" s="43">
         <v>1790</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C43" s="43">
         <v>502</v>
       </c>
     </row>
@@ -2362,10 +2371,10 @@
       <c r="A44" s="9">
         <v>43958</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="43">
         <v>1771</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="43">
         <v>552</v>
       </c>
     </row>
@@ -2373,10 +2382,10 @@
       <c r="A45" s="9">
         <v>43959</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="43">
         <v>1766</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="43">
         <v>510</v>
       </c>
     </row>
@@ -2384,10 +2393,10 @@
       <c r="A46" s="9">
         <v>43960</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="43">
         <v>1690</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="43">
         <v>531</v>
       </c>
     </row>
@@ -2395,10 +2404,10 @@
       <c r="A47" s="9">
         <v>43961</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="43">
         <v>1731</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="43">
         <v>539</v>
       </c>
     </row>
@@ -2406,10 +2415,10 @@
       <c r="A48" s="9">
         <v>43962</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="43">
         <v>1763</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="43">
         <v>547</v>
       </c>
     </row>
@@ -2417,10 +2426,10 @@
       <c r="A49" s="9">
         <v>43963</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="43">
         <v>1742</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="43">
         <v>506</v>
       </c>
     </row>
@@ -2428,10 +2437,10 @@
       <c r="A50" s="9">
         <v>43964</v>
       </c>
-      <c r="B50" s="46">
+      <c r="B50" s="43">
         <v>1733</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="43">
         <v>618</v>
       </c>
     </row>
@@ -2439,10 +2448,10 @@
       <c r="A51" s="9">
         <v>43965</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="43">
         <v>1648</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C51" s="43">
         <v>559</v>
       </c>
     </row>
@@ -2450,10 +2459,10 @@
       <c r="A52" s="9">
         <v>43966</v>
       </c>
-      <c r="B52" s="46">
+      <c r="B52" s="43">
         <v>1648</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="43">
         <v>553</v>
       </c>
     </row>
@@ -2461,10 +2470,10 @@
       <c r="A53" s="9">
         <v>43967</v>
       </c>
-      <c r="B53" s="46">
+      <c r="B53" s="43">
         <v>1570</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C53" s="43">
         <v>516</v>
       </c>
     </row>
@@ -2472,10 +2481,10 @@
       <c r="A54" s="9">
         <v>43968</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="43">
         <v>1549</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="43">
         <v>558</v>
       </c>
     </row>
@@ -2483,10 +2492,10 @@
       <c r="A55" s="9">
         <v>43969</v>
       </c>
-      <c r="B55" s="46">
+      <c r="B55" s="43">
         <v>1531</v>
       </c>
-      <c r="C55" s="46">
+      <c r="C55" s="43">
         <v>520</v>
       </c>
     </row>
@@ -2494,10 +2503,10 @@
       <c r="A56" s="9">
         <v>43970</v>
       </c>
-      <c r="B56" s="46">
+      <c r="B56" s="43">
         <v>1517</v>
       </c>
-      <c r="C56" s="46">
+      <c r="C56" s="43">
         <v>619</v>
       </c>
     </row>
@@ -2505,10 +2514,10 @@
       <c r="A57" s="9">
         <v>43971</v>
       </c>
-      <c r="B57" s="46">
+      <c r="B57" s="43">
         <v>1506</v>
       </c>
-      <c r="C57" s="46">
+      <c r="C57" s="43">
         <v>561</v>
       </c>
     </row>
@@ -2516,10 +2525,10 @@
       <c r="A58" s="9">
         <v>43972</v>
       </c>
-      <c r="B58" s="46">
+      <c r="B58" s="43">
         <v>1491</v>
       </c>
-      <c r="C58" s="46">
+      <c r="C58" s="43">
         <v>614</v>
       </c>
     </row>
@@ -2527,10 +2536,10 @@
       <c r="A59" s="9">
         <v>43973</v>
       </c>
-      <c r="B59" s="46">
+      <c r="B59" s="43">
         <v>1490</v>
       </c>
-      <c r="C59" s="46">
+      <c r="C59" s="43">
         <v>565</v>
       </c>
     </row>
@@ -2538,10 +2547,10 @@
       <c r="A60" s="9">
         <v>43974</v>
       </c>
-      <c r="B60" s="46">
+      <c r="B60" s="43">
         <v>1440</v>
       </c>
-      <c r="C60" s="46">
+      <c r="C60" s="43">
         <v>566</v>
       </c>
     </row>
@@ -2549,10 +2558,10 @@
       <c r="A61" s="9">
         <v>43975</v>
       </c>
-      <c r="B61" s="46">
+      <c r="B61" s="43">
         <v>1443</v>
       </c>
-      <c r="C61" s="46">
+      <c r="C61" s="43">
         <v>547</v>
       </c>
     </row>
@@ -2560,10 +2569,10 @@
       <c r="A62" s="9">
         <v>43976</v>
       </c>
-      <c r="B62" s="46">
+      <c r="B62" s="43">
         <v>1477</v>
       </c>
-      <c r="C62" s="46">
+      <c r="C62" s="43">
         <v>564</v>
       </c>
     </row>
@@ -2571,10 +2580,10 @@
       <c r="A63" s="9">
         <v>43977</v>
       </c>
-      <c r="B63" s="46">
+      <c r="B63" s="43">
         <v>1477</v>
       </c>
-      <c r="C63" s="46">
+      <c r="C63" s="43">
         <v>610</v>
       </c>
     </row>
@@ -2582,10 +2591,10 @@
       <c r="A64" s="9">
         <v>43978</v>
       </c>
-      <c r="B64" s="46">
+      <c r="B64" s="43">
         <v>1462</v>
       </c>
-      <c r="C64" s="46">
+      <c r="C64" s="43">
         <v>628</v>
       </c>
     </row>
@@ -2593,10 +2602,10 @@
       <c r="A65" s="9">
         <v>43979</v>
       </c>
-      <c r="B65" s="46">
+      <c r="B65" s="43">
         <v>1415</v>
       </c>
-      <c r="C65" s="46">
+      <c r="C65" s="43">
         <v>639</v>
       </c>
     </row>
@@ -2604,10 +2613,10 @@
       <c r="A66" s="9">
         <v>43980</v>
       </c>
-      <c r="B66" s="46">
+      <c r="B66" s="43">
         <v>1402</v>
       </c>
-      <c r="C66" s="46">
+      <c r="C66" s="43">
         <v>570</v>
       </c>
     </row>
@@ -2615,10 +2624,10 @@
       <c r="A67" s="9">
         <v>43981</v>
       </c>
-      <c r="B67" s="46">
+      <c r="B67" s="43">
         <v>1357</v>
       </c>
-      <c r="C67" s="46">
+      <c r="C67" s="43">
         <v>577</v>
       </c>
     </row>
@@ -2626,10 +2635,10 @@
       <c r="A68" s="9">
         <v>43982</v>
       </c>
-      <c r="B68" s="46">
+      <c r="B68" s="43">
         <v>1389</v>
       </c>
-      <c r="C68" s="46">
+      <c r="C68" s="43">
         <v>519</v>
       </c>
     </row>
@@ -2637,10 +2646,10 @@
       <c r="A69" s="9">
         <v>43983</v>
       </c>
-      <c r="B69" s="46">
+      <c r="B69" s="43">
         <v>1422</v>
       </c>
-      <c r="C69" s="46">
+      <c r="C69" s="43">
         <v>596</v>
       </c>
     </row>
@@ -2648,10 +2657,10 @@
       <c r="A70" s="9">
         <v>43984</v>
       </c>
-      <c r="B70" s="46">
+      <c r="B70" s="43">
         <v>1457</v>
       </c>
-      <c r="C70" s="46">
+      <c r="C70" s="43">
         <v>570</v>
       </c>
     </row>
@@ -2659,10 +2668,10 @@
       <c r="A71" s="9">
         <v>43985</v>
       </c>
-      <c r="B71" s="46">
+      <c r="B71" s="43">
         <v>1488</v>
       </c>
-      <c r="C71" s="46">
+      <c r="C71" s="43">
         <v>502</v>
       </c>
     </row>
@@ -2670,10 +2679,10 @@
       <c r="A72" s="9">
         <v>43986</v>
       </c>
-      <c r="B72" s="46">
+      <c r="B72" s="43">
         <v>1462</v>
       </c>
-      <c r="C72" s="46">
+      <c r="C72" s="43">
         <v>586</v>
       </c>
     </row>
@@ -2681,10 +2690,10 @@
       <c r="A73" s="9">
         <v>43987</v>
       </c>
-      <c r="B73" s="46">
+      <c r="B73" s="43">
         <v>1451</v>
       </c>
-      <c r="C73" s="46">
+      <c r="C73" s="43">
         <v>547</v>
       </c>
     </row>
@@ -2692,10 +2701,10 @@
       <c r="A74" s="9">
         <v>43988</v>
       </c>
-      <c r="B74" s="46">
+      <c r="B74" s="43">
         <v>1399</v>
       </c>
-      <c r="C74" s="46">
+      <c r="C74" s="43">
         <v>582</v>
       </c>
     </row>
@@ -2703,10 +2712,10 @@
       <c r="A75" s="9">
         <v>43989</v>
       </c>
-      <c r="B75" s="46">
+      <c r="B75" s="43">
         <v>1453</v>
       </c>
-      <c r="C75" s="46">
+      <c r="C75" s="43">
         <v>558</v>
       </c>
     </row>
@@ -2714,10 +2723,10 @@
       <c r="A76" s="9">
         <v>43990</v>
       </c>
-      <c r="B76" s="46">
+      <c r="B76" s="43">
         <v>1458</v>
       </c>
-      <c r="C76" s="46">
+      <c r="C76" s="43">
         <v>595</v>
       </c>
     </row>
@@ -2725,10 +2734,10 @@
       <c r="A77" s="9">
         <v>43991</v>
       </c>
-      <c r="B77" s="46">
+      <c r="B77" s="43">
         <v>1416</v>
       </c>
-      <c r="C77" s="46">
+      <c r="C77" s="43">
         <v>695</v>
       </c>
     </row>
@@ -2736,10 +2745,10 @@
       <c r="A78" s="9">
         <v>43992</v>
       </c>
-      <c r="B78" s="46">
+      <c r="B78" s="43">
         <v>1389</v>
       </c>
-      <c r="C78" s="46">
+      <c r="C78" s="43">
         <v>564</v>
       </c>
     </row>
@@ -2747,10 +2756,10 @@
       <c r="A79" s="9">
         <v>43993</v>
       </c>
-      <c r="B79" s="46">
+      <c r="B79" s="43">
         <v>1397</v>
       </c>
-      <c r="C79" s="46">
+      <c r="C79" s="43">
         <v>576</v>
       </c>
     </row>
@@ -2758,10 +2767,10 @@
       <c r="A80" s="9">
         <v>43994</v>
       </c>
-      <c r="B80" s="46">
+      <c r="B80" s="43">
         <v>1383</v>
       </c>
-      <c r="C80" s="46">
+      <c r="C80" s="43">
         <v>487</v>
       </c>
     </row>
@@ -2769,10 +2778,10 @@
       <c r="A81" s="9">
         <v>43995</v>
       </c>
-      <c r="B81" s="46">
+      <c r="B81" s="43">
         <v>1285</v>
       </c>
-      <c r="C81" s="46">
+      <c r="C81" s="43">
         <v>483</v>
       </c>
     </row>
@@ -2780,10 +2789,10 @@
       <c r="A82" s="9">
         <v>43996</v>
       </c>
-      <c r="B82" s="46">
+      <c r="B82" s="43">
         <v>1288</v>
       </c>
-      <c r="C82" s="46">
+      <c r="C82" s="43">
         <v>509</v>
       </c>
     </row>
@@ -2791,10 +2800,10 @@
       <c r="A83" s="9">
         <v>43997</v>
       </c>
-      <c r="B83" s="46">
+      <c r="B83" s="43">
         <v>1420</v>
       </c>
-      <c r="C83" s="46">
+      <c r="C83" s="43">
         <v>536</v>
       </c>
     </row>
@@ -2802,10 +2811,10 @@
       <c r="A84" s="9">
         <v>43998</v>
       </c>
-      <c r="B84" s="46">
+      <c r="B84" s="43">
         <v>1429</v>
       </c>
-      <c r="C84" s="46">
+      <c r="C84" s="43">
         <v>518</v>
       </c>
     </row>
@@ -2813,10 +2822,10 @@
       <c r="A85" s="9">
         <v>43999</v>
       </c>
-      <c r="B85" s="46">
+      <c r="B85" s="43">
         <v>1446</v>
       </c>
-      <c r="C85" s="46">
+      <c r="C85" s="43">
         <v>512</v>
       </c>
     </row>
@@ -2824,10 +2833,10 @@
       <c r="A86" s="9">
         <v>44000</v>
       </c>
-      <c r="B86" s="46">
+      <c r="B86" s="43">
         <v>1406</v>
       </c>
-      <c r="C86" s="46">
+      <c r="C86" s="43">
         <v>494</v>
       </c>
     </row>
@@ -2835,10 +2844,10 @@
       <c r="A87" s="9">
         <v>44001</v>
       </c>
-      <c r="B87" s="46">
+      <c r="B87" s="43">
         <v>1426</v>
       </c>
-      <c r="C87" s="46">
+      <c r="C87" s="43">
         <v>494</v>
       </c>
     </row>
@@ -2846,10 +2855,10 @@
       <c r="A88" s="9">
         <v>44002</v>
       </c>
-      <c r="B88" s="46">
+      <c r="B88" s="43">
         <v>1453</v>
       </c>
-      <c r="C88" s="46">
+      <c r="C88" s="43">
         <v>516</v>
       </c>
     </row>
@@ -2857,10 +2866,10 @@
       <c r="A89" s="9">
         <v>44003</v>
       </c>
-      <c r="B89" s="46">
+      <c r="B89" s="43">
         <v>1515</v>
       </c>
-      <c r="C89" s="46">
+      <c r="C89" s="43">
         <v>486</v>
       </c>
     </row>
@@ -2868,10 +2877,10 @@
       <c r="A90" s="9">
         <v>44004</v>
       </c>
-      <c r="B90" s="46">
+      <c r="B90" s="43">
         <v>1556</v>
       </c>
-      <c r="C90" s="46">
+      <c r="C90" s="43">
         <v>534</v>
       </c>
     </row>
@@ -2879,10 +2888,10 @@
       <c r="A91" s="9">
         <v>44005</v>
       </c>
-      <c r="B91" s="46">
+      <c r="B91" s="43">
         <v>1633</v>
       </c>
-      <c r="C91" s="46">
+      <c r="C91" s="43">
         <v>626</v>
       </c>
     </row>
@@ -2890,10 +2899,10 @@
       <c r="A92" s="9">
         <v>44006</v>
       </c>
-      <c r="B92" s="46">
+      <c r="B92" s="43">
         <v>1676</v>
       </c>
-      <c r="C92" s="46">
+      <c r="C92" s="43">
         <v>607</v>
       </c>
     </row>
@@ -2901,10 +2910,10 @@
       <c r="A93" s="9">
         <v>44007</v>
       </c>
-      <c r="B93" s="46">
+      <c r="B93" s="43">
         <v>1698</v>
       </c>
-      <c r="C93" s="46">
+      <c r="C93" s="43">
         <v>539</v>
       </c>
     </row>
@@ -2912,10 +2921,10 @@
       <c r="A94" s="9">
         <v>44008</v>
       </c>
-      <c r="B94" s="46">
+      <c r="B94" s="43">
         <v>1717</v>
       </c>
-      <c r="C94" s="46">
+      <c r="C94" s="43">
         <v>579</v>
       </c>
     </row>
@@ -2923,10 +2932,10 @@
       <c r="A95" s="9">
         <v>44009</v>
       </c>
-      <c r="B95" s="46">
+      <c r="B95" s="43">
         <v>1710</v>
       </c>
-      <c r="C95" s="46">
+      <c r="C95" s="43">
         <v>606</v>
       </c>
     </row>
@@ -2934,10 +2943,10 @@
       <c r="A96" s="9">
         <v>44010</v>
       </c>
-      <c r="B96" s="46">
+      <c r="B96" s="43">
         <v>1783</v>
       </c>
-      <c r="C96" s="46">
+      <c r="C96" s="43">
         <v>682</v>
       </c>
     </row>
@@ -2945,10 +2954,10 @@
       <c r="A97" s="9">
         <v>44011</v>
       </c>
-      <c r="B97" s="46">
+      <c r="B97" s="43">
         <v>1889</v>
       </c>
-      <c r="C97" s="46">
+      <c r="C97" s="43">
         <v>622</v>
       </c>
     </row>
@@ -2956,10 +2965,10 @@
       <c r="A98" s="9">
         <v>44012</v>
       </c>
-      <c r="B98" s="46">
+      <c r="B98" s="43">
         <v>1893</v>
       </c>
-      <c r="C98" s="46">
+      <c r="C98" s="43">
         <v>645</v>
       </c>
     </row>
@@ -2967,10 +2976,10 @@
       <c r="A99" s="9">
         <v>44013</v>
       </c>
-      <c r="B99" s="46">
+      <c r="B99" s="43">
         <v>1937</v>
       </c>
-      <c r="C99" s="46">
+      <c r="C99" s="43">
         <v>643</v>
       </c>
     </row>
@@ -2978,10 +2987,10 @@
       <c r="A100" s="9">
         <v>44014</v>
       </c>
-      <c r="B100" s="46">
+      <c r="B100" s="43">
         <v>1933</v>
       </c>
-      <c r="C100" s="46">
+      <c r="C100" s="43">
         <v>679</v>
       </c>
     </row>
@@ -2989,10 +2998,10 @@
       <c r="A101" s="9">
         <v>44015</v>
       </c>
-      <c r="B101" s="46">
+      <c r="B101" s="43">
         <v>1947</v>
       </c>
-      <c r="C101" s="46">
+      <c r="C101" s="43">
         <v>696</v>
       </c>
     </row>
@@ -3000,10 +3009,10 @@
       <c r="A102" s="9">
         <v>44016</v>
       </c>
-      <c r="B102" s="46">
+      <c r="B102" s="43">
         <v>1921</v>
       </c>
-      <c r="C102" s="46">
+      <c r="C102" s="43">
         <v>653</v>
       </c>
     </row>
@@ -3011,10 +3020,10 @@
       <c r="A103" s="9">
         <v>44017</v>
       </c>
-      <c r="B103" s="46">
+      <c r="B103" s="43">
         <v>1969</v>
       </c>
-      <c r="C103" s="46">
+      <c r="C103" s="43">
         <v>676</v>
       </c>
     </row>
@@ -3022,10 +3031,10 @@
       <c r="A104" s="9">
         <v>44018</v>
       </c>
-      <c r="B104" s="46">
+      <c r="B104" s="43">
         <v>2004</v>
       </c>
-      <c r="C104" s="46">
+      <c r="C104" s="43">
         <v>666</v>
       </c>
     </row>
@@ -3033,10 +3042,10 @@
       <c r="A105" s="9">
         <v>44019</v>
       </c>
-      <c r="B105" s="46">
+      <c r="B105" s="43">
         <v>2037</v>
       </c>
-      <c r="C105" s="46">
+      <c r="C105" s="43">
         <v>792</v>
       </c>
     </row>
@@ -3044,10 +3053,10 @@
       <c r="A106" s="9">
         <v>44020</v>
       </c>
-      <c r="B106" s="46">
+      <c r="B106" s="43">
         <v>1995</v>
       </c>
-      <c r="C106" s="46">
+      <c r="C106" s="43">
         <v>822</v>
       </c>
     </row>
@@ -3055,10 +3064,10 @@
       <c r="A107" s="9">
         <v>44021</v>
       </c>
-      <c r="B107" s="46">
+      <c r="B107" s="43">
         <v>2032</v>
       </c>
-      <c r="C107" s="46">
+      <c r="C107" s="43">
         <v>817</v>
       </c>
     </row>
@@ -3066,10 +3075,10 @@
       <c r="A108" s="9">
         <v>44022</v>
       </c>
-      <c r="B108" s="46">
+      <c r="B108" s="43">
         <v>2093</v>
       </c>
-      <c r="C108" s="46">
+      <c r="C108" s="43">
         <v>684</v>
       </c>
     </row>
@@ -3077,10 +3086,10 @@
       <c r="A109" s="9">
         <v>44023</v>
       </c>
-      <c r="B109" s="46">
+      <c r="B109" s="43">
         <v>2056</v>
       </c>
-      <c r="C109" s="46">
+      <c r="C109" s="43">
         <v>713</v>
       </c>
     </row>
@@ -3088,10 +3097,10 @@
       <c r="A110" s="9">
         <v>44024</v>
       </c>
-      <c r="B110" s="46">
+      <c r="B110" s="43">
         <v>2103</v>
       </c>
-      <c r="C110" s="46">
+      <c r="C110" s="43">
         <v>670</v>
       </c>
     </row>
@@ -3099,10 +3108,10 @@
       <c r="A111" s="9">
         <v>44025</v>
       </c>
-      <c r="B111" s="46">
+      <c r="B111" s="43">
         <v>2193</v>
       </c>
-      <c r="C111" s="46">
+      <c r="C111" s="43">
         <v>612</v>
       </c>
     </row>
@@ -3110,10 +3119,10 @@
       <c r="A112" s="9">
         <v>44026</v>
       </c>
-      <c r="B112" s="46">
+      <c r="B112" s="43">
         <v>2173</v>
       </c>
-      <c r="C112" s="46">
+      <c r="C112" s="43">
         <v>726</v>
       </c>
     </row>
@@ -3121,10 +3130,10 @@
       <c r="A113" s="9">
         <v>44027</v>
       </c>
-      <c r="B113" s="46">
+      <c r="B113" s="43">
         <v>2122</v>
       </c>
-      <c r="C113" s="46">
+      <c r="C113" s="43">
         <v>729</v>
       </c>
     </row>
@@ -3132,10 +3141,10 @@
       <c r="A114" s="9">
         <v>44028</v>
       </c>
-      <c r="B114" s="46">
+      <c r="B114" s="43">
         <v>2188</v>
       </c>
-      <c r="C114" s="46">
+      <c r="C114" s="43">
         <v>719</v>
       </c>
     </row>
@@ -3143,10 +3152,10 @@
       <c r="A115" s="9">
         <v>44029</v>
       </c>
-      <c r="B115" s="46">
+      <c r="B115" s="43">
         <v>2216</v>
       </c>
-      <c r="C115" s="46">
+      <c r="C115" s="43">
         <v>660</v>
       </c>
     </row>
@@ -3154,10 +3163,10 @@
       <c r="A116" s="9">
         <v>44030</v>
       </c>
-      <c r="B116" s="46">
+      <c r="B116" s="43">
         <v>2232</v>
       </c>
-      <c r="C116" s="46">
+      <c r="C116" s="43">
         <v>608</v>
       </c>
     </row>
@@ -3165,10 +3174,10 @@
       <c r="A117" s="9">
         <v>44031</v>
       </c>
-      <c r="B117" s="46">
+      <c r="B117" s="43">
         <v>2218</v>
       </c>
-      <c r="C117" s="46">
+      <c r="C117" s="43">
         <v>616</v>
       </c>
     </row>
@@ -3176,10 +3185,10 @@
       <c r="A118" s="9">
         <v>44032</v>
       </c>
-      <c r="B118" s="46">
+      <c r="B118" s="43">
         <v>2207</v>
       </c>
-      <c r="C118" s="46">
+      <c r="C118" s="43">
         <v>670</v>
       </c>
     </row>
@@ -3187,10 +3196,10 @@
       <c r="A119" s="9">
         <v>44033</v>
       </c>
-      <c r="B119" s="46">
+      <c r="B119" s="43">
         <v>2210</v>
       </c>
-      <c r="C119" s="46">
+      <c r="C119" s="43">
         <v>620</v>
       </c>
     </row>
@@ -3198,10 +3207,10 @@
       <c r="A120" s="9">
         <v>44034</v>
       </c>
-      <c r="B120" s="46">
+      <c r="B120" s="43">
         <v>1928</v>
       </c>
-      <c r="C120" s="46">
+      <c r="C120" s="43">
         <v>542</v>
       </c>
     </row>
@@ -3209,10 +3218,10 @@
       <c r="A121" s="9">
         <v>44035</v>
       </c>
-      <c r="B121" s="46">
+      <c r="B121" s="43">
         <v>2016</v>
       </c>
-      <c r="C121" s="46">
+      <c r="C121" s="43">
         <v>582</v>
       </c>
     </row>
@@ -3220,10 +3229,10 @@
       <c r="A122" s="9">
         <v>44036</v>
       </c>
-      <c r="B122" s="46">
+      <c r="B122" s="43">
         <v>2033</v>
       </c>
-      <c r="C122" s="46">
+      <c r="C122" s="43">
         <v>595</v>
       </c>
     </row>
@@ -3231,10 +3240,10 @@
       <c r="A123" s="9">
         <v>44037</v>
       </c>
-      <c r="B123" s="46">
+      <c r="B123" s="43">
         <v>2017</v>
       </c>
-      <c r="C123" s="46">
+      <c r="C123" s="43">
         <v>535</v>
       </c>
     </row>
@@ -3242,10 +3251,10 @@
       <c r="A124" s="9">
         <v>44038</v>
       </c>
-      <c r="B124" s="46">
+      <c r="B124" s="43">
         <v>2051</v>
       </c>
-      <c r="C124" s="46">
+      <c r="C124" s="43">
         <v>570</v>
       </c>
     </row>
@@ -3253,10 +3262,10 @@
       <c r="A125" s="9">
         <v>44039</v>
       </c>
-      <c r="B125" s="46">
+      <c r="B125" s="43">
         <v>2045</v>
       </c>
-      <c r="C125" s="46">
+      <c r="C125" s="43">
         <v>554</v>
       </c>
     </row>
@@ -3264,10 +3273,10 @@
       <c r="A126" s="9">
         <v>44040</v>
       </c>
-      <c r="B126" s="46">
+      <c r="B126" s="43">
         <v>2022</v>
       </c>
-      <c r="C126" s="46">
+      <c r="C126" s="43">
         <v>575</v>
       </c>
     </row>
@@ -3275,10 +3284,10 @@
       <c r="A127" s="9">
         <v>44041</v>
       </c>
-      <c r="B127" s="46">
+      <c r="B127" s="43">
         <v>2002</v>
       </c>
-      <c r="C127" s="46">
+      <c r="C127" s="43">
         <v>566</v>
       </c>
     </row>
@@ -3286,10 +3295,10 @@
       <c r="A128" s="9">
         <v>44042</v>
       </c>
-      <c r="B128" s="46">
+      <c r="B128" s="43">
         <v>1904</v>
       </c>
-      <c r="C128" s="46">
+      <c r="C128" s="43">
         <v>553</v>
       </c>
     </row>
@@ -3297,10 +3306,10 @@
       <c r="A129" s="9">
         <v>44043</v>
       </c>
-      <c r="B129" s="46">
+      <c r="B129" s="43">
         <v>1856</v>
       </c>
-      <c r="C129" s="46">
+      <c r="C129" s="43">
         <v>516</v>
       </c>
     </row>
@@ -3308,10 +3317,10 @@
       <c r="A130" s="9">
         <v>44044</v>
       </c>
-      <c r="B130" s="46">
+      <c r="B130" s="43">
         <v>1784</v>
       </c>
-      <c r="C130" s="46">
+      <c r="C130" s="43">
         <v>557</v>
       </c>
     </row>
@@ -3319,10 +3328,10 @@
       <c r="A131" s="9">
         <v>44045</v>
       </c>
-      <c r="B131" s="46">
+      <c r="B131" s="43">
         <v>1757</v>
       </c>
-      <c r="C131" s="46">
+      <c r="C131" s="43">
         <v>506</v>
       </c>
     </row>
@@ -3330,10 +3339,10 @@
       <c r="A132" s="9">
         <v>44046</v>
       </c>
-      <c r="B132" s="46">
+      <c r="B132" s="43">
         <v>1768</v>
       </c>
-      <c r="C132" s="46">
+      <c r="C132" s="43">
         <v>541</v>
       </c>
     </row>
@@ -3341,10 +3350,10 @@
       <c r="A133" s="9">
         <v>44047</v>
       </c>
-      <c r="B133" s="46">
+      <c r="B133" s="43">
         <v>1741</v>
       </c>
-      <c r="C133" s="46">
+      <c r="C133" s="43">
         <v>556</v>
       </c>
     </row>
@@ -3352,10 +3361,10 @@
       <c r="A134" s="9">
         <v>44048</v>
       </c>
-      <c r="B134" s="46">
+      <c r="B134" s="43">
         <v>1680</v>
       </c>
-      <c r="C134" s="46">
+      <c r="C134" s="43">
         <v>602</v>
       </c>
     </row>
@@ -3363,10 +3372,10 @@
       <c r="A135" s="9">
         <v>44049</v>
       </c>
-      <c r="B135" s="46">
+      <c r="B135" s="43">
         <v>1610</v>
       </c>
-      <c r="C135" s="46">
+      <c r="C135" s="43">
         <v>581</v>
       </c>
     </row>
@@ -3374,10 +3383,10 @@
       <c r="A136" s="9">
         <v>44050</v>
       </c>
-      <c r="B136" s="46">
+      <c r="B136" s="43">
         <v>1568</v>
       </c>
-      <c r="C136" s="46">
+      <c r="C136" s="43">
         <v>478</v>
       </c>
     </row>
@@ -3385,10 +3394,10 @@
       <c r="A137" s="9">
         <v>44051</v>
       </c>
-      <c r="B137" s="46">
+      <c r="B137" s="43">
         <v>1514</v>
       </c>
-      <c r="C137" s="46">
+      <c r="C137" s="43">
         <v>513</v>
       </c>
     </row>
@@ -3396,10 +3405,10 @@
       <c r="A138" s="9">
         <v>44052</v>
       </c>
-      <c r="B138" s="46">
+      <c r="B138" s="43">
         <v>1524</v>
       </c>
-      <c r="C138" s="46">
+      <c r="C138" s="43">
         <v>468</v>
       </c>
     </row>
@@ -3407,10 +3416,10 @@
       <c r="A139" s="9">
         <v>44053</v>
       </c>
-      <c r="B139" s="46">
+      <c r="B139" s="43">
         <v>1538</v>
       </c>
-      <c r="C139" s="46">
+      <c r="C139" s="43">
         <v>446</v>
       </c>
     </row>
@@ -3418,10 +3427,10 @@
       <c r="A140" s="9">
         <v>44054</v>
       </c>
-      <c r="B140" s="46">
+      <c r="B140" s="43">
         <v>1481</v>
       </c>
-      <c r="C140" s="46">
+      <c r="C140" s="43">
         <v>470</v>
       </c>
     </row>
@@ -3429,10 +3438,10 @@
       <c r="A141" s="9">
         <v>44055</v>
       </c>
-      <c r="B141" s="46">
+      <c r="B141" s="43">
         <v>1415</v>
       </c>
-      <c r="C141" s="46">
+      <c r="C141" s="43">
         <v>472</v>
       </c>
     </row>
@@ -3440,10 +3449,10 @@
       <c r="A142" s="9">
         <v>44056</v>
       </c>
-      <c r="B142" s="46">
+      <c r="B142" s="43">
         <v>1393</v>
       </c>
-      <c r="C142" s="46">
+      <c r="C142" s="43">
         <v>520</v>
       </c>
     </row>
@@ -3451,10 +3460,10 @@
       <c r="A143" s="9">
         <v>44057</v>
       </c>
-      <c r="B143" s="46">
+      <c r="B143" s="43">
         <v>1357</v>
       </c>
-      <c r="C143" s="46">
+      <c r="C143" s="43">
         <v>556</v>
       </c>
     </row>
@@ -3462,10 +3471,10 @@
       <c r="A144" s="9">
         <v>44058</v>
       </c>
-      <c r="B144" s="46">
+      <c r="B144" s="43">
         <v>1341</v>
       </c>
-      <c r="C144" s="46">
+      <c r="C144" s="43">
         <v>573</v>
       </c>
     </row>
@@ -3473,10 +3482,10 @@
       <c r="A145" s="9">
         <v>44059</v>
       </c>
-      <c r="B145" s="46">
+      <c r="B145" s="43">
         <v>1352</v>
       </c>
-      <c r="C145" s="46">
+      <c r="C145" s="43">
         <v>555</v>
       </c>
     </row>
@@ -3484,10 +3493,10 @@
       <c r="A146" s="9">
         <v>44060</v>
       </c>
-      <c r="B146" s="46">
+      <c r="B146" s="43">
         <v>1378</v>
       </c>
-      <c r="C146" s="46">
+      <c r="C146" s="43">
         <v>518</v>
       </c>
     </row>
@@ -3495,10 +3504,10 @@
       <c r="A147" s="9">
         <v>44061</v>
       </c>
-      <c r="B147" s="46">
+      <c r="B147" s="43">
         <v>1378</v>
       </c>
-      <c r="C147" s="46">
+      <c r="C147" s="43">
         <v>591</v>
       </c>
     </row>
@@ -3506,10 +3515,10 @@
       <c r="A148" s="9">
         <v>44062</v>
       </c>
-      <c r="B148" s="46">
+      <c r="B148" s="43">
         <v>1347</v>
       </c>
-      <c r="C148" s="46">
+      <c r="C148" s="43">
         <v>551</v>
       </c>
     </row>
@@ -3517,10 +3526,10 @@
       <c r="A149" s="9">
         <v>44063</v>
       </c>
-      <c r="B149" s="46">
+      <c r="B149" s="43">
         <v>1280</v>
       </c>
-      <c r="C149" s="46">
+      <c r="C149" s="43">
         <v>509</v>
       </c>
     </row>
@@ -3528,10 +3537,10 @@
       <c r="A150" s="9">
         <v>44064</v>
       </c>
-      <c r="B150" s="46">
+      <c r="B150" s="43">
         <v>1247</v>
       </c>
-      <c r="C150" s="46">
+      <c r="C150" s="43">
         <v>479</v>
       </c>
     </row>
@@ -3539,10 +3548,10 @@
       <c r="A151" s="9">
         <v>44065</v>
       </c>
-      <c r="B151" s="46">
+      <c r="B151" s="43">
         <v>1219</v>
       </c>
-      <c r="C151" s="46">
+      <c r="C151" s="43">
         <v>482</v>
       </c>
     </row>
@@ -3550,10 +3559,10 @@
       <c r="A152" s="9">
         <v>44066</v>
       </c>
-      <c r="B152" s="46">
+      <c r="B152" s="43">
         <v>1200</v>
       </c>
-      <c r="C152" s="46">
+      <c r="C152" s="43">
         <v>467</v>
       </c>
     </row>
@@ -3561,10 +3570,10 @@
       <c r="A153" s="9">
         <v>44067</v>
       </c>
-      <c r="B153" s="46">
+      <c r="B153" s="43">
         <v>1186</v>
       </c>
-      <c r="C153" s="46">
+      <c r="C153" s="43">
         <v>450</v>
       </c>
     </row>
@@ -3572,10 +3581,10 @@
       <c r="A154" s="9">
         <v>44068</v>
       </c>
-      <c r="B154" s="46">
+      <c r="B154" s="43">
         <v>1168</v>
       </c>
-      <c r="C154" s="46">
+      <c r="C154" s="43">
         <v>517</v>
       </c>
     </row>
@@ -3583,10 +3592,10 @@
       <c r="A155" s="9">
         <v>44069</v>
       </c>
-      <c r="B155" s="46">
+      <c r="B155" s="43">
         <v>1168</v>
       </c>
-      <c r="C155" s="46">
+      <c r="C155" s="43">
         <v>466</v>
       </c>
     </row>
@@ -3594,10 +3603,10 @@
       <c r="A156" s="9">
         <v>44070</v>
       </c>
-      <c r="B156" s="46">
+      <c r="B156" s="43">
         <v>1116</v>
       </c>
-      <c r="C156" s="46">
+      <c r="C156" s="43">
         <v>449</v>
       </c>
     </row>
@@ -3605,10 +3614,10 @@
       <c r="A157" s="9">
         <v>44071</v>
       </c>
-      <c r="B157" s="46">
+      <c r="B157" s="43">
         <v>1089</v>
       </c>
-      <c r="C157" s="46">
+      <c r="C157" s="43">
         <v>423</v>
       </c>
     </row>
@@ -3616,10 +3625,10 @@
       <c r="A158" s="9">
         <v>44072</v>
       </c>
-      <c r="B158" s="46">
+      <c r="B158" s="43">
         <v>1043</v>
       </c>
-      <c r="C158" s="46">
+      <c r="C158" s="43">
         <v>415</v>
       </c>
     </row>
@@ -3627,10 +3636,10 @@
       <c r="A159" s="9">
         <v>44073</v>
       </c>
-      <c r="B159" s="46">
+      <c r="B159" s="43">
         <v>1057</v>
       </c>
-      <c r="C159" s="46">
+      <c r="C159" s="43">
         <v>386</v>
       </c>
     </row>
@@ -3638,10 +3647,10 @@
       <c r="A160" s="9">
         <v>44074</v>
       </c>
-      <c r="B160" s="46">
+      <c r="B160" s="43">
         <v>1048</v>
       </c>
-      <c r="C160" s="46">
+      <c r="C160" s="43">
         <v>415</v>
       </c>
     </row>
@@ -3649,10 +3658,10 @@
       <c r="A161" s="9">
         <v>44075</v>
       </c>
-      <c r="B161" s="46">
+      <c r="B161" s="43">
         <v>1062</v>
       </c>
-      <c r="C161" s="46">
+      <c r="C161" s="43">
         <v>426</v>
       </c>
     </row>
@@ -3660,10 +3669,10 @@
       <c r="A162" s="9">
         <v>44076</v>
       </c>
-      <c r="B162" s="46">
+      <c r="B162" s="43">
         <v>992</v>
       </c>
-      <c r="C162" s="46">
+      <c r="C162" s="43">
         <v>386</v>
       </c>
     </row>
@@ -3671,10 +3680,10 @@
       <c r="A163" s="9">
         <v>44077</v>
       </c>
-      <c r="B163" s="46">
+      <c r="B163" s="43">
         <v>984</v>
       </c>
-      <c r="C163" s="46">
+      <c r="C163" s="43">
         <v>362</v>
       </c>
     </row>
@@ -3682,10 +3691,10 @@
       <c r="A164" s="9">
         <v>44078</v>
       </c>
-      <c r="B164" s="46">
+      <c r="B164" s="43">
         <v>966</v>
       </c>
-      <c r="C164" s="46">
+      <c r="C164" s="43">
         <v>355</v>
       </c>
     </row>
@@ -3693,10 +3702,10 @@
       <c r="A165" s="9">
         <v>44079</v>
       </c>
-      <c r="B165" s="46">
+      <c r="B165" s="43">
         <v>943</v>
       </c>
-      <c r="C165" s="46">
+      <c r="C165" s="43">
         <v>361</v>
       </c>
     </row>
@@ -3704,10 +3713,10 @@
       <c r="A166" s="9">
         <v>44080</v>
       </c>
-      <c r="B166" s="46">
+      <c r="B166" s="43">
         <v>942</v>
       </c>
-      <c r="C166" s="46">
+      <c r="C166" s="43">
         <v>372</v>
       </c>
     </row>
@@ -3715,10 +3724,10 @@
       <c r="A167" s="9">
         <v>44081</v>
       </c>
-      <c r="B167" s="46">
+      <c r="B167" s="43">
         <v>936</v>
       </c>
-      <c r="C167" s="46">
+      <c r="C167" s="43">
         <v>414</v>
       </c>
     </row>
@@ -3726,10 +3735,10 @@
       <c r="A168" s="9">
         <v>44082</v>
       </c>
-      <c r="B168" s="46">
+      <c r="B168" s="43">
         <v>940</v>
       </c>
-      <c r="C168" s="46">
+      <c r="C168" s="43">
         <v>415</v>
       </c>
     </row>
@@ -3737,10 +3746,10 @@
       <c r="A169" s="9">
         <v>44083</v>
       </c>
-      <c r="B169" s="46">
+      <c r="B169" s="43">
         <v>889</v>
       </c>
-      <c r="C169" s="46">
+      <c r="C169" s="43">
         <v>365</v>
       </c>
     </row>
@@ -3748,10 +3757,10 @@
       <c r="A170" s="9">
         <v>44084</v>
       </c>
-      <c r="B170" s="46">
+      <c r="B170" s="43">
         <v>877</v>
       </c>
-      <c r="C170" s="46">
+      <c r="C170" s="43">
         <v>342</v>
       </c>
     </row>
@@ -3759,10 +3768,10 @@
       <c r="A171" s="9">
         <v>44085</v>
       </c>
-      <c r="B171" s="46">
+      <c r="B171" s="43">
         <v>813</v>
       </c>
-      <c r="C171" s="46">
+      <c r="C171" s="43">
         <v>345</v>
       </c>
     </row>
@@ -3770,10 +3779,10 @@
       <c r="A172" s="9">
         <v>44086</v>
       </c>
-      <c r="B172" s="46">
+      <c r="B172" s="43">
         <v>775</v>
       </c>
-      <c r="C172" s="46">
+      <c r="C172" s="43">
         <v>375</v>
       </c>
     </row>
@@ -3781,10 +3790,10 @@
       <c r="A173" s="9">
         <v>44087</v>
       </c>
-      <c r="B173" s="46">
+      <c r="B173" s="43">
         <v>772</v>
       </c>
-      <c r="C173" s="46">
+      <c r="C173" s="43">
         <v>330</v>
       </c>
     </row>
@@ -3792,10 +3801,10 @@
       <c r="A174" s="9">
         <v>44088</v>
       </c>
-      <c r="B174" s="46">
+      <c r="B174" s="43">
         <v>804</v>
       </c>
-      <c r="C174" s="46">
+      <c r="C174" s="43">
         <v>343</v>
       </c>
     </row>
@@ -3803,10 +3812,10 @@
       <c r="A175" s="9">
         <v>44089</v>
       </c>
-      <c r="B175" s="46">
+      <c r="B175" s="43">
         <v>780</v>
       </c>
-      <c r="C175" s="46">
+      <c r="C175" s="43">
         <v>348</v>
       </c>
     </row>
@@ -3814,10 +3823,10 @@
       <c r="A176" s="9">
         <v>44090</v>
       </c>
-      <c r="B176" s="46">
+      <c r="B176" s="43">
         <v>739</v>
       </c>
-      <c r="C176" s="46">
+      <c r="C176" s="43">
         <v>379</v>
       </c>
     </row>
@@ -3825,10 +3834,10 @@
       <c r="A177" s="9">
         <v>44091</v>
       </c>
-      <c r="B177" s="46">
+      <c r="B177" s="43">
         <v>732</v>
       </c>
-      <c r="C177" s="46">
+      <c r="C177" s="43">
         <v>340</v>
       </c>
     </row>
@@ -3836,10 +3845,10 @@
       <c r="A178" s="9">
         <v>44092</v>
       </c>
-      <c r="B178" s="46">
+      <c r="B178" s="43">
         <v>765</v>
       </c>
-      <c r="C178" s="46">
+      <c r="C178" s="43">
         <v>363</v>
       </c>
     </row>
@@ -3847,10 +3856,10 @@
       <c r="A179" s="9">
         <v>44093</v>
       </c>
-      <c r="B179" s="46">
+      <c r="B179" s="43">
         <v>749</v>
       </c>
-      <c r="C179" s="46">
+      <c r="C179" s="43">
         <v>328</v>
       </c>
     </row>
@@ -3858,10 +3867,10 @@
       <c r="A180" s="9">
         <v>44094</v>
       </c>
-      <c r="B180" s="46">
+      <c r="B180" s="43">
         <v>745</v>
       </c>
-      <c r="C180" s="46">
+      <c r="C180" s="43">
         <v>368</v>
       </c>
     </row>
@@ -3869,10 +3878,10 @@
       <c r="A181" s="9">
         <v>44095</v>
       </c>
-      <c r="B181" s="46">
+      <c r="B181" s="43">
         <v>779</v>
       </c>
-      <c r="C181" s="46">
+      <c r="C181" s="43">
         <v>365</v>
       </c>
     </row>
@@ -3880,10 +3889,10 @@
       <c r="A182" s="9">
         <v>44096</v>
       </c>
-      <c r="B182" s="46">
+      <c r="B182" s="43">
         <v>753</v>
       </c>
-      <c r="C182" s="46">
+      <c r="C182" s="43">
         <v>392</v>
       </c>
     </row>
@@ -3891,10 +3900,10 @@
       <c r="A183" s="9">
         <v>44097</v>
       </c>
-      <c r="B183" s="46">
+      <c r="B183" s="43">
         <v>760</v>
       </c>
-      <c r="C183" s="46">
+      <c r="C183" s="43">
         <v>378</v>
       </c>
     </row>
@@ -3902,10 +3911,10 @@
       <c r="A184" s="9">
         <v>44098</v>
       </c>
-      <c r="B184" s="46">
+      <c r="B184" s="43">
         <v>715</v>
       </c>
-      <c r="C184" s="46">
+      <c r="C184" s="43">
         <v>319</v>
       </c>
     </row>
@@ -3913,10 +3922,10 @@
       <c r="A185" s="9">
         <v>44099</v>
       </c>
-      <c r="B185" s="46">
+      <c r="B185" s="43">
         <v>692</v>
       </c>
-      <c r="C185" s="46">
+      <c r="C185" s="43">
         <v>336</v>
       </c>
     </row>
@@ -3924,10 +3933,10 @@
       <c r="A186" s="9">
         <v>44100</v>
       </c>
-      <c r="B186" s="46">
+      <c r="B186" s="43">
         <v>687</v>
       </c>
-      <c r="C186" s="46">
+      <c r="C186" s="43">
         <v>371</v>
       </c>
     </row>
@@ -3935,10 +3944,10 @@
       <c r="A187" s="9">
         <v>44101</v>
       </c>
-      <c r="B187" s="46">
+      <c r="B187" s="43">
         <v>714</v>
       </c>
-      <c r="C187" s="46">
+      <c r="C187" s="43">
         <v>356</v>
       </c>
     </row>
@@ -3946,10 +3955,10 @@
       <c r="A188" s="9">
         <v>44102</v>
       </c>
-      <c r="B188" s="46">
+      <c r="B188" s="43">
         <v>734</v>
       </c>
-      <c r="C188" s="46">
+      <c r="C188" s="43">
         <v>291</v>
       </c>
     </row>
@@ -3957,10 +3966,10 @@
       <c r="A189" s="9">
         <v>44103</v>
       </c>
-      <c r="B189" s="46">
+      <c r="B189" s="43">
         <v>746</v>
       </c>
-      <c r="C189" s="46">
+      <c r="C189" s="43">
         <v>340</v>
       </c>
     </row>
@@ -3968,10 +3977,10 @@
       <c r="A190" s="9">
         <v>44104</v>
       </c>
-      <c r="B190" s="46">
+      <c r="B190" s="43">
         <v>730</v>
       </c>
-      <c r="C190" s="46">
+      <c r="C190" s="43">
         <v>371</v>
       </c>
     </row>
@@ -3979,10 +3988,10 @@
       <c r="A191" s="9">
         <v>44105</v>
       </c>
-      <c r="B191" s="46">
+      <c r="B191" s="43">
         <v>698</v>
       </c>
-      <c r="C191" s="46">
+      <c r="C191" s="43">
         <v>371</v>
       </c>
       <c r="J191" s="18">
@@ -3993,10 +4002,10 @@
       <c r="A192" s="9">
         <v>44106</v>
       </c>
-      <c r="B192" s="46">
+      <c r="B192" s="43">
         <v>673</v>
       </c>
-      <c r="C192" s="46">
+      <c r="C192" s="43">
         <v>324</v>
       </c>
       <c r="D192" s="18">
@@ -4016,10 +4025,10 @@
       <c r="A193" s="9">
         <v>44107</v>
       </c>
-      <c r="B193" s="46">
+      <c r="B193" s="43">
         <v>674</v>
       </c>
-      <c r="C193" s="46">
+      <c r="C193" s="43">
         <v>353</v>
       </c>
       <c r="D193" s="18">
@@ -4039,10 +4048,10 @@
       <c r="A194" s="9">
         <v>44108</v>
       </c>
-      <c r="B194" s="46">
+      <c r="B194" s="43">
         <v>685</v>
       </c>
-      <c r="C194" s="46">
+      <c r="C194" s="43">
         <v>373</v>
       </c>
       <c r="D194" s="18">
@@ -4062,10 +4071,10 @@
       <c r="A195" s="9">
         <v>44109</v>
       </c>
-      <c r="B195" s="46">
+      <c r="B195" s="43">
         <v>696</v>
       </c>
-      <c r="C195" s="46">
+      <c r="C195" s="43">
         <v>339</v>
       </c>
       <c r="D195" s="18">
@@ -4085,10 +4094,10 @@
       <c r="A196" s="9">
         <v>44110</v>
       </c>
-      <c r="B196" s="46">
+      <c r="B196" s="43">
         <v>709</v>
       </c>
-      <c r="C196" s="46">
+      <c r="C196" s="43">
         <v>351</v>
       </c>
       <c r="D196" s="18">
@@ -4108,10 +4117,10 @@
       <c r="A197" s="9">
         <v>44111</v>
       </c>
-      <c r="B197" s="46">
+      <c r="B197" s="43">
         <v>724</v>
       </c>
-      <c r="C197" s="46">
+      <c r="C197" s="43">
         <v>353</v>
       </c>
       <c r="D197" s="18">
@@ -4131,10 +4140,10 @@
       <c r="A198" s="9">
         <v>44112</v>
       </c>
-      <c r="B198" s="46">
+      <c r="B198" s="43">
         <v>701</v>
       </c>
-      <c r="C198" s="46">
+      <c r="C198" s="43">
         <v>358</v>
       </c>
       <c r="D198" s="18">
@@ -4154,10 +4163,10 @@
       <c r="A199" s="9">
         <v>44113</v>
       </c>
-      <c r="B199" s="46">
+      <c r="B199" s="43">
         <v>715</v>
       </c>
-      <c r="C199" s="46">
+      <c r="C199" s="43">
         <v>329</v>
       </c>
       <c r="D199" s="18">
@@ -4177,10 +4186,10 @@
       <c r="A200" s="9">
         <v>44114</v>
       </c>
-      <c r="B200" s="46">
+      <c r="B200" s="43">
         <v>693</v>
       </c>
-      <c r="C200" s="46">
+      <c r="C200" s="43">
         <v>360</v>
       </c>
       <c r="D200" s="18">
@@ -4200,10 +4209,10 @@
       <c r="A201" s="9">
         <v>44115</v>
       </c>
-      <c r="B201" s="46">
+      <c r="B201" s="43">
         <v>692</v>
       </c>
-      <c r="C201" s="46">
+      <c r="C201" s="43">
         <v>353</v>
       </c>
       <c r="D201" s="18">
@@ -4223,10 +4232,10 @@
       <c r="A202" s="9">
         <v>44116</v>
       </c>
-      <c r="B202" s="46">
+      <c r="B202" s="43">
         <v>720</v>
       </c>
-      <c r="C202" s="46">
+      <c r="C202" s="43">
         <v>356</v>
       </c>
       <c r="D202" s="18">
@@ -4246,10 +4255,10 @@
       <c r="A203" s="9">
         <v>44117</v>
       </c>
-      <c r="B203" s="46">
+      <c r="B203" s="43">
         <v>723</v>
       </c>
-      <c r="C203" s="46">
+      <c r="C203" s="43">
         <v>382</v>
       </c>
       <c r="D203" s="18">
@@ -4269,10 +4278,10 @@
       <c r="A204" s="9">
         <v>44118</v>
       </c>
-      <c r="B204" s="46">
+      <c r="B204" s="43">
         <v>735</v>
       </c>
-      <c r="C204" s="46">
+      <c r="C204" s="43">
         <v>372</v>
       </c>
       <c r="D204" s="18">
@@ -4292,10 +4301,10 @@
       <c r="A205" s="9">
         <v>44119</v>
       </c>
-      <c r="B205" s="46">
+      <c r="B205" s="43">
         <v>746</v>
       </c>
-      <c r="C205" s="46">
+      <c r="C205" s="43">
         <v>340</v>
       </c>
       <c r="D205" s="18">
@@ -4315,10 +4324,10 @@
       <c r="A206" s="9">
         <v>44120</v>
       </c>
-      <c r="B206" s="46">
+      <c r="B206" s="43">
         <v>752</v>
       </c>
-      <c r="C206" s="46">
+      <c r="C206" s="43">
         <v>324</v>
       </c>
       <c r="D206" s="18">
@@ -4338,10 +4347,10 @@
       <c r="A207" s="9">
         <v>44121</v>
       </c>
-      <c r="B207" s="46">
+      <c r="B207" s="43">
         <v>722</v>
       </c>
-      <c r="C207" s="46">
+      <c r="C207" s="43">
         <v>297</v>
       </c>
       <c r="D207" s="18">
@@ -4361,10 +4370,10 @@
       <c r="A208" s="9">
         <v>44122</v>
       </c>
-      <c r="B208" s="46">
+      <c r="B208" s="43">
         <v>730</v>
       </c>
-      <c r="C208" s="46">
+      <c r="C208" s="43">
         <v>312</v>
       </c>
       <c r="D208" s="18">
@@ -4384,10 +4393,10 @@
       <c r="A209" s="9">
         <v>44123</v>
       </c>
-      <c r="B209" s="46">
+      <c r="B209" s="43">
         <v>758</v>
       </c>
-      <c r="C209" s="46">
+      <c r="C209" s="43">
         <v>364</v>
       </c>
       <c r="D209" s="18">
@@ -4407,10 +4416,10 @@
       <c r="A210" s="9">
         <v>44124</v>
       </c>
-      <c r="B210" s="46">
+      <c r="B210" s="43">
         <v>777</v>
       </c>
-      <c r="C210" s="46">
+      <c r="C210" s="43">
         <v>322</v>
       </c>
       <c r="D210" s="18">
@@ -4430,10 +4439,10 @@
       <c r="A211" s="9">
         <v>44125</v>
       </c>
-      <c r="B211" s="46">
+      <c r="B211" s="43">
         <v>769</v>
       </c>
-      <c r="C211" s="46">
+      <c r="C211" s="43">
         <v>290</v>
       </c>
       <c r="D211" s="18">
@@ -4453,10 +4462,10 @@
       <c r="A212" s="9">
         <v>44126</v>
       </c>
-      <c r="B212" s="46">
+      <c r="B212" s="43">
         <v>770</v>
       </c>
-      <c r="C212" s="46">
+      <c r="C212" s="43">
         <v>262</v>
       </c>
       <c r="D212" s="18">
@@ -4476,10 +4485,10 @@
       <c r="A213" s="9">
         <v>44127</v>
       </c>
-      <c r="B213" s="46">
+      <c r="B213" s="43">
         <v>785</v>
       </c>
-      <c r="C213" s="46">
+      <c r="C213" s="43">
         <v>254</v>
       </c>
       <c r="D213" s="18">
@@ -4499,10 +4508,10 @@
       <c r="A214" s="9">
         <v>44128</v>
       </c>
-      <c r="B214" s="46">
+      <c r="B214" s="43">
         <v>767</v>
       </c>
-      <c r="C214" s="46">
+      <c r="C214" s="43">
         <v>294</v>
       </c>
       <c r="D214" s="18">
@@ -4522,10 +4531,10 @@
       <c r="A215" s="9">
         <v>44129</v>
       </c>
-      <c r="B215" s="46">
+      <c r="B215" s="43">
         <v>747</v>
       </c>
-      <c r="C215" s="46">
+      <c r="C215" s="43">
         <v>291</v>
       </c>
       <c r="D215" s="18">
@@ -4545,10 +4554,10 @@
       <c r="A216" s="9">
         <v>44130</v>
       </c>
-      <c r="B216" s="46">
+      <c r="B216" s="43">
         <v>755</v>
       </c>
-      <c r="C216" s="46">
+      <c r="C216" s="43">
         <v>276</v>
       </c>
       <c r="D216" s="18">
@@ -4568,10 +4577,10 @@
       <c r="A217" s="9">
         <v>44131</v>
       </c>
-      <c r="B217" s="46">
+      <c r="B217" s="43">
         <v>750</v>
       </c>
-      <c r="C217" s="46">
+      <c r="C217" s="43">
         <v>267</v>
       </c>
       <c r="D217" s="18">
@@ -4591,10 +4600,10 @@
       <c r="A218" s="9">
         <v>44132</v>
       </c>
-      <c r="B218" s="46">
+      <c r="B218" s="43">
         <v>743</v>
       </c>
-      <c r="C218" s="46">
+      <c r="C218" s="43">
         <v>290</v>
       </c>
       <c r="D218" s="18">
@@ -4609,7 +4618,7 @@
       <c r="J218" s="18">
         <v>1325.42857142857</v>
       </c>
-      <c r="L218" s="47">
+      <c r="L218" s="44">
         <v>0.13</v>
       </c>
     </row>
@@ -4617,10 +4626,10 @@
       <c r="A219" s="9">
         <v>44133</v>
       </c>
-      <c r="B219" s="46">
+      <c r="B219" s="43">
         <v>783</v>
       </c>
-      <c r="C219" s="46">
+      <c r="C219" s="43">
         <v>281</v>
       </c>
       <c r="D219" s="18">
@@ -4640,10 +4649,10 @@
       <c r="A220" s="9">
         <v>44134</v>
       </c>
-      <c r="B220" s="46">
+      <c r="B220" s="43">
         <v>799</v>
       </c>
-      <c r="C220" s="46">
+      <c r="C220" s="43">
         <v>295</v>
       </c>
       <c r="D220" s="18">
@@ -4663,10 +4672,10 @@
       <c r="A221" s="9">
         <v>44135</v>
       </c>
-      <c r="B221" s="46">
+      <c r="B221" s="43">
         <v>777</v>
       </c>
-      <c r="C221" s="46">
+      <c r="C221" s="43">
         <v>302</v>
       </c>
       <c r="D221" s="18">
@@ -4686,10 +4695,10 @@
       <c r="A222" s="9">
         <v>44136</v>
       </c>
-      <c r="B222" s="46">
+      <c r="B222" s="43">
         <v>798</v>
       </c>
-      <c r="C222" s="46">
+      <c r="C222" s="43">
         <v>258</v>
       </c>
       <c r="D222" s="18">
@@ -4709,10 +4718,10 @@
       <c r="A223" s="9">
         <v>44137</v>
       </c>
-      <c r="B223" s="46">
+      <c r="B223" s="43">
         <v>817</v>
       </c>
-      <c r="C223" s="46">
+      <c r="C223" s="43">
         <v>229</v>
       </c>
       <c r="D223" s="18">
@@ -4732,10 +4741,10 @@
       <c r="A224" s="9">
         <v>44138</v>
       </c>
-      <c r="B224" s="46">
+      <c r="B224" s="43">
         <v>825</v>
       </c>
-      <c r="C224" s="46">
+      <c r="C224" s="43">
         <v>303</v>
       </c>
       <c r="D224" s="18">
@@ -4755,10 +4764,10 @@
       <c r="A225" s="9">
         <v>44139</v>
       </c>
-      <c r="B225" s="46">
+      <c r="B225" s="43">
         <v>821</v>
       </c>
-      <c r="C225" s="46">
+      <c r="C225" s="43">
         <v>322</v>
       </c>
       <c r="D225" s="18">
@@ -4773,7 +4782,7 @@
       <c r="J225" s="18">
         <v>1700.57142857143</v>
       </c>
-      <c r="L225" s="47">
+      <c r="L225" s="44">
         <v>0.12</v>
       </c>
     </row>
@@ -4781,10 +4790,10 @@
       <c r="A226" s="9">
         <v>44140</v>
       </c>
-      <c r="B226" s="46">
+      <c r="B226" s="43">
         <v>840</v>
       </c>
-      <c r="C226" s="46">
+      <c r="C226" s="43">
         <v>292</v>
       </c>
       <c r="D226" s="18">
@@ -4804,10 +4813,10 @@
       <c r="A227" s="9">
         <v>44141</v>
       </c>
-      <c r="B227" s="46">
+      <c r="B227" s="43">
         <v>851</v>
       </c>
-      <c r="C227" s="46">
+      <c r="C227" s="43">
         <v>255</v>
       </c>
       <c r="D227" s="18">
@@ -4827,10 +4836,10 @@
       <c r="A228" s="9">
         <v>44142</v>
       </c>
-      <c r="B228" s="46">
+      <c r="B228" s="43">
         <v>855</v>
       </c>
-      <c r="C228" s="46">
+      <c r="C228" s="43">
         <v>278</v>
       </c>
       <c r="D228" s="18">
@@ -4850,10 +4859,10 @@
       <c r="A229" s="9">
         <v>44143</v>
       </c>
-      <c r="B229" s="46">
+      <c r="B229" s="43">
         <v>888</v>
       </c>
-      <c r="C229" s="46">
+      <c r="C229" s="43">
         <v>264</v>
       </c>
       <c r="D229" s="18">
@@ -4873,10 +4882,10 @@
       <c r="A230" s="9">
         <v>44144</v>
       </c>
-      <c r="B230" s="46">
+      <c r="B230" s="43">
         <v>903</v>
       </c>
-      <c r="C230" s="46">
+      <c r="C230" s="43">
         <v>306</v>
       </c>
       <c r="D230" s="18">
@@ -4888,10 +4897,10 @@
       <c r="F230" s="18">
         <v>7938</v>
       </c>
-      <c r="H230" s="46">
+      <c r="H230" s="43">
         <v>118.71428571428601</v>
       </c>
-      <c r="I230" s="46">
+      <c r="I230" s="43">
         <v>162.57142857142901</v>
       </c>
       <c r="J230" s="18">
@@ -4902,10 +4911,10 @@
       <c r="A231" s="9">
         <v>44145</v>
       </c>
-      <c r="B231" s="46">
+      <c r="B231" s="43">
         <v>953</v>
       </c>
-      <c r="C231" s="46">
+      <c r="C231" s="43">
         <v>317</v>
       </c>
       <c r="D231" s="18">
@@ -4925,10 +4934,10 @@
       <c r="A232" s="9">
         <v>44146</v>
       </c>
-      <c r="B232" s="46">
+      <c r="B232" s="43">
         <v>942</v>
       </c>
-      <c r="C232" s="46">
+      <c r="C232" s="43">
         <v>323</v>
       </c>
       <c r="D232" s="18">
@@ -4943,7 +4952,7 @@
       <c r="J232" s="18">
         <v>2733.4285714285702</v>
       </c>
-      <c r="L232" s="47">
+      <c r="L232" s="44">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -4951,10 +4960,10 @@
       <c r="A233" s="9">
         <v>44147</v>
       </c>
-      <c r="B233" s="46">
+      <c r="B233" s="43">
         <v>966</v>
       </c>
-      <c r="C233" s="46">
+      <c r="C233" s="43">
         <v>314</v>
       </c>
       <c r="D233" s="18">
@@ -4974,10 +4983,10 @@
       <c r="A234" s="9">
         <v>44148</v>
       </c>
-      <c r="B234" s="46">
+      <c r="B234" s="43">
         <v>1014</v>
       </c>
-      <c r="C234" s="46">
+      <c r="C234" s="43">
         <v>282</v>
       </c>
       <c r="D234" s="18">
@@ -4997,10 +5006,10 @@
       <c r="A235" s="9">
         <v>44149</v>
       </c>
-      <c r="B235" s="46">
+      <c r="B235" s="43">
         <v>1049</v>
       </c>
-      <c r="C235" s="46">
+      <c r="C235" s="43">
         <v>346</v>
       </c>
       <c r="D235" s="18">
@@ -5020,10 +5029,10 @@
       <c r="A236" s="9">
         <v>44150</v>
       </c>
-      <c r="B236" s="46">
+      <c r="B236" s="43">
         <v>1126</v>
       </c>
-      <c r="C236" s="46">
+      <c r="C236" s="43">
         <v>277</v>
       </c>
       <c r="D236" s="18">
@@ -5043,10 +5052,10 @@
       <c r="A237" s="9">
         <v>44151</v>
       </c>
-      <c r="B237" s="46">
+      <c r="B237" s="43">
         <v>1188</v>
       </c>
-      <c r="C237" s="46">
+      <c r="C237" s="43">
         <v>286</v>
       </c>
       <c r="D237" s="18">
@@ -5058,10 +5067,10 @@
       <c r="F237" s="18">
         <v>8289</v>
       </c>
-      <c r="H237" s="46">
+      <c r="H237" s="43">
         <v>166</v>
       </c>
-      <c r="I237" s="46">
+      <c r="I237" s="43">
         <v>171</v>
       </c>
       <c r="J237" s="18">
@@ -5072,10 +5081,10 @@
       <c r="A238" s="9">
         <v>44152</v>
       </c>
-      <c r="B238" s="46">
+      <c r="B238" s="43">
         <v>1238</v>
       </c>
-      <c r="C238" s="46">
+      <c r="C238" s="43">
         <v>304</v>
       </c>
       <c r="D238" s="18">
@@ -5095,10 +5104,10 @@
       <c r="A239" s="9">
         <v>44153</v>
       </c>
-      <c r="B239" s="46">
+      <c r="B239" s="43">
         <v>1298</v>
       </c>
-      <c r="C239" s="46">
+      <c r="C239" s="43">
         <v>330</v>
       </c>
       <c r="D239" s="18">
@@ -5113,7 +5122,7 @@
       <c r="J239" s="18">
         <v>3942.5714285714298</v>
       </c>
-      <c r="L239" s="47">
+      <c r="L239" s="44">
         <v>0.17</v>
       </c>
     </row>
@@ -5121,10 +5130,10 @@
       <c r="A240" s="9">
         <v>44154</v>
       </c>
-      <c r="B240" s="46">
+      <c r="B240" s="43">
         <v>1391</v>
       </c>
-      <c r="C240" s="46">
+      <c r="C240" s="43">
         <v>304</v>
       </c>
       <c r="D240" s="18">
@@ -5144,10 +5153,10 @@
       <c r="A241" s="9">
         <v>44155</v>
       </c>
-      <c r="B241" s="46">
+      <c r="B241" s="43">
         <v>1401</v>
       </c>
-      <c r="C241" s="46">
+      <c r="C241" s="43">
         <v>317</v>
       </c>
       <c r="D241" s="18">
@@ -5167,10 +5176,10 @@
       <c r="A242" s="9">
         <v>44156</v>
       </c>
-      <c r="B242" s="46">
+      <c r="B242" s="43">
         <v>1482</v>
       </c>
-      <c r="C242" s="46">
+      <c r="C242" s="43">
         <v>346</v>
       </c>
       <c r="D242" s="18">
@@ -5190,10 +5199,10 @@
       <c r="A243" s="9">
         <v>44157</v>
       </c>
-      <c r="B243" s="46">
+      <c r="B243" s="43">
         <v>1575</v>
       </c>
-      <c r="C243" s="46">
+      <c r="C243" s="43">
         <v>344</v>
       </c>
       <c r="D243" s="18">
@@ -5213,10 +5222,10 @@
       <c r="A244" s="9">
         <v>44158</v>
       </c>
-      <c r="B244" s="46">
+      <c r="B244" s="43">
         <v>1682</v>
       </c>
-      <c r="C244" s="46">
+      <c r="C244" s="43">
         <v>296</v>
       </c>
       <c r="D244" s="18">
@@ -5228,10 +5237,10 @@
       <c r="F244" s="18">
         <v>8791</v>
       </c>
-      <c r="H244" s="46">
+      <c r="H244" s="43">
         <v>247.42857142857099</v>
       </c>
-      <c r="I244" s="46">
+      <c r="I244" s="43">
         <v>168.857142857143</v>
       </c>
       <c r="J244" s="18">
@@ -5242,10 +5251,10 @@
       <c r="A245" s="9">
         <v>44159</v>
       </c>
-      <c r="B245" s="46">
+      <c r="B245" s="43">
         <v>1809</v>
       </c>
-      <c r="C245" s="46">
+      <c r="C245" s="43">
         <v>388</v>
       </c>
       <c r="D245" s="18">
@@ -5265,10 +5274,10 @@
       <c r="A246" s="9">
         <v>44160</v>
       </c>
-      <c r="B246" s="46">
+      <c r="B246" s="43">
         <v>1893</v>
       </c>
-      <c r="C246" s="46">
+      <c r="C246" s="43">
         <v>301</v>
       </c>
       <c r="D246" s="18">
@@ -5283,7 +5292,7 @@
       <c r="J246" s="18">
         <v>5011.1428571428596</v>
       </c>
-      <c r="L246" s="47">
+      <c r="L246" s="44">
         <v>0.2</v>
       </c>
     </row>
@@ -5291,10 +5300,10 @@
       <c r="A247" s="9">
         <v>44161</v>
       </c>
-      <c r="B247" s="46">
+      <c r="B247" s="43">
         <v>1951</v>
       </c>
-      <c r="C247" s="46">
+      <c r="C247" s="43">
         <v>301</v>
       </c>
       <c r="D247" s="18">
@@ -5311,10 +5320,10 @@
       <c r="A248" s="9">
         <v>44162</v>
       </c>
-      <c r="B248" s="46">
+      <c r="B248" s="43">
         <v>2049</v>
       </c>
-      <c r="C248" s="46">
+      <c r="C248" s="43">
         <v>299</v>
       </c>
       <c r="D248" s="18">
@@ -5331,10 +5340,10 @@
       <c r="A249" s="9">
         <v>44163</v>
       </c>
-      <c r="B249" s="46">
+      <c r="B249" s="43">
         <v>2185</v>
       </c>
-      <c r="C249" s="46">
+      <c r="C249" s="43">
         <v>328</v>
       </c>
       <c r="D249" s="18">
@@ -5354,10 +5363,10 @@
       <c r="A250" s="9">
         <v>44164</v>
       </c>
-      <c r="B250" s="46">
+      <c r="B250" s="43">
         <v>2316</v>
       </c>
-      <c r="C250" s="46">
+      <c r="C250" s="43">
         <v>335</v>
       </c>
       <c r="D250" s="18">
@@ -5377,10 +5386,10 @@
       <c r="A251" s="9">
         <v>44165</v>
       </c>
-      <c r="B251" s="46">
+      <c r="B251" s="43">
         <v>2439</v>
       </c>
-      <c r="C251" s="46">
+      <c r="C251" s="43">
         <v>304</v>
       </c>
       <c r="D251" s="18">
@@ -5392,10 +5401,10 @@
       <c r="F251" s="18">
         <v>9486</v>
       </c>
-      <c r="H251" s="46">
+      <c r="H251" s="43">
         <v>323.142857142857</v>
       </c>
-      <c r="I251" s="46">
+      <c r="I251" s="43">
         <v>165.57142857142901</v>
       </c>
       <c r="J251" s="18">
@@ -5406,10 +5415,10 @@
       <c r="A252" s="9">
         <v>44166</v>
       </c>
-      <c r="B252" s="46">
+      <c r="B252" s="43">
         <v>2572</v>
       </c>
-      <c r="C252" s="46">
+      <c r="C252" s="43">
         <v>310</v>
       </c>
       <c r="D252" s="18">
@@ -5429,10 +5438,10 @@
       <c r="A253" s="9">
         <v>44167</v>
       </c>
-      <c r="B253" s="46">
+      <c r="B253" s="43">
         <v>2668</v>
       </c>
-      <c r="C253" s="46">
+      <c r="C253" s="43">
         <v>336</v>
       </c>
       <c r="D253" s="18">
@@ -5447,7 +5456,7 @@
       <c r="J253" s="18">
         <v>8528.7999999999993</v>
       </c>
-      <c r="L253" s="47">
+      <c r="L253" s="44">
         <v>0.21</v>
       </c>
     </row>
@@ -5455,10 +5464,10 @@
       <c r="A254" s="9">
         <v>44168</v>
       </c>
-      <c r="B254" s="46">
+      <c r="B254" s="43">
         <v>2769</v>
       </c>
-      <c r="C254" s="46">
+      <c r="C254" s="43">
         <v>328</v>
       </c>
       <c r="D254" s="18">
@@ -5478,10 +5487,10 @@
       <c r="A255" s="9">
         <v>44169</v>
       </c>
-      <c r="B255" s="46">
+      <c r="B255" s="43">
         <v>2878</v>
       </c>
-      <c r="C255" s="46">
+      <c r="C255" s="43">
         <v>319</v>
       </c>
       <c r="D255" s="18">
@@ -5501,10 +5510,10 @@
       <c r="A256" s="9">
         <v>44170</v>
       </c>
-      <c r="B256" s="46">
+      <c r="B256" s="43">
         <v>2988</v>
       </c>
-      <c r="C256" s="46">
+      <c r="C256" s="43">
         <v>340</v>
       </c>
       <c r="D256" s="18">
@@ -5524,10 +5533,10 @@
       <c r="A257" s="9">
         <v>44171</v>
       </c>
-      <c r="B257" s="46">
+      <c r="B257" s="43">
         <v>3113</v>
       </c>
-      <c r="C257" s="46">
+      <c r="C257" s="43">
         <v>377</v>
       </c>
       <c r="D257" s="18">
@@ -5547,10 +5556,10 @@
       <c r="A258" s="9">
         <v>44172</v>
       </c>
-      <c r="B258" s="46">
+      <c r="B258" s="43">
         <v>3299</v>
       </c>
-      <c r="C258" s="46">
+      <c r="C258" s="43">
         <v>354</v>
       </c>
       <c r="D258" s="18">
@@ -5562,10 +5571,10 @@
       <c r="F258" s="18">
         <v>10487</v>
       </c>
-      <c r="H258" s="46">
+      <c r="H258" s="43">
         <v>459.57142857142901</v>
       </c>
-      <c r="I258" s="46">
+      <c r="I258" s="43">
         <v>179.57142857142901</v>
       </c>
       <c r="J258" s="18">
@@ -5576,10 +5585,10 @@
       <c r="A259" s="9">
         <v>44173</v>
       </c>
-      <c r="B259" s="46">
+      <c r="B259" s="43">
         <v>3433</v>
       </c>
-      <c r="C259" s="46">
+      <c r="C259" s="43">
         <v>337</v>
       </c>
       <c r="D259" s="18">
@@ -5599,10 +5608,10 @@
       <c r="A260" s="9">
         <v>44174</v>
       </c>
-      <c r="B260" s="46">
+      <c r="B260" s="43">
         <v>3624</v>
       </c>
-      <c r="C260" s="46">
+      <c r="C260" s="43">
         <v>370</v>
       </c>
       <c r="D260" s="18">
@@ -5617,7 +5626,7 @@
       <c r="J260" s="18">
         <v>10540.857142857099</v>
       </c>
-      <c r="L260" s="47">
+      <c r="L260" s="44">
         <v>0.24</v>
       </c>
     </row>
@@ -5625,10 +5634,10 @@
       <c r="A261" s="9">
         <v>44175</v>
       </c>
-      <c r="B261" s="46">
+      <c r="B261" s="43">
         <v>3850</v>
       </c>
-      <c r="C261" s="46">
+      <c r="C261" s="43">
         <v>323</v>
       </c>
       <c r="D261" s="18">
@@ -5648,10 +5657,10 @@
       <c r="A262" s="9">
         <v>44176</v>
       </c>
-      <c r="B262" s="46">
+      <c r="B262" s="43">
         <v>4009</v>
       </c>
-      <c r="C262" s="46">
+      <c r="C262" s="43">
         <v>353</v>
       </c>
       <c r="D262" s="18">
@@ -5671,10 +5680,10 @@
       <c r="A263" s="9">
         <v>44177</v>
       </c>
-      <c r="B263" s="46">
+      <c r="B263" s="43">
         <v>4203</v>
       </c>
-      <c r="C263" s="46">
+      <c r="C263" s="43">
         <v>365</v>
       </c>
       <c r="D263" s="18">
@@ -5694,10 +5703,10 @@
       <c r="A264" s="9">
         <v>44178</v>
       </c>
-      <c r="B264" s="46">
+      <c r="B264" s="43">
         <v>4403</v>
       </c>
-      <c r="C264" s="46">
+      <c r="C264" s="43">
         <v>372</v>
       </c>
       <c r="D264" s="18">
@@ -5717,10 +5726,10 @@
       <c r="A265" s="9">
         <v>44179</v>
       </c>
-      <c r="B265" s="46">
+      <c r="B265" s="43">
         <v>4656</v>
       </c>
-      <c r="C265" s="46">
+      <c r="C265" s="43">
         <v>314</v>
       </c>
       <c r="D265" s="18">
@@ -5732,10 +5741,10 @@
       <c r="F265" s="18">
         <v>12076</v>
       </c>
-      <c r="H265" s="46">
+      <c r="H265" s="43">
         <v>649.57142857142901</v>
       </c>
-      <c r="I265" s="46">
+      <c r="I265" s="43">
         <v>175.142857142857</v>
       </c>
       <c r="J265" s="18">
@@ -5746,10 +5755,10 @@
       <c r="A266" s="9">
         <v>44180</v>
       </c>
-      <c r="B266" s="46">
+      <c r="B266" s="43">
         <v>4864</v>
       </c>
-      <c r="C266" s="46">
+      <c r="C266" s="43">
         <v>344</v>
       </c>
       <c r="D266" s="18">
@@ -5769,10 +5778,10 @@
       <c r="A267" s="9">
         <v>44181</v>
       </c>
-      <c r="B267" s="46">
+      <c r="B267" s="43">
         <v>5100</v>
       </c>
-      <c r="C267" s="46">
+      <c r="C267" s="43">
         <v>366</v>
       </c>
       <c r="D267" s="18">
@@ -5787,7 +5796,7 @@
       <c r="J267" s="18">
         <v>13806.285714285699</v>
       </c>
-      <c r="L267" s="47">
+      <c r="L267" s="44">
         <v>0.26</v>
       </c>
     </row>
@@ -5795,10 +5804,10 @@
       <c r="A268" s="9">
         <v>44182</v>
       </c>
-      <c r="B268" s="46">
+      <c r="B268" s="43">
         <v>5424</v>
       </c>
-      <c r="C268" s="46">
+      <c r="C268" s="43">
         <v>339</v>
       </c>
       <c r="D268" s="18">
@@ -5818,10 +5827,10 @@
       <c r="A269" s="9">
         <v>44183</v>
       </c>
-      <c r="B269" s="46">
+      <c r="B269" s="43">
         <v>5549</v>
       </c>
-      <c r="C269" s="46">
+      <c r="C269" s="43">
         <v>323</v>
       </c>
       <c r="D269" s="18">
@@ -5841,10 +5850,10 @@
       <c r="A270" s="9">
         <v>44184</v>
       </c>
-      <c r="B270" s="46">
+      <c r="B270" s="43">
         <v>5709</v>
       </c>
-      <c r="C270" s="46">
+      <c r="C270" s="43">
         <v>309</v>
       </c>
       <c r="D270" s="18">
@@ -5864,10 +5873,10 @@
       <c r="A271" s="9">
         <v>44185</v>
       </c>
-      <c r="B271" s="46">
+      <c r="B271" s="43">
         <v>5866</v>
       </c>
-      <c r="C271" s="46">
+      <c r="C271" s="43">
         <v>358</v>
       </c>
       <c r="D271" s="18">
@@ -5887,10 +5896,10 @@
       <c r="A272" s="9">
         <v>44186</v>
       </c>
-      <c r="B272" s="46">
+      <c r="B272" s="43">
         <v>6155</v>
       </c>
-      <c r="C272" s="46">
+      <c r="C272" s="43">
         <v>305</v>
       </c>
       <c r="D272" s="18">
@@ -5902,10 +5911,10 @@
       <c r="F272" s="18">
         <v>14090</v>
       </c>
-      <c r="H272" s="46">
+      <c r="H272" s="43">
         <v>788.71428571428601</v>
       </c>
-      <c r="I272" s="46">
+      <c r="I272" s="43">
         <v>172.857142857143</v>
       </c>
       <c r="J272" s="18">
@@ -5916,10 +5925,10 @@
       <c r="A273" s="9">
         <v>44187</v>
       </c>
-      <c r="B273" s="46">
+      <c r="B273" s="43">
         <v>6499</v>
       </c>
-      <c r="C273" s="46">
+      <c r="C273" s="43">
         <v>321</v>
       </c>
       <c r="D273" s="18">
@@ -5939,10 +5948,10 @@
       <c r="A274" s="9">
         <v>44188</v>
       </c>
-      <c r="B274" s="46">
+      <c r="B274" s="43">
         <v>6708</v>
       </c>
-      <c r="C274" s="46">
+      <c r="C274" s="43">
         <v>292</v>
       </c>
       <c r="D274" s="18">
@@ -5957,7 +5966,7 @@
       <c r="J274" s="18">
         <v>14985</v>
       </c>
-      <c r="L274" s="47">
+      <c r="L274" s="44">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -5965,10 +5974,10 @@
       <c r="A275" s="9">
         <v>44189</v>
       </c>
-      <c r="B275" s="46">
+      <c r="B275" s="43">
         <v>6770</v>
       </c>
-      <c r="C275" s="46">
+      <c r="C275" s="43">
         <v>286</v>
       </c>
       <c r="D275" s="18">
@@ -5988,10 +5997,10 @@
       <c r="A276" s="9">
         <v>44190</v>
       </c>
-      <c r="B276" s="46">
+      <c r="B276" s="43">
         <v>6815</v>
       </c>
-      <c r="C276" s="46">
+      <c r="C276" s="43">
         <v>309</v>
       </c>
       <c r="D276" s="18">
@@ -6003,7 +6012,7 @@
       <c r="F276" s="18">
         <v>15168</v>
       </c>
-      <c r="L276" s="47">
+      <c r="L276" s="44">
         <v>0.35</v>
       </c>
     </row>
@@ -6011,10 +6020,10 @@
       <c r="A277" s="9">
         <v>44191</v>
       </c>
-      <c r="B277" s="46">
+      <c r="B277" s="43">
         <v>6914</v>
       </c>
-      <c r="C277" s="46">
+      <c r="C277" s="43">
         <v>303</v>
       </c>
       <c r="D277" s="18">
@@ -6034,10 +6043,10 @@
       <c r="A278" s="9">
         <v>44192</v>
       </c>
-      <c r="B278" s="46">
+      <c r="B278" s="43">
         <v>7181</v>
       </c>
-      <c r="C278" s="46">
+      <c r="C278" s="43">
         <v>332</v>
       </c>
       <c r="D278" s="18">
@@ -6057,10 +6066,10 @@
       <c r="A279" s="9">
         <v>44193</v>
       </c>
-      <c r="B279" s="46">
+      <c r="B279" s="43">
         <v>7415</v>
       </c>
-      <c r="C279" s="46">
+      <c r="C279" s="43">
         <v>297</v>
       </c>
       <c r="D279" s="18">
@@ -6072,10 +6081,10 @@
       <c r="F279" s="18">
         <v>16047</v>
       </c>
-      <c r="H279" s="46">
+      <c r="H279" s="43">
         <v>774.28571428571399</v>
       </c>
-      <c r="I279" s="46">
+      <c r="I279" s="43">
         <v>156.142857142857</v>
       </c>
       <c r="J279" s="18">
@@ -6086,10 +6095,10 @@
       <c r="A280" s="9">
         <v>44194</v>
       </c>
-      <c r="B280" s="46">
+      <c r="B280" s="43">
         <v>7546</v>
       </c>
-      <c r="C280" s="46">
+      <c r="C280" s="43">
         <v>279</v>
       </c>
       <c r="D280" s="18">
@@ -6109,10 +6118,10 @@
       <c r="A281" s="9">
         <v>44195</v>
       </c>
-      <c r="B281" s="46">
+      <c r="B281" s="43">
         <v>7628</v>
       </c>
-      <c r="C281" s="46">
+      <c r="C281" s="43">
         <v>300</v>
       </c>
       <c r="D281" s="18">
@@ -6132,10 +6141,10 @@
       <c r="A282" s="9">
         <v>44196</v>
       </c>
-      <c r="B282" s="46">
+      <c r="B282" s="43">
         <v>7627</v>
       </c>
-      <c r="C282" s="46">
+      <c r="C282" s="43">
         <v>270</v>
       </c>
       <c r="D282" s="18">
@@ -6155,10 +6164,10 @@
       <c r="A283" s="9">
         <v>44197</v>
       </c>
-      <c r="B283" s="46">
+      <c r="B283" s="43">
         <v>7544</v>
       </c>
-      <c r="C283" s="46">
+      <c r="C283" s="43">
         <v>280</v>
       </c>
       <c r="D283" s="18">
@@ -6170,7 +6179,7 @@
       <c r="F283" s="18">
         <v>17181</v>
       </c>
-      <c r="L283" s="47">
+      <c r="L283" s="44">
         <v>0.36</v>
       </c>
     </row>
@@ -6178,10 +6187,10 @@
       <c r="A284" s="9">
         <v>44198</v>
       </c>
-      <c r="B284" s="46">
+      <c r="B284" s="43">
         <v>7697</v>
       </c>
-      <c r="C284" s="46">
+      <c r="C284" s="43">
         <v>274</v>
       </c>
       <c r="D284" s="18">
@@ -6201,10 +6210,10 @@
       <c r="A285" s="9">
         <v>44199</v>
       </c>
-      <c r="B285" s="46">
+      <c r="B285" s="43">
         <v>7898</v>
       </c>
-      <c r="C285" s="46">
+      <c r="C285" s="43">
         <v>305</v>
       </c>
       <c r="D285" s="18">
@@ -6224,10 +6233,10 @@
       <c r="A286" s="9">
         <v>44200</v>
       </c>
-      <c r="B286" s="46">
+      <c r="B286" s="43">
         <v>8023</v>
       </c>
-      <c r="C286" s="46">
+      <c r="C286" s="43">
         <v>295</v>
       </c>
       <c r="D286" s="18">
@@ -6239,10 +6248,10 @@
       <c r="F286" s="18">
         <v>18059</v>
       </c>
-      <c r="H286" s="46">
+      <c r="H286" s="43">
         <v>821.71428571428601</v>
       </c>
-      <c r="I286" s="46">
+      <c r="I286" s="43">
         <v>170.857142857143</v>
       </c>
       <c r="J286" s="18">
@@ -6253,10 +6262,10 @@
       <c r="A287" s="9">
         <v>44201</v>
       </c>
-      <c r="B287" s="46">
+      <c r="B287" s="43">
         <v>8098</v>
       </c>
-      <c r="C287" s="46">
+      <c r="C287" s="43">
         <v>324</v>
       </c>
       <c r="D287" s="18">
@@ -6276,10 +6285,10 @@
       <c r="A288" s="9">
         <v>44202</v>
       </c>
-      <c r="B288" s="46">
+      <c r="B288" s="43">
         <v>8074</v>
       </c>
-      <c r="C288" s="46">
+      <c r="C288" s="43">
         <v>311</v>
       </c>
       <c r="D288" s="18">
@@ -6299,10 +6308,10 @@
       <c r="A289" s="9">
         <v>44203</v>
       </c>
-      <c r="B289" s="46">
+      <c r="B289" s="43">
         <v>7966</v>
       </c>
-      <c r="C289" s="46">
+      <c r="C289" s="43">
         <v>327</v>
       </c>
       <c r="D289" s="18">
@@ -6322,10 +6331,10 @@
       <c r="A290" s="9">
         <v>44204</v>
       </c>
-      <c r="B290" s="46">
+      <c r="B290" s="43">
         <v>7964</v>
       </c>
-      <c r="C290" s="46">
+      <c r="C290" s="43">
         <v>289</v>
       </c>
       <c r="D290" s="18">
@@ -6340,7 +6349,7 @@
       <c r="J290" s="18">
         <v>16183.285714285699</v>
       </c>
-      <c r="L290" s="47">
+      <c r="L290" s="44">
         <v>0.37</v>
       </c>
     </row>
@@ -6348,10 +6357,10 @@
       <c r="A291" s="9">
         <v>44205</v>
       </c>
-      <c r="B291" s="46">
+      <c r="B291" s="43">
         <v>7910</v>
       </c>
-      <c r="C291" s="46">
+      <c r="C291" s="43">
         <v>280</v>
       </c>
       <c r="D291" s="18">
@@ -6371,10 +6380,10 @@
       <c r="A292" s="9">
         <v>44206</v>
       </c>
-      <c r="B292" s="46">
+      <c r="B292" s="43">
         <v>7926</v>
       </c>
-      <c r="C292" s="46">
+      <c r="C292" s="43">
         <v>344</v>
       </c>
       <c r="D292" s="18">
@@ -6394,10 +6403,10 @@
       <c r="A293" s="9">
         <v>44207</v>
       </c>
-      <c r="B293" s="46">
+      <c r="B293" s="43">
         <v>7949</v>
       </c>
-      <c r="C293" s="46">
+      <c r="C293" s="43">
         <v>330</v>
       </c>
       <c r="D293" s="18">
@@ -6409,10 +6418,10 @@
       <c r="F293" s="18">
         <v>19732</v>
       </c>
-      <c r="H293" s="46">
+      <c r="H293" s="43">
         <v>746.71428571428601</v>
       </c>
-      <c r="I293" s="46">
+      <c r="I293" s="43">
         <v>175.57142857142901</v>
       </c>
       <c r="J293" s="18">
@@ -6423,10 +6432,10 @@
       <c r="A294" s="9">
         <v>44208</v>
       </c>
-      <c r="B294" s="46">
+      <c r="B294" s="43">
         <v>7906</v>
       </c>
-      <c r="C294" s="46">
+      <c r="C294" s="43">
         <v>295</v>
       </c>
       <c r="D294" s="18">
@@ -6446,10 +6455,10 @@
       <c r="A295" s="9">
         <v>44209</v>
       </c>
-      <c r="B295" s="46">
+      <c r="B295" s="43">
         <v>7715</v>
       </c>
-      <c r="C295" s="46">
+      <c r="C295" s="43">
         <v>371</v>
       </c>
       <c r="D295" s="18">
@@ -6469,10 +6478,10 @@
       <c r="A296" s="9">
         <v>44210</v>
       </c>
-      <c r="B296" s="46">
+      <c r="B296" s="43">
         <v>7597</v>
       </c>
-      <c r="C296" s="46">
+      <c r="C296" s="43">
         <v>300</v>
       </c>
       <c r="D296" s="18">
@@ -6492,10 +6501,10 @@
       <c r="A297" s="9">
         <v>44211</v>
       </c>
-      <c r="B297" s="46">
+      <c r="B297" s="43">
         <v>7498</v>
       </c>
-      <c r="C297" s="46">
+      <c r="C297" s="43">
         <v>328</v>
       </c>
       <c r="D297" s="18">
@@ -6510,7 +6519,7 @@
       <c r="J297" s="18">
         <v>10879.4285714286</v>
       </c>
-      <c r="L297" s="47">
+      <c r="L297" s="44">
         <v>0.39</v>
       </c>
     </row>
@@ -6518,10 +6527,10 @@
       <c r="A298" s="9">
         <v>44212</v>
       </c>
-      <c r="B298" s="46">
+      <c r="B298" s="43">
         <v>7328</v>
       </c>
-      <c r="C298" s="46">
+      <c r="C298" s="43">
         <v>296</v>
       </c>
       <c r="D298" s="18">
@@ -6541,10 +6550,10 @@
       <c r="A299" s="9">
         <v>44213</v>
       </c>
-      <c r="B299" s="46">
+      <c r="B299" s="43">
         <v>7322</v>
       </c>
-      <c r="C299" s="46">
+      <c r="C299" s="43">
         <v>302</v>
       </c>
       <c r="D299" s="18">
@@ -6564,10 +6573,10 @@
       <c r="A300" s="9">
         <v>44214</v>
       </c>
-      <c r="B300" s="46">
+      <c r="B300" s="43">
         <v>7253</v>
       </c>
-      <c r="C300" s="46">
+      <c r="C300" s="43">
         <v>347</v>
       </c>
       <c r="D300" s="18">
@@ -6579,10 +6588,10 @@
       <c r="F300" s="18">
         <v>20912</v>
       </c>
-      <c r="H300" s="46">
+      <c r="H300" s="43">
         <v>674.28571428571399</v>
       </c>
-      <c r="I300" s="46">
+      <c r="I300" s="43">
         <v>154.28571428571399</v>
       </c>
       <c r="J300" s="18">
@@ -6593,10 +6602,10 @@
       <c r="A301" s="9">
         <v>44215</v>
       </c>
-      <c r="B301" s="46">
+      <c r="B301" s="43">
         <v>7263</v>
       </c>
-      <c r="C301" s="46">
+      <c r="C301" s="43">
         <v>308</v>
       </c>
       <c r="D301" s="18">
@@ -6616,10 +6625,10 @@
       <c r="A302" s="9">
         <v>44216</v>
       </c>
-      <c r="B302" s="46">
+      <c r="B302" s="43">
         <v>7073</v>
       </c>
-      <c r="C302" s="46">
+      <c r="C302" s="43">
         <v>340</v>
       </c>
       <c r="D302" s="18">
@@ -6639,10 +6648,10 @@
       <c r="A303" s="9">
         <v>44217</v>
       </c>
-      <c r="B303" s="46">
+      <c r="B303" s="43">
         <v>6881</v>
       </c>
-      <c r="C303" s="46">
+      <c r="C303" s="43">
         <v>345</v>
       </c>
       <c r="D303" s="18">
@@ -6662,10 +6671,10 @@
       <c r="A304" s="9">
         <v>44218</v>
       </c>
-      <c r="B304" s="46">
+      <c r="B304" s="43">
         <v>6697</v>
       </c>
-      <c r="C304" s="46">
+      <c r="C304" s="43">
         <v>317</v>
       </c>
       <c r="D304" s="18">
@@ -6680,7 +6689,7 @@
       <c r="J304" s="18">
         <v>7132.1428571428596</v>
       </c>
-      <c r="L304" s="47">
+      <c r="L304" s="44">
         <v>0.4</v>
       </c>
     </row>
@@ -6688,10 +6697,10 @@
       <c r="A305" s="9">
         <v>44219</v>
       </c>
-      <c r="B305" s="46">
+      <c r="B305" s="43">
         <v>6486</v>
       </c>
-      <c r="C305" s="46">
+      <c r="C305" s="43">
         <v>307</v>
       </c>
       <c r="D305" s="18">
@@ -6711,10 +6720,10 @@
       <c r="A306" s="9">
         <v>44220</v>
       </c>
-      <c r="B306" s="46">
+      <c r="B306" s="43">
         <v>6307</v>
       </c>
-      <c r="C306" s="46">
+      <c r="C306" s="43">
         <v>299</v>
       </c>
       <c r="D306" s="18">
@@ -6734,10 +6743,10 @@
       <c r="A307" s="9">
         <v>44221</v>
       </c>
-      <c r="B307" s="46">
+      <c r="B307" s="43">
         <v>6213</v>
       </c>
-      <c r="C307" s="46">
+      <c r="C307" s="43">
         <v>287</v>
       </c>
       <c r="D307" s="18">
@@ -6749,10 +6758,10 @@
       <c r="F307" s="18">
         <v>21630</v>
       </c>
-      <c r="H307" s="46">
+      <c r="H307" s="43">
         <v>554.42857142857099</v>
       </c>
-      <c r="I307" s="46">
+      <c r="I307" s="43">
         <v>155.42857142857099</v>
       </c>
       <c r="J307" s="18">
@@ -6763,10 +6772,10 @@
       <c r="A308" s="9">
         <v>44222</v>
       </c>
-      <c r="B308" s="46">
+      <c r="B308" s="43">
         <v>6026</v>
       </c>
-      <c r="C308" s="46">
+      <c r="C308" s="43">
         <v>345</v>
       </c>
       <c r="D308" s="18">
@@ -6786,10 +6795,10 @@
       <c r="A309" s="9">
         <v>44223</v>
       </c>
-      <c r="B309" s="46">
+      <c r="B309" s="43">
         <v>5855</v>
       </c>
-      <c r="C309" s="46">
+      <c r="C309" s="43">
         <v>355</v>
       </c>
       <c r="D309" s="18">
@@ -6809,10 +6818,10 @@
       <c r="A310" s="9">
         <v>44224</v>
       </c>
-      <c r="B310" s="46">
+      <c r="B310" s="43">
         <v>5669</v>
       </c>
-      <c r="C310" s="46">
+      <c r="C310" s="43">
         <v>372</v>
       </c>
       <c r="D310" s="18">
@@ -6832,10 +6841,10 @@
       <c r="A311" s="9">
         <v>44225</v>
       </c>
-      <c r="B311" s="46">
+      <c r="B311" s="43">
         <v>5511</v>
       </c>
-      <c r="C311" s="46">
+      <c r="C311" s="43">
         <v>325</v>
       </c>
       <c r="D311" s="18">
@@ -6850,7 +6859,7 @@
       <c r="J311" s="18">
         <v>4805.4285714285697</v>
       </c>
-      <c r="L311" s="47">
+      <c r="L311" s="44">
         <v>0.44</v>
       </c>
     </row>
@@ -6858,10 +6867,10 @@
       <c r="A312" s="9">
         <v>44226</v>
       </c>
-      <c r="B312" s="46">
+      <c r="B312" s="43">
         <v>5398</v>
       </c>
-      <c r="C312" s="46">
+      <c r="C312" s="43">
         <v>320</v>
       </c>
       <c r="D312" s="18">
@@ -6881,10 +6890,10 @@
       <c r="A313" s="9">
         <v>44227</v>
       </c>
-      <c r="B313" s="46">
+      <c r="B313" s="43">
         <v>5259</v>
       </c>
-      <c r="C313" s="46">
+      <c r="C313" s="43">
         <v>300</v>
       </c>
       <c r="D313" s="18">
@@ -6904,10 +6913,10 @@
       <c r="A314" s="9">
         <v>44228</v>
       </c>
-      <c r="B314" s="46">
+      <c r="B314" s="43">
         <v>5165</v>
       </c>
-      <c r="C314" s="46">
+      <c r="C314" s="43">
         <v>278</v>
       </c>
       <c r="D314" s="18">
@@ -6919,10 +6928,10 @@
       <c r="F314" s="18">
         <v>22110</v>
       </c>
-      <c r="H314" s="46">
+      <c r="H314" s="43">
         <v>426.71428571428601</v>
       </c>
-      <c r="I314" s="46">
+      <c r="I314" s="43">
         <v>161</v>
       </c>
       <c r="J314" s="18">
@@ -6933,10 +6942,10 @@
       <c r="A315" s="9">
         <v>44229</v>
       </c>
-      <c r="B315" s="46">
+      <c r="B315" s="43">
         <v>4990</v>
       </c>
-      <c r="C315" s="46">
+      <c r="C315" s="43">
         <v>314</v>
       </c>
       <c r="D315" s="18">
@@ -6956,10 +6965,10 @@
       <c r="A316" s="9">
         <v>44230</v>
       </c>
-      <c r="B316" s="46">
+      <c r="B316" s="43">
         <v>4796</v>
       </c>
-      <c r="C316" s="46">
+      <c r="C316" s="43">
         <v>346</v>
       </c>
       <c r="D316" s="18">
@@ -6979,10 +6988,10 @@
       <c r="A317" s="9">
         <v>44231</v>
       </c>
-      <c r="B317" s="46">
+      <c r="B317" s="43">
         <v>4607</v>
       </c>
-      <c r="C317" s="46">
+      <c r="C317" s="43">
         <v>319</v>
       </c>
       <c r="D317" s="18">
@@ -7002,10 +7011,10 @@
       <c r="A318" s="9">
         <v>44232</v>
       </c>
-      <c r="B318" s="46">
+      <c r="B318" s="43">
         <v>4421</v>
       </c>
-      <c r="C318" s="46">
+      <c r="C318" s="43">
         <v>338</v>
       </c>
       <c r="D318" s="18">
@@ -7020,7 +7029,7 @@
       <c r="J318" s="18">
         <v>3349.7142857142899</v>
       </c>
-      <c r="L318" s="47">
+      <c r="L318" s="44">
         <v>0.46</v>
       </c>
     </row>
@@ -7028,10 +7037,10 @@
       <c r="A319" s="9">
         <v>44233</v>
       </c>
-      <c r="B319" s="46">
+      <c r="B319" s="43">
         <v>4186</v>
       </c>
-      <c r="C319" s="46">
+      <c r="C319" s="43">
         <v>306</v>
       </c>
       <c r="D319" s="18">
@@ -7051,10 +7060,10 @@
       <c r="A320" s="9">
         <v>44234</v>
       </c>
-      <c r="B320" s="46">
+      <c r="B320" s="43">
         <v>4079</v>
       </c>
-      <c r="C320" s="46">
+      <c r="C320" s="43">
         <v>255</v>
       </c>
       <c r="D320" s="18">
@@ -7074,10 +7083,10 @@
       <c r="A321" s="9">
         <v>44235</v>
       </c>
-      <c r="B321" s="46">
+      <c r="B321" s="43">
         <v>3973</v>
       </c>
-      <c r="C321" s="46">
+      <c r="C321" s="43">
         <v>267</v>
       </c>
       <c r="D321" s="18">
@@ -7089,10 +7098,10 @@
       <c r="F321" s="18">
         <v>22384</v>
       </c>
-      <c r="H321" s="46">
+      <c r="H321" s="43">
         <v>306.857142857143</v>
       </c>
-      <c r="I321" s="46">
+      <c r="I321" s="43">
         <v>150.28571428571399</v>
       </c>
       <c r="J321" s="18">
@@ -7103,10 +7112,10 @@
       <c r="A322" s="9">
         <v>44236</v>
       </c>
-      <c r="B322" s="46">
+      <c r="B322" s="43">
         <v>3772</v>
       </c>
-      <c r="C322" s="46">
+      <c r="C322" s="43">
         <v>312</v>
       </c>
       <c r="D322" s="18">
@@ -7126,10 +7135,10 @@
       <c r="A323" s="9">
         <v>44237</v>
       </c>
-      <c r="B323" s="46">
+      <c r="B323" s="43">
         <v>3614</v>
       </c>
-      <c r="C323" s="46">
+      <c r="C323" s="43">
         <v>256</v>
       </c>
       <c r="D323" s="18">
@@ -7149,10 +7158,10 @@
       <c r="A324" s="9">
         <v>44238</v>
       </c>
-      <c r="B324" s="46">
+      <c r="B324" s="43">
         <v>3415</v>
       </c>
-      <c r="C324" s="46">
+      <c r="C324" s="43">
         <v>223</v>
       </c>
       <c r="D324" s="18">
@@ -7172,10 +7181,10 @@
       <c r="A325" s="9">
         <v>44239</v>
       </c>
-      <c r="B325" s="46">
+      <c r="B325" s="43">
         <v>3270</v>
       </c>
-      <c r="C325" s="46">
+      <c r="C325" s="43">
         <v>196</v>
       </c>
       <c r="D325" s="18">
@@ -7195,10 +7204,10 @@
       <c r="A326" s="9">
         <v>44240</v>
       </c>
-      <c r="B326" s="46">
+      <c r="B326" s="43">
         <v>3092</v>
       </c>
-      <c r="C326" s="46">
+      <c r="C326" s="43">
         <v>201</v>
       </c>
       <c r="D326" s="18">
@@ -7218,10 +7227,10 @@
       <c r="A327" s="9">
         <v>44241</v>
       </c>
-      <c r="B327" s="46">
+      <c r="B327" s="43">
         <v>2964</v>
       </c>
-      <c r="C327" s="46">
+      <c r="C327" s="43">
         <v>200</v>
       </c>
       <c r="D327" s="18">
@@ -7241,10 +7250,10 @@
       <c r="A328" s="9">
         <v>44242</v>
       </c>
-      <c r="B328" s="46">
+      <c r="B328" s="43">
         <v>2855</v>
       </c>
-      <c r="C328" s="46">
+      <c r="C328" s="43">
         <v>189</v>
       </c>
       <c r="D328" s="18">
@@ -7256,10 +7265,10 @@
       <c r="F328" s="18">
         <v>22524</v>
       </c>
-      <c r="H328" s="46">
+      <c r="H328" s="43">
         <v>222.28571428571399</v>
       </c>
-      <c r="I328" s="46">
+      <c r="I328" s="43">
         <v>142.28571428571399</v>
       </c>
       <c r="J328" s="18">
@@ -7270,10 +7279,10 @@
       <c r="A329" s="9">
         <v>44243</v>
       </c>
-      <c r="B329" s="46">
+      <c r="B329" s="43">
         <v>2757</v>
       </c>
-      <c r="C329" s="46">
+      <c r="C329" s="43">
         <v>223</v>
       </c>
       <c r="D329" s="18">
@@ -7293,10 +7302,10 @@
       <c r="A330" s="9">
         <v>44244</v>
       </c>
-      <c r="B330" s="46">
+      <c r="B330" s="43">
         <v>2640</v>
       </c>
-      <c r="C330" s="46">
+      <c r="C330" s="43">
         <v>230</v>
       </c>
       <c r="D330" s="18">
@@ -7313,10 +7322,10 @@
       <c r="A331" s="9">
         <v>44245</v>
       </c>
-      <c r="B331" s="46">
+      <c r="B331" s="43">
         <v>2498</v>
       </c>
-      <c r="C331" s="46">
+      <c r="C331" s="43">
         <v>247</v>
       </c>
       <c r="D331" s="18">
@@ -7333,10 +7342,10 @@
       <c r="A332" s="9">
         <v>44246</v>
       </c>
-      <c r="B332" s="46">
+      <c r="B332" s="43">
         <v>2369</v>
       </c>
-      <c r="C332" s="46">
+      <c r="C332" s="43">
         <v>228</v>
       </c>
       <c r="D332" s="18">
@@ -7353,10 +7362,10 @@
       <c r="A333" s="9">
         <v>44247</v>
       </c>
-      <c r="B333" s="46">
+      <c r="B333" s="43">
         <v>2213</v>
       </c>
-      <c r="C333" s="46">
+      <c r="C333" s="43">
         <v>212</v>
       </c>
       <c r="D333" s="18">
@@ -7373,10 +7382,10 @@
       <c r="A334" s="9">
         <v>44248</v>
       </c>
-      <c r="B334" s="46">
+      <c r="B334" s="43">
         <v>2146</v>
       </c>
-      <c r="C334" s="46">
+      <c r="C334" s="43">
         <v>191</v>
       </c>
       <c r="D334" s="18">
@@ -7393,10 +7402,10 @@
       <c r="A335" s="9">
         <v>44249</v>
       </c>
-      <c r="B335" s="46">
+      <c r="B335" s="43">
         <v>2064</v>
       </c>
-      <c r="C335" s="46">
+      <c r="C335" s="43">
         <v>200</v>
       </c>
       <c r="D335" s="18">
@@ -7405,10 +7414,10 @@
       <c r="E335" s="18">
         <v>34</v>
       </c>
-      <c r="H335" s="46">
+      <c r="H335" s="43">
         <v>169.142857142857</v>
       </c>
-      <c r="I335" s="46">
+      <c r="I335" s="43">
         <v>147.28571428571399</v>
       </c>
       <c r="J335" s="18">
@@ -7419,10 +7428,10 @@
       <c r="A336" s="9">
         <v>44250</v>
       </c>
-      <c r="B336" s="46">
+      <c r="B336" s="43">
         <v>1988</v>
       </c>
-      <c r="C336" s="46">
+      <c r="C336" s="43">
         <v>226</v>
       </c>
       <c r="D336" s="18">
@@ -7439,10 +7448,10 @@
       <c r="A337" s="9">
         <v>44251</v>
       </c>
-      <c r="B337" s="46">
+      <c r="B337" s="43">
         <v>1886</v>
       </c>
-      <c r="C337" s="46">
+      <c r="C337" s="43">
         <v>215</v>
       </c>
       <c r="D337" s="18">
@@ -7459,10 +7468,10 @@
       <c r="A338" s="9">
         <v>44252</v>
       </c>
-      <c r="B338" s="46">
+      <c r="B338" s="43">
         <v>1733</v>
       </c>
-      <c r="C338" s="46">
+      <c r="C338" s="43">
         <v>229</v>
       </c>
       <c r="D338" s="18">
@@ -7479,10 +7488,10 @@
       <c r="A339" s="9">
         <v>44253</v>
       </c>
-      <c r="B339" s="46">
+      <c r="B339" s="43">
         <v>1661</v>
       </c>
-      <c r="C339" s="46">
+      <c r="C339" s="43">
         <v>194</v>
       </c>
       <c r="D339" s="18">
@@ -7499,10 +7508,10 @@
       <c r="A340" s="9">
         <v>44254</v>
       </c>
-      <c r="B340" s="46">
+      <c r="B340" s="43">
         <v>1578</v>
       </c>
-      <c r="C340" s="46">
+      <c r="C340" s="43">
         <v>183</v>
       </c>
       <c r="D340" s="18">
@@ -7519,10 +7528,10 @@
       <c r="A341" s="9">
         <v>44255</v>
       </c>
-      <c r="B341" s="46">
+      <c r="B341" s="43">
         <v>1502</v>
       </c>
-      <c r="C341" s="46">
+      <c r="C341" s="43">
         <v>157</v>
       </c>
       <c r="D341" s="18">
@@ -7539,10 +7548,10 @@
       <c r="A342" s="9">
         <v>44256</v>
       </c>
-      <c r="B342" s="46">
+      <c r="B342" s="43">
         <v>1476</v>
       </c>
-      <c r="C342" s="46">
+      <c r="C342" s="43">
         <v>155</v>
       </c>
       <c r="D342" s="18">
@@ -7551,10 +7560,10 @@
       <c r="E342" s="18">
         <v>25</v>
       </c>
-      <c r="H342" s="46">
+      <c r="H342" s="43">
         <v>137.857142857143</v>
       </c>
-      <c r="I342" s="46">
+      <c r="I342" s="43">
         <v>124</v>
       </c>
       <c r="J342" s="18">
@@ -7565,10 +7574,10 @@
       <c r="A343" s="9">
         <v>44257</v>
       </c>
-      <c r="B343" s="46">
+      <c r="B343" s="43">
         <v>1401</v>
       </c>
-      <c r="C343" s="46">
+      <c r="C343" s="43">
         <v>173</v>
       </c>
       <c r="D343" s="18">
@@ -7585,10 +7594,10 @@
       <c r="A344" s="9">
         <v>44258</v>
       </c>
-      <c r="B344" s="46">
+      <c r="B344" s="43">
         <v>1341</v>
       </c>
-      <c r="C344" s="46">
+      <c r="C344" s="43">
         <v>182</v>
       </c>
       <c r="D344" s="18">
@@ -7605,10 +7614,10 @@
       <c r="A345" s="9">
         <v>44259</v>
       </c>
-      <c r="B345" s="46">
+      <c r="B345" s="43">
         <v>1264</v>
       </c>
-      <c r="C345" s="46">
+      <c r="C345" s="43">
         <v>191</v>
       </c>
       <c r="D345" s="18">
@@ -7625,10 +7634,10 @@
       <c r="A346" s="9">
         <v>44260</v>
       </c>
-      <c r="B346" s="46">
+      <c r="B346" s="43">
         <v>1176</v>
       </c>
-      <c r="C346" s="46">
+      <c r="C346" s="43">
         <v>164</v>
       </c>
       <c r="D346" s="18">
@@ -7645,10 +7654,10 @@
       <c r="A347" s="9">
         <v>44261</v>
       </c>
-      <c r="B347" s="46">
+      <c r="B347" s="43">
         <v>1132</v>
       </c>
-      <c r="C347" s="46">
+      <c r="C347" s="43">
         <v>156</v>
       </c>
       <c r="D347" s="18">
@@ -7665,10 +7674,10 @@
       <c r="A348" s="9">
         <v>44262</v>
       </c>
-      <c r="B348" s="46">
+      <c r="B348" s="43">
         <v>1119</v>
       </c>
-      <c r="C348" s="46">
+      <c r="C348" s="43">
         <v>128</v>
       </c>
       <c r="D348" s="18">
@@ -7685,10 +7694,10 @@
       <c r="A349" s="9">
         <v>44263</v>
       </c>
-      <c r="B349" s="46">
+      <c r="B349" s="43">
         <v>1079</v>
       </c>
-      <c r="C349" s="46">
+      <c r="C349" s="43">
         <v>139</v>
       </c>
       <c r="D349" s="18">
@@ -7705,10 +7714,10 @@
       <c r="A350" s="9">
         <v>44264</v>
       </c>
-      <c r="B350" s="46">
+      <c r="B350" s="43">
         <v>1056</v>
       </c>
-      <c r="C350" s="46">
+      <c r="C350" s="43">
         <v>151</v>
       </c>
       <c r="D350" s="18">
@@ -7725,10 +7734,10 @@
       <c r="A351" s="9">
         <v>44265</v>
       </c>
-      <c r="B351" s="46">
+      <c r="B351" s="43">
         <v>1015</v>
       </c>
-      <c r="C351" s="46">
+      <c r="C351" s="43">
         <v>163</v>
       </c>
       <c r="D351" s="18">
@@ -7745,10 +7754,10 @@
       <c r="A352" s="9">
         <v>44266</v>
       </c>
-      <c r="B352" s="46">
+      <c r="B352" s="43">
         <v>979</v>
       </c>
-      <c r="C352" s="46">
+      <c r="C352" s="43">
         <v>167</v>
       </c>
       <c r="D352" s="18">
@@ -7765,10 +7774,10 @@
       <c r="A353" s="9">
         <v>44267</v>
       </c>
-      <c r="B353" s="46">
+      <c r="B353" s="43">
         <v>951</v>
       </c>
-      <c r="C353" s="46">
+      <c r="C353" s="43">
         <v>155</v>
       </c>
       <c r="D353" s="18">
@@ -7785,10 +7794,10 @@
       <c r="A354" s="9">
         <v>44268</v>
       </c>
-      <c r="B354" s="46">
+      <c r="B354" s="43">
         <v>893</v>
       </c>
-      <c r="C354" s="46">
+      <c r="C354" s="43">
         <v>156</v>
       </c>
       <c r="D354" s="18">
@@ -7805,10 +7814,10 @@
       <c r="A355" s="9">
         <v>44269</v>
       </c>
-      <c r="B355" s="46">
+      <c r="B355" s="43">
         <v>865</v>
       </c>
-      <c r="C355" s="46">
+      <c r="C355" s="43">
         <v>145</v>
       </c>
       <c r="D355" s="18">
@@ -7825,10 +7834,10 @@
       <c r="A356" s="9">
         <v>44270</v>
       </c>
-      <c r="B356" s="46">
+      <c r="B356" s="43">
         <v>857</v>
       </c>
-      <c r="C356" s="46">
+      <c r="C356" s="43">
         <v>137</v>
       </c>
       <c r="D356" s="18">
@@ -7842,10 +7851,10 @@
       <c r="A357" s="9">
         <v>44271</v>
       </c>
-      <c r="B357" s="46">
+      <c r="B357" s="43">
         <v>861</v>
       </c>
-      <c r="C357" s="46">
+      <c r="C357" s="43">
         <v>142</v>
       </c>
       <c r="D357" s="18">
@@ -7859,10 +7868,10 @@
       <c r="A358" s="9">
         <v>44272</v>
       </c>
-      <c r="B358" s="46">
+      <c r="B358" s="43">
         <v>861</v>
       </c>
-      <c r="C358" s="46">
+      <c r="C358" s="43">
         <v>177</v>
       </c>
       <c r="D358" s="18">
@@ -7876,10 +7885,10 @@
       <c r="A359" s="9">
         <v>44273</v>
       </c>
-      <c r="B359" s="46">
+      <c r="B359" s="43">
         <v>827</v>
       </c>
-      <c r="C359" s="46">
+      <c r="C359" s="43">
         <v>154</v>
       </c>
       <c r="D359" s="18">
@@ -7890,18 +7899,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -7923,7 +7933,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7934,43 +7944,43 @@
   <sheetData>
     <row r="1" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="69" t="s">
+      <c r="D2" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>99</v>
+      <c r="E2" s="66" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="55">
-        <v>0</v>
-      </c>
-      <c r="B3" s="57">
+      <c r="A3" s="52">
+        <v>0</v>
+      </c>
+      <c r="B3" s="54">
         <v>0</v>
       </c>
       <c r="C3" s="10">
@@ -7979,15 +7989,15 @@
       <c r="D3" s="11">
         <v>44562</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="54">
         <v>0.85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="56">
+      <c r="A4" s="53">
         <v>5</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="54">
         <v>0</v>
       </c>
       <c r="C4" s="10">
@@ -7996,15 +8006,15 @@
       <c r="D4" s="11">
         <v>44562</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="54">
         <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56">
+      <c r="A5" s="53">
         <v>12</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="54">
         <v>0</v>
       </c>
       <c r="C5" s="10">
@@ -8013,15 +8023,15 @@
       <c r="D5" s="11">
         <v>44075</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="54">
         <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="56">
+      <c r="A6" s="53">
         <v>16</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="54">
         <v>7.4506675019129207E-2</v>
       </c>
       <c r="C6" s="10">
@@ -8030,15 +8040,15 @@
       <c r="D6" s="11">
         <v>44166</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="54">
         <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="56">
+      <c r="A7" s="53">
         <v>30</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="54">
         <v>0.10614649591766399</v>
       </c>
       <c r="C7" s="10">
@@ -8047,15 +8057,15 @@
       <c r="D7" s="11">
         <v>44166</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="54">
         <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="56">
+      <c r="A8" s="53">
         <v>40</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="54">
         <v>0.110229053452958</v>
       </c>
       <c r="C8" s="10">
@@ -8064,15 +8074,15 @@
       <c r="D8" s="11">
         <v>44166</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="54">
         <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="56">
+      <c r="A9" s="53">
         <v>50</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="54">
         <v>0.18881828600738201</v>
       </c>
       <c r="C9" s="10">
@@ -8081,15 +8091,15 @@
       <c r="D9" s="11">
         <v>44166</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="54">
         <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="56">
+      <c r="A10" s="53">
         <v>65</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="54">
         <v>0.241497498947746</v>
       </c>
       <c r="C10" s="10">
@@ -8098,15 +8108,15 @@
       <c r="D10" s="11">
         <v>44166</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="54">
         <v>0.85</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="56">
+      <c r="A11" s="53">
         <v>75</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="54">
         <v>0.18063227563571199</v>
       </c>
       <c r="C11" s="10">
@@ -8115,15 +8125,15 @@
       <c r="D11" s="11">
         <v>44166</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="56">
+      <c r="A12" s="53">
         <v>85</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="54">
         <v>9.8169715019408799E-2</v>
       </c>
       <c r="C12" s="10">
@@ -8132,14 +8142,14 @@
       <c r="D12" s="11">
         <v>44166</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="54">
         <v>0.85</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8151,14 +8161,15 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="24" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="64" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8167,27 +8178,27 @@
         <v>5</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>101</v>
-      </c>
       <c r="D2" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8211,7 +8222,7 @@
       <c r="B4" s="24">
         <v>3347</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="63">
         <v>0</v>
       </c>
       <c r="D4" s="10">
@@ -8225,7 +8236,7 @@
       <c r="B5" s="24">
         <v>10082</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="63">
         <v>0</v>
       </c>
       <c r="D5" s="10">
@@ -8239,7 +8250,7 @@
       <c r="B6" s="24">
         <v>14104</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="63">
         <v>0</v>
       </c>
       <c r="D6" s="10">
@@ -8253,7 +8264,7 @@
       <c r="B7" s="24">
         <v>6930</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="63">
         <v>0</v>
       </c>
       <c r="D7" s="10">
@@ -8267,7 +8278,7 @@
       <c r="B8" s="24">
         <v>4415</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="63">
         <v>0</v>
       </c>
       <c r="D8" s="10">
@@ -8281,7 +8292,7 @@
       <c r="B9" s="24">
         <v>13314</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="63">
         <v>0</v>
       </c>
       <c r="D9" s="10">
@@ -8295,7 +8306,7 @@
       <c r="B10" s="24">
         <v>11415</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="63">
         <v>0</v>
       </c>
       <c r="D10" s="10">
@@ -8309,7 +8320,7 @@
       <c r="B11" s="24">
         <v>11687</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="63">
         <v>0</v>
       </c>
       <c r="D11" s="10">
@@ -8323,7 +8334,7 @@
       <c r="B12" s="24">
         <v>6407</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="63">
         <v>0</v>
       </c>
       <c r="D12" s="10">
@@ -8337,7 +8348,7 @@
       <c r="B13" s="24">
         <v>512</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="63">
         <v>0</v>
       </c>
       <c r="D13" s="10">
@@ -8351,7 +8362,7 @@
       <c r="B14" s="24">
         <v>2504</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="63">
         <v>0</v>
       </c>
       <c r="D14" s="10">
@@ -8365,7 +8376,7 @@
       <c r="B15" s="24">
         <v>1683</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="63">
         <v>0</v>
       </c>
       <c r="D15" s="10">
@@ -8379,7 +8390,7 @@
       <c r="B16" s="24">
         <v>10067</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="63">
         <v>0</v>
       </c>
       <c r="D16" s="10">
@@ -8393,7 +8404,7 @@
       <c r="B17" s="24">
         <v>11251</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="63">
         <v>0</v>
       </c>
       <c r="D17" s="10">
@@ -8407,7 +8418,7 @@
       <c r="B18" s="24">
         <v>14088</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="63">
         <v>0</v>
       </c>
       <c r="D18" s="10">
@@ -8415,13 +8426,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="70">
+      <c r="A19" s="67">
         <v>44196</v>
       </c>
       <c r="B19" s="24">
         <v>8072</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="64">
         <v>0</v>
       </c>
       <c r="D19" s="10">
@@ -8429,13 +8440,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="70">
+      <c r="A20" s="67">
         <v>44197</v>
       </c>
       <c r="B20" s="24">
         <v>975</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="64">
         <v>0</v>
       </c>
       <c r="D20" s="10">
@@ -8443,13 +8454,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="70">
+      <c r="A21" s="67">
         <v>44198</v>
       </c>
       <c r="B21" s="24">
         <v>4315</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="64">
         <v>0</v>
       </c>
       <c r="D21" s="10">
@@ -8457,13 +8468,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="70">
+      <c r="A22" s="67">
         <v>44199</v>
       </c>
       <c r="B22" s="24">
         <v>876</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="64">
         <v>0</v>
       </c>
       <c r="D22" s="10">
@@ -8471,13 +8482,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="70">
+      <c r="A23" s="67">
         <v>44200</v>
       </c>
       <c r="B23" s="24">
         <v>12444</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="64">
         <v>0</v>
       </c>
       <c r="D23" s="10">
@@ -8485,13 +8496,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="70">
+      <c r="A24" s="67">
         <v>44201</v>
       </c>
       <c r="B24" s="24">
         <v>13964</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="64">
         <v>1595</v>
       </c>
       <c r="D24" s="10">
@@ -8499,13 +8510,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="70">
+      <c r="A25" s="67">
         <v>44202</v>
       </c>
       <c r="B25" s="24">
         <v>16500</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="64">
         <v>5092</v>
       </c>
       <c r="D25" s="10">
@@ -8513,13 +8524,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="70">
+      <c r="A26" s="67">
         <v>44203</v>
       </c>
       <c r="B26" s="24">
         <v>18811</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="64">
         <v>9723</v>
       </c>
       <c r="D26" s="10">
@@ -8527,13 +8538,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="70">
+      <c r="A27" s="67">
         <v>44204</v>
       </c>
       <c r="B27" s="24">
         <v>20518</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="64">
         <v>11327</v>
       </c>
       <c r="D27" s="10">
@@ -8541,13 +8552,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="70">
+      <c r="A28" s="67">
         <v>44205</v>
       </c>
       <c r="B28" s="24">
         <v>7364</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="64">
         <v>4464</v>
       </c>
       <c r="D28" s="10">
@@ -8555,13 +8566,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="70">
+      <c r="A29" s="67">
         <v>44206</v>
       </c>
       <c r="B29" s="24">
         <v>2131</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="64">
         <v>2488</v>
       </c>
       <c r="D29" s="10">
@@ -8569,13 +8580,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="70">
+      <c r="A30" s="67">
         <v>44207</v>
       </c>
       <c r="B30" s="24">
         <v>14236</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="64">
         <v>10464</v>
       </c>
       <c r="D30" s="10">
@@ -8583,13 +8594,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="70">
+      <c r="A31" s="67">
         <v>44208</v>
       </c>
       <c r="B31" s="24">
         <v>19140</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="64">
         <v>9279</v>
       </c>
       <c r="D31" s="10">
@@ -8597,13 +8608,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="70">
+      <c r="A32" s="67">
         <v>44209</v>
       </c>
       <c r="B32" s="24">
         <v>19851</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="64">
         <v>8373</v>
       </c>
       <c r="D32" s="10">
@@ -8611,13 +8622,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="70">
+      <c r="A33" s="67">
         <v>44210</v>
       </c>
       <c r="B33" s="24">
         <v>23085</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="64">
         <v>5098</v>
       </c>
       <c r="D33" s="10">
@@ -8625,13 +8636,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="70">
+      <c r="A34" s="67">
         <v>44211</v>
       </c>
       <c r="B34" s="24">
         <v>28825</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="64">
         <v>3383</v>
       </c>
       <c r="D34" s="10">
@@ -8639,13 +8650,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="70">
+      <c r="A35" s="67">
         <v>44212</v>
       </c>
       <c r="B35" s="24">
         <v>15095</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="64">
         <v>1756</v>
       </c>
       <c r="D35" s="10">
@@ -8653,13 +8664,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="70">
+      <c r="A36" s="67">
         <v>44213</v>
       </c>
       <c r="B36" s="24">
         <v>4927</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="64">
         <v>231</v>
       </c>
       <c r="D36" s="10">
@@ -8667,13 +8678,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="70">
+      <c r="A37" s="67">
         <v>44214</v>
       </c>
       <c r="B37" s="24">
         <v>10221</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="64">
         <v>4604</v>
       </c>
       <c r="D37" s="10">
@@ -8681,13 +8692,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="70">
+      <c r="A38" s="67">
         <v>44215</v>
       </c>
       <c r="B38" s="24">
         <v>29585</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="64">
         <v>7065</v>
       </c>
       <c r="D38" s="10">
@@ -8695,13 +8706,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="70">
+      <c r="A39" s="67">
         <v>44216</v>
       </c>
       <c r="B39" s="24">
         <v>37017</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="64">
         <v>7289</v>
       </c>
       <c r="D39" s="10">
@@ -8709,13 +8720,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="70">
+      <c r="A40" s="67">
         <v>44217</v>
       </c>
       <c r="B40" s="24">
         <v>41943</v>
       </c>
-      <c r="C40" s="67">
+      <c r="C40" s="64">
         <v>3999</v>
       </c>
       <c r="D40" s="10">
@@ -8723,13 +8734,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="70">
+      <c r="A41" s="67">
         <v>44218</v>
       </c>
       <c r="B41" s="24">
         <v>42474</v>
       </c>
-      <c r="C41" s="67">
+      <c r="C41" s="64">
         <v>3228</v>
       </c>
       <c r="D41" s="10">
@@ -8737,13 +8748,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="70">
+      <c r="A42" s="67">
         <v>44219</v>
       </c>
       <c r="B42" s="24">
         <v>30747</v>
       </c>
-      <c r="C42" s="67">
+      <c r="C42" s="64">
         <v>1896</v>
       </c>
       <c r="D42" s="10">
@@ -8751,13 +8762,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="70">
+      <c r="A43" s="67">
         <v>44220</v>
       </c>
       <c r="B43" s="24">
         <v>14973</v>
       </c>
-      <c r="C43" s="67">
+      <c r="C43" s="64">
         <v>512</v>
       </c>
       <c r="D43" s="10">
@@ -8765,13 +8776,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="70">
+      <c r="A44" s="67">
         <v>44221</v>
       </c>
       <c r="B44" s="24">
         <v>28595</v>
       </c>
-      <c r="C44" s="67">
+      <c r="C44" s="64">
         <v>7989</v>
       </c>
       <c r="D44" s="10">
@@ -8779,13 +8790,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="70">
+      <c r="A45" s="67">
         <v>44222</v>
       </c>
       <c r="B45" s="24">
         <v>39489</v>
       </c>
-      <c r="C45" s="67">
+      <c r="C45" s="64">
         <v>7680</v>
       </c>
       <c r="D45" s="10">
@@ -8793,13 +8804,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="70">
+      <c r="A46" s="67">
         <v>44223</v>
       </c>
       <c r="B46" s="24">
         <v>37821</v>
       </c>
-      <c r="C46" s="67">
+      <c r="C46" s="64">
         <v>8599</v>
       </c>
       <c r="D46" s="10">
@@ -8807,13 +8818,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="70">
+      <c r="A47" s="67">
         <v>44224</v>
       </c>
       <c r="B47" s="24">
         <v>37288</v>
       </c>
-      <c r="C47" s="67">
+      <c r="C47" s="64">
         <v>7836</v>
       </c>
       <c r="D47" s="10">
@@ -8821,13 +8832,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="70">
+      <c r="A48" s="67">
         <v>44225</v>
       </c>
       <c r="B48" s="24">
         <v>36886</v>
       </c>
-      <c r="C48" s="67">
+      <c r="C48" s="64">
         <v>8717</v>
       </c>
       <c r="D48" s="10">
@@ -8835,13 +8846,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="70">
+      <c r="A49" s="67">
         <v>44226</v>
       </c>
       <c r="B49" s="24">
         <v>25146</v>
       </c>
-      <c r="C49" s="67">
+      <c r="C49" s="64">
         <v>3785</v>
       </c>
       <c r="D49" s="10">
@@ -8849,13 +8860,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="70">
+      <c r="A50" s="67">
         <v>44227</v>
       </c>
       <c r="B50" s="24">
         <v>11839</v>
       </c>
-      <c r="C50" s="67">
+      <c r="C50" s="64">
         <v>825</v>
       </c>
       <c r="D50" s="10">
@@ -8863,13 +8874,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="70">
+      <c r="A51" s="67">
         <v>44228</v>
       </c>
       <c r="B51" s="24">
         <v>26518</v>
       </c>
-      <c r="C51" s="67">
+      <c r="C51" s="64">
         <v>9664</v>
       </c>
       <c r="D51" s="10">
@@ -8877,13 +8888,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="70">
+      <c r="A52" s="67">
         <v>44229</v>
       </c>
       <c r="B52" s="24">
         <v>30923</v>
       </c>
-      <c r="C52" s="67">
+      <c r="C52" s="64">
         <v>11396</v>
       </c>
       <c r="D52" s="10">
@@ -8891,13 +8902,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="70">
+      <c r="A53" s="67">
         <v>44230</v>
       </c>
       <c r="B53" s="24">
         <v>36035</v>
       </c>
-      <c r="C53" s="67">
+      <c r="C53" s="64">
         <v>13592</v>
       </c>
       <c r="D53" s="10">
@@ -8905,13 +8916,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="70">
+      <c r="A54" s="67">
         <v>44231</v>
       </c>
       <c r="B54" s="24">
         <v>37754</v>
       </c>
-      <c r="C54" s="67">
+      <c r="C54" s="64">
         <v>16840</v>
       </c>
       <c r="D54" s="10">
@@ -8919,13 +8930,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="70">
+      <c r="A55" s="67">
         <v>44232</v>
       </c>
       <c r="B55" s="24">
         <v>37842</v>
       </c>
-      <c r="C55" s="67">
+      <c r="C55" s="64">
         <v>19979</v>
       </c>
       <c r="D55" s="10">
@@ -8933,13 +8944,13 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="70">
+      <c r="A56" s="67">
         <v>44233</v>
       </c>
       <c r="B56" s="24">
         <v>25994</v>
       </c>
-      <c r="C56" s="67">
+      <c r="C56" s="64">
         <v>7900</v>
       </c>
       <c r="D56" s="10">
@@ -8947,13 +8958,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="70">
+      <c r="A57" s="67">
         <v>44234</v>
       </c>
       <c r="B57" s="24">
         <v>7975</v>
       </c>
-      <c r="C57" s="67">
+      <c r="C57" s="64">
         <v>1954</v>
       </c>
       <c r="D57" s="10">
@@ -8961,13 +8972,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="70">
+      <c r="A58" s="67">
         <v>44235</v>
       </c>
       <c r="B58" s="24">
         <v>29651</v>
       </c>
-      <c r="C58" s="67">
+      <c r="C58" s="64">
         <v>15097</v>
       </c>
       <c r="D58" s="10">
@@ -8975,13 +8986,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="70">
+      <c r="A59" s="67">
         <v>44236</v>
       </c>
       <c r="B59" s="24">
         <v>27435</v>
       </c>
-      <c r="C59" s="67">
+      <c r="C59" s="64">
         <v>24783</v>
       </c>
       <c r="D59" s="10">
@@ -8989,13 +9000,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="70">
+      <c r="A60" s="67">
         <v>44237</v>
       </c>
       <c r="B60" s="24">
         <v>29866</v>
       </c>
-      <c r="C60" s="67">
+      <c r="C60" s="64">
         <v>32806</v>
       </c>
       <c r="D60" s="10">
@@ -9003,13 +9014,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="70">
+      <c r="A61" s="67">
         <v>44238</v>
       </c>
       <c r="B61" s="24">
         <v>26513</v>
       </c>
-      <c r="C61" s="67">
+      <c r="C61" s="64">
         <v>28119</v>
       </c>
       <c r="D61" s="10">
@@ -9017,13 +9028,13 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="70">
+      <c r="A62" s="67">
         <v>44239</v>
       </c>
       <c r="B62" s="24">
         <v>24128</v>
       </c>
-      <c r="C62" s="67">
+      <c r="C62" s="64">
         <v>30770</v>
       </c>
       <c r="D62" s="10">
@@ -9031,13 +9042,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="70">
+      <c r="A63" s="67">
         <v>44240</v>
       </c>
       <c r="B63" s="24">
         <v>15386</v>
       </c>
-      <c r="C63" s="67">
+      <c r="C63" s="64">
         <v>17217</v>
       </c>
       <c r="D63" s="10">
@@ -9045,13 +9056,13 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="70">
+      <c r="A64" s="67">
         <v>44241</v>
       </c>
       <c r="B64" s="24">
         <v>8857</v>
       </c>
-      <c r="C64" s="67">
+      <c r="C64" s="64">
         <v>12751</v>
       </c>
       <c r="D64" s="10">
@@ -9059,13 +9070,13 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="70">
+      <c r="A65" s="67">
         <v>44242</v>
       </c>
       <c r="B65" s="24">
         <v>15134</v>
       </c>
-      <c r="C65" s="67">
+      <c r="C65" s="64">
         <v>14036</v>
       </c>
       <c r="D65" s="10">
@@ -9073,13 +9084,13 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="70">
+      <c r="A66" s="67">
         <v>44243</v>
       </c>
       <c r="B66" s="24">
         <v>28227</v>
       </c>
-      <c r="C66" s="67">
+      <c r="C66" s="64">
         <v>31601</v>
       </c>
       <c r="D66" s="10">
@@ -9087,13 +9098,13 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="70">
+      <c r="A67" s="67">
         <v>44244</v>
       </c>
       <c r="B67" s="24">
         <v>24835</v>
       </c>
-      <c r="C67" s="67">
+      <c r="C67" s="64">
         <v>34967</v>
       </c>
       <c r="D67" s="10">
@@ -9101,13 +9112,13 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="70">
+      <c r="A68" s="67">
         <v>44245</v>
       </c>
       <c r="B68" s="24">
         <v>25451</v>
       </c>
-      <c r="C68" s="67">
+      <c r="C68" s="64">
         <v>35410</v>
       </c>
       <c r="D68" s="10">
@@ -9115,13 +9126,13 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="70">
+      <c r="A69" s="67">
         <v>44246</v>
       </c>
       <c r="B69" s="24">
         <v>25523</v>
       </c>
-      <c r="C69" s="67">
+      <c r="C69" s="64">
         <v>23506</v>
       </c>
       <c r="D69" s="10">
@@ -9129,13 +9140,13 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="70">
+      <c r="A70" s="67">
         <v>44247</v>
       </c>
       <c r="B70" s="24">
         <v>12076</v>
       </c>
-      <c r="C70" s="67">
+      <c r="C70" s="64">
         <v>14931</v>
       </c>
       <c r="D70" s="10">
@@ -9143,13 +9154,13 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="70">
+      <c r="A71" s="67">
         <v>44248</v>
       </c>
       <c r="B71" s="24">
         <v>6881</v>
       </c>
-      <c r="C71" s="67">
+      <c r="C71" s="64">
         <v>6113</v>
       </c>
       <c r="D71" s="10">
@@ -9157,13 +9168,13 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="70">
+      <c r="A72" s="67">
         <v>44249</v>
       </c>
       <c r="B72" s="24">
         <v>12501</v>
       </c>
-      <c r="C72" s="67">
+      <c r="C72" s="64">
         <v>12964</v>
       </c>
       <c r="D72" s="10">
@@ -9171,13 +9182,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="70">
+      <c r="A73" s="67">
         <v>44250</v>
       </c>
       <c r="B73" s="24">
         <v>13990</v>
       </c>
-      <c r="C73" s="67">
+      <c r="C73" s="64">
         <v>24079</v>
       </c>
       <c r="D73" s="10">
@@ -9185,13 +9196,13 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="70">
+      <c r="A74" s="67">
         <v>44251</v>
       </c>
       <c r="B74" s="24">
         <v>11945</v>
       </c>
-      <c r="C74" s="67">
+      <c r="C74" s="64">
         <v>13730</v>
       </c>
       <c r="D74" s="10">
@@ -9207,51 +9218,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2E9560-6072-47F8-9C1B-1CD23F686466}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="28" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="68.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="55" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="55" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" style="55" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="52" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" style="52" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>147</v>
+      <c r="C2" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="22">
         <v>44256</v>
@@ -9262,10 +9273,10 @@
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>95</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>96</v>
       </c>
       <c r="C4" s="19">
         <v>60000</v>
@@ -9276,10 +9287,10 @@
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="21">
         <v>700</v>
@@ -9290,10 +9301,10 @@
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="19">
         <v>100000</v>
@@ -9303,12 +9314,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="60"/>
+      <c r="B12" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9321,155 +9332,155 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="55" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="55" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="55" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="55" customWidth="1"/>
-    <col min="7" max="8" width="13" style="55" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="55"/>
-    <col min="10" max="10" width="8.83203125" style="55" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="55"/>
-    <col min="12" max="12" width="11.33203125" style="55" customWidth="1"/>
-    <col min="13" max="14" width="12.6640625" style="55" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="55" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="55" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="55"/>
+    <col min="1" max="1" width="10.6640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="52" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="52" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="52" customWidth="1"/>
+    <col min="7" max="8" width="13" style="52" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="52"/>
+    <col min="10" max="10" width="8.83203125" style="52" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="52"/>
+    <col min="12" max="12" width="11.33203125" style="52" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" style="52" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="52" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="52" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="62" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="59" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="30"/>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="78"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="H2" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>153</v>
-      </c>
       <c r="I2" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J2" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="61" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="O3" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="P3" s="63" t="s">
-        <v>160</v>
+      <c r="O3" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="11">
         <v>44221</v>
@@ -9477,13 +9488,13 @@
       <c r="C4" s="10">
         <v>0.45</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="68">
         <v>1</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="68">
         <v>1</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="68">
         <v>1</v>
       </c>
       <c r="G4" s="10">
@@ -9492,22 +9503,22 @@
       <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="54">
         <v>0.75</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="54">
         <v>0.9</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="54">
         <v>0.67</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="54">
         <v>0.75</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="54">
         <v>0.9</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="54">
         <v>0.85</v>
       </c>
       <c r="O4" s="10">
@@ -9519,7 +9530,7 @@
     </row>
     <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B5" s="11">
         <v>44221</v>
@@ -9542,22 +9553,22 @@
       <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="54">
         <v>0.75</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="54">
         <v>0.9</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="54">
         <v>0.67</v>
       </c>
-      <c r="L5" s="57">
+      <c r="L5" s="54">
         <v>0.75</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="54">
         <v>0.9</v>
       </c>
-      <c r="N5" s="57">
+      <c r="N5" s="54">
         <v>0.85</v>
       </c>
       <c r="O5" s="10">
@@ -9569,7 +9580,7 @@
     </row>
     <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="11">
         <v>44221</v>
@@ -9592,22 +9603,22 @@
       <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="54">
         <v>0.75</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="54">
         <v>0.9</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="54">
         <v>0.67</v>
       </c>
-      <c r="L6" s="57">
+      <c r="L6" s="54">
         <v>0.75</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="54">
         <v>0.9</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="54">
         <v>0.85</v>
       </c>
       <c r="O6" s="10">
@@ -9619,7 +9630,7 @@
     </row>
     <row r="7" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="11">
         <v>44221</v>
@@ -9642,22 +9653,22 @@
       <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="54">
         <v>0.6</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="54">
         <v>0.7</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="54">
         <v>0.5</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="54">
         <v>0.6</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="54">
         <v>0.7</v>
       </c>
-      <c r="N7" s="57">
+      <c r="N7" s="54">
         <v>0.67</v>
       </c>
       <c r="O7" s="10">
@@ -9669,7 +9680,7 @@
     </row>
     <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="11">
         <v>44221</v>
@@ -9692,22 +9703,22 @@
       <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="54">
         <v>0.6</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="54">
         <v>0.7</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="54">
         <v>0.5</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="54">
         <v>0.6</v>
       </c>
-      <c r="M8" s="57">
+      <c r="M8" s="54">
         <v>0.7</v>
       </c>
-      <c r="N8" s="57">
+      <c r="N8" s="54">
         <v>0.67</v>
       </c>
       <c r="O8" s="10">
@@ -9732,13 +9743,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
@@ -9746,20 +9757,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="54" t="s">
-        <v>66</v>
+      <c r="C4" s="51" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9770,12 +9781,12 @@
         <v>18</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -9786,7 +9797,7 @@
     </row>
     <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -9797,7 +9808,7 @@
     </row>
     <row r="8" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -9808,10 +9819,10 @@
     </row>
     <row r="9" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="C9" s="4">
         <v>0.3</v>
@@ -9819,10 +9830,10 @@
     </row>
     <row r="10" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="4">
         <v>0.3</v>
@@ -9830,10 +9841,10 @@
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4">
         <v>0.3</v>
